--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC202F6-F65D-41DB-8485-29363971AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B6DDD-BC70-44DF-B8E6-2E42AFA57D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>stageNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodReward</t>
-  </si>
-  <si>
-    <t>stoneReward</t>
-  </si>
-  <si>
-    <t>ironReward</t>
-  </si>
-  <si>
-    <t>foodReward</t>
-  </si>
-  <si>
-    <t>randomReward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>stageLevel</t>
+  </si>
+  <si>
+    <t>enemyIndex</t>
+  </si>
+  <si>
+    <t>enemyPos</t>
+  </si>
+  <si>
+    <t>heroIndex</t>
+  </si>
+  <si>
+    <t>enemyLevel</t>
+  </si>
+  <si>
+    <t>enemyATK</t>
+  </si>
+  <si>
+    <t>enemyDEF</t>
+  </si>
+  <si>
+    <t>enemyHP</t>
+  </si>
+  <si>
+    <t>enemyLead</t>
   </si>
 </sst>
 </file>
@@ -369,21 +376,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
@@ -393,7 +402,7 @@
     <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,6 +420,247 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B6DDD-BC70-44DF-B8E6-2E42AFA57D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A283AE3-8AE0-4958-8E7A-5131F9C56761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -616,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>1</v>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A283AE3-8AE0-4958-8E7A-5131F9C56761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5459D-29AE-4581-A66D-EEDBFDB2286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>stageLevel</t>
   </si>
   <si>
     <t>enemyIndex</t>
-  </si>
-  <si>
-    <t>enemyPos</t>
   </si>
   <si>
     <t>heroIndex</t>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>enemyHP</t>
-  </si>
-  <si>
-    <t>enemyLead</t>
   </si>
 </sst>
 </file>
@@ -376,33 +370,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,14 +415,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,28 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -468,28 +447,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -497,28 +470,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -526,28 +493,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -555,28 +516,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
-        <v>50</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -584,28 +539,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-      <c r="I7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -616,25 +565,19 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -642,25 +585,19 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <v>50</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5459D-29AE-4581-A66D-EEDBFDB2286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518982D2-3C6D-4F8F-BED5-9C11E319278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -370,9 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -600,6 +602,858 @@
         <v>100</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>E2*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <f>F2*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G10">
+        <f>G2*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" ref="A11:A41" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:G11" si="1">E3*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="2">E4*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:G13" si="3">E5*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>A10+1</f>
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>E6*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F14">
+        <f>F6*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G14">
+        <f>G6*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:G15" si="4">E7*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:G16" si="5">E8*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:G17" si="6">E9*1.1</f>
+        <v>132</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>110.00000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>A14+1</f>
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f>E10*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F18">
+        <f>F10*1.1</f>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G18">
+        <f>G10*1.1</f>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:G19" si="7">E11*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:G20" si="8">E12*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:G21" si="9">E13*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="9"/>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>A18+1</f>
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>E14*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F22">
+        <f>F14*1.1</f>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G22">
+        <f>G14*1.1</f>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:G23" si="10">E15*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:G24" si="11">E16*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="11"/>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="11"/>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:G25" si="12">E17*1.1</f>
+        <v>145.20000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="12"/>
+        <v>121.00000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="12"/>
+        <v>121.00000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>A22+1</f>
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>E18*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F26">
+        <f>F18*1.1</f>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G26">
+        <f>G18*1.1</f>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:G27" si="13">E19*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="13"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="13"/>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:G28" si="14">E20*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="14"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="14"/>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:G29" si="15">E21*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="15"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>A26+1</f>
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>E22*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F30">
+        <f>F22*1.1</f>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G30">
+        <f>G22*1.1</f>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:G31" si="16">E23*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="16"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="16"/>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:G32" si="17">E24*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="17"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="17"/>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:G33" si="18">E25*1.1</f>
+        <v>159.72000000000003</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>133.10000000000005</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="18"/>
+        <v>133.10000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>A30+1</f>
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>E26*1.1</f>
+        <v>175.69200000000004</v>
+      </c>
+      <c r="F34">
+        <f>F26*1.1</f>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="G34">
+        <f>G26*1.1</f>
+        <v>146.41000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:G35" si="19">E27*1.1</f>
+        <v>175.69200000000004</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="19"/>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="19"/>
+        <v>146.41000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:G36" si="20">E28*1.1</f>
+        <v>175.69200000000004</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="20"/>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="20"/>
+        <v>146.41000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:G37" si="21">E29*1.1</f>
+        <v>175.69200000000004</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="21"/>
+        <v>146.41000000000008</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="21"/>
+        <v>146.41000000000008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>A34+1</f>
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>250</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>250</v>
+      </c>
+      <c r="F39">
+        <v>200</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>250</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
+      </c>
+      <c r="G40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>250</v>
+      </c>
+      <c r="F41">
+        <v>200</v>
+      </c>
+      <c r="G41">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518982D2-3C6D-4F8F-BED5-9C11E319278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75BC0E4-803A-4016-B4C9-6450C18CD434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F38" sqref="F38:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>E2*1.1</f>
-        <v>132</v>
+        <f>E2*1.2</f>
+        <v>144</v>
       </c>
       <c r="F10">
-        <f>F2*1.1</f>
-        <v>110.00000000000001</v>
+        <f>F2*1.2</f>
+        <v>120</v>
       </c>
       <c r="G10">
-        <f>G2*1.1</f>
-        <v>110.00000000000001</v>
+        <f>G2*1.2</f>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -644,16 +644,16 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:G11" si="1">E3*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E11:G11" si="1">E3*1.2</f>
+        <v>144</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:G12" si="2">E4*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E12:G12" si="2">E4*1.2</f>
+        <v>144</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -698,16 +698,16 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:G13" si="3">E5*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E13:G13" si="3">E5*1.2</f>
+        <v>144</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -725,16 +725,16 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>E6*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E14:G14" si="4">E6*1.2</f>
+        <v>144</v>
       </c>
       <c r="F14">
-        <f>F6*1.1</f>
-        <v>110.00000000000001</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="G14">
-        <f>G6*1.1</f>
-        <v>110.00000000000001</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -752,16 +752,16 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:G15" si="4">E7*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E15:G15" si="5">E7*1.2</f>
+        <v>144</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -779,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:G16" si="5">E8*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E16:G16" si="6">E8*1.2</f>
+        <v>144</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="6"/>
+        <v>120</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="6"/>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -806,16 +806,16 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:G17" si="6">E9*1.1</f>
-        <v>132</v>
+        <f t="shared" ref="E17:G17" si="7">E9*1.2</f>
+        <v>144</v>
       </c>
       <c r="F17">
-        <f t="shared" si="6"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -833,16 +833,16 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>E10*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E18:G18" si="8">E10*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F18">
-        <f>F10*1.1</f>
-        <v>121.00000000000003</v>
+        <f t="shared" si="8"/>
+        <v>144</v>
       </c>
       <c r="G18">
-        <f>G10*1.1</f>
-        <v>121.00000000000003</v>
+        <f t="shared" si="8"/>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -860,16 +860,16 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:G19" si="7">E11*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E19:G19" si="9">E11*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="9"/>
+        <v>144</v>
       </c>
       <c r="G19">
-        <f t="shared" si="7"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="9"/>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -887,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:G20" si="8">E12*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E20:G20" si="10">E12*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F20">
-        <f t="shared" si="8"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="10"/>
+        <v>144</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="10"/>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -914,16 +914,16 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:G21" si="9">E13*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E21:G21" si="11">E13*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F21">
-        <f t="shared" si="9"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="11"/>
+        <v>144</v>
       </c>
       <c r="G21">
-        <f t="shared" si="9"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="11"/>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,16 +941,16 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>E14*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E22:G22" si="12">E14*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F22">
-        <f>F14*1.1</f>
-        <v>121.00000000000003</v>
+        <f t="shared" si="12"/>
+        <v>144</v>
       </c>
       <c r="G22">
-        <f>G14*1.1</f>
-        <v>121.00000000000003</v>
+        <f t="shared" si="12"/>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:G23" si="10">E15*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E23:G23" si="13">E15*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F23">
-        <f t="shared" si="10"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="13"/>
+        <v>144</v>
       </c>
       <c r="G23">
-        <f t="shared" si="10"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="13"/>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:G24" si="11">E16*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E24:G24" si="14">E16*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F24">
-        <f t="shared" si="11"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="14"/>
+        <v>144</v>
       </c>
       <c r="G24">
-        <f t="shared" si="11"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="14"/>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1022,16 +1022,16 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:G25" si="12">E17*1.1</f>
-        <v>145.20000000000002</v>
+        <f t="shared" ref="E25:G25" si="15">E17*1.2</f>
+        <v>172.79999999999998</v>
       </c>
       <c r="F25">
-        <f t="shared" si="12"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="15"/>
+        <v>144</v>
       </c>
       <c r="G25">
-        <f t="shared" si="12"/>
-        <v>121.00000000000003</v>
+        <f t="shared" si="15"/>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1049,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>E18*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E26:G26" si="16">E18*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F26">
-        <f>F18*1.1</f>
-        <v>133.10000000000005</v>
+        <f t="shared" si="16"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G26">
-        <f>G18*1.1</f>
-        <v>133.10000000000005</v>
+        <f t="shared" si="16"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1076,16 +1076,16 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:G27" si="13">E19*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E27:G27" si="17">E19*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F27">
-        <f t="shared" si="13"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="17"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G27">
-        <f t="shared" si="13"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="17"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1103,16 +1103,16 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:G28" si="14">E20*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E28:G28" si="18">E20*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F28">
-        <f t="shared" si="14"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="18"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G28">
-        <f t="shared" si="14"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="18"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1130,16 +1130,16 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:G29" si="15">E21*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E29:G29" si="19">E21*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="15"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="19"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G29">
-        <f t="shared" si="15"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="19"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>E22*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E30:G30" si="20">E22*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F30">
-        <f>F22*1.1</f>
-        <v>133.10000000000005</v>
+        <f t="shared" si="20"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G30">
-        <f>G22*1.1</f>
-        <v>133.10000000000005</v>
+        <f t="shared" si="20"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1184,16 +1184,16 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:G31" si="16">E23*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E31:G31" si="21">E23*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F31">
-        <f t="shared" si="16"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="21"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G31">
-        <f t="shared" si="16"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="21"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f t="shared" ref="E32:G32" si="17">E24*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E32:G32" si="22">E24*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F32">
-        <f t="shared" si="17"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="22"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G32">
-        <f t="shared" si="17"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="22"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1238,16 +1238,16 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:G33" si="18">E25*1.1</f>
-        <v>159.72000000000003</v>
+        <f t="shared" ref="E33:G33" si="23">E25*1.2</f>
+        <v>207.35999999999999</v>
       </c>
       <c r="F33">
-        <f t="shared" si="18"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="23"/>
+        <v>172.79999999999998</v>
       </c>
       <c r="G33">
-        <f t="shared" si="18"/>
-        <v>133.10000000000005</v>
+        <f t="shared" si="23"/>
+        <v>172.79999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1265,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>E26*1.1</f>
-        <v>175.69200000000004</v>
+        <f t="shared" ref="E34:G34" si="24">E26*1.2</f>
+        <v>248.83199999999997</v>
       </c>
       <c r="F34">
-        <f>F26*1.1</f>
-        <v>146.41000000000008</v>
+        <f t="shared" si="24"/>
+        <v>207.35999999999999</v>
       </c>
       <c r="G34">
-        <f>G26*1.1</f>
-        <v>146.41000000000008</v>
+        <f t="shared" si="24"/>
+        <v>207.35999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:G35" si="19">E27*1.1</f>
-        <v>175.69200000000004</v>
+        <f t="shared" ref="E35:G35" si="25">E27*1.2</f>
+        <v>248.83199999999997</v>
       </c>
       <c r="F35">
-        <f t="shared" si="19"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="25"/>
+        <v>207.35999999999999</v>
       </c>
       <c r="G35">
-        <f t="shared" si="19"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="25"/>
+        <v>207.35999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1319,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:G36" si="20">E28*1.1</f>
-        <v>175.69200000000004</v>
+        <f t="shared" ref="E36:G36" si="26">E28*1.2</f>
+        <v>248.83199999999997</v>
       </c>
       <c r="F36">
-        <f t="shared" si="20"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="26"/>
+        <v>207.35999999999999</v>
       </c>
       <c r="G36">
-        <f t="shared" si="20"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="26"/>
+        <v>207.35999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:G37" si="21">E29*1.1</f>
-        <v>175.69200000000004</v>
+        <f t="shared" ref="E37:G37" si="27">E29*1.2</f>
+        <v>248.83199999999997</v>
       </c>
       <c r="F37">
-        <f t="shared" si="21"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="27"/>
+        <v>207.35999999999999</v>
       </c>
       <c r="G37">
-        <f t="shared" si="21"/>
-        <v>146.41000000000008</v>
+        <f t="shared" si="27"/>
+        <v>207.35999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1373,13 +1373,13 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F38">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G38">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F39">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G39">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1421,13 +1421,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G40">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1445,13 +1445,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F41">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G41">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75BC0E4-803A-4016-B4C9-6450C18CD434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07169AAD-6C0B-403E-A1EE-6CEC7807C452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,15 +68,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,12 +102,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -370,18 +404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K21:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
@@ -395,17 +429,17 @@
     <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -418,1040 +452,4172 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>120</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
         <v>120</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
         <v>120</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>120</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>120</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <v>120</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>120</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>120</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>100</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <f>A6+1</f>
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
         <f>E2*1.2</f>
         <v>144</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <f>F2*1.2</f>
         <v>120</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <f>G2*1.2</f>
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" ref="A11:A41" si="0">A7+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="A11" s="1">
+        <f t="shared" ref="A11:A75" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" ref="E11:G11" si="1">E3*1.2</f>
         <v>144</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" ref="E12:G12" si="2">E4*1.2</f>
         <v>144</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" ref="E13:G13" si="3">E5*1.2</f>
         <v>144</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <f>A10+1</f>
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" ref="E14:G14" si="4">E6*1.2</f>
         <v>144</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" ref="E15:G15" si="5">E7*1.2</f>
         <v>144</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
         <v>6</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" ref="E16:G16" si="6">E8*1.2</f>
         <v>144</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
         <v>7</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" ref="E17:G17" si="7">E9*1.2</f>
         <v>144</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <f>A14+1</f>
         <v>5</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" ref="E18:G18" si="8">E10*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" ref="E19:G19" si="9">E11*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <f t="shared" si="9"/>
         <v>144</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <f t="shared" si="9"/>
         <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" ref="E20:G20" si="10">E12*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" ref="E21:G21" si="11">E13*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <f>A18+1</f>
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" ref="E22:G22" si="12">E14*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="7">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" ref="E23:G23" si="13">E15*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" ref="E24:G24" si="14">E16*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="7">
         <f t="shared" si="14"/>
         <v>144</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <f t="shared" si="14"/>
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" ref="E25:G25" si="15">E17*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="7">
         <f t="shared" si="15"/>
         <v>144</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="7">
         <f t="shared" si="15"/>
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <f>A22+1</f>
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" ref="E26:G26" si="16">E18*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" ref="E27:G27" si="17">E19*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
         <f t="shared" ref="E28:G28" si="18">E20*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="7">
         <f t="shared" si="18"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="7">
         <f t="shared" si="18"/>
         <v>172.79999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" ref="E29:G29" si="19">E21*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="7">
         <f t="shared" si="19"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="7">
         <f t="shared" si="19"/>
         <v>172.79999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <f>A26+1</f>
         <v>8</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="7">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" ref="E30:G30" si="20">E22*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="7">
         <f t="shared" si="20"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="7">
         <f t="shared" si="20"/>
         <v>172.79999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="7">
+        <v>4</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" ref="E31:G31" si="21">E23*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="7">
         <f t="shared" si="21"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="7">
         <f t="shared" si="21"/>
         <v>172.79999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" ref="E32:G32" si="22">E24*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7">
         <f t="shared" si="22"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="7">
         <f t="shared" si="22"/>
         <v>172.79999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>7</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7">
         <f t="shared" ref="E33:G33" si="23">E25*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="7">
         <f t="shared" si="23"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="7">
         <f t="shared" si="23"/>
         <v>172.79999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <f>A30+1</f>
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="7">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7">
         <f t="shared" ref="E34:G34" si="24">E26*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="7">
         <f t="shared" si="24"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="7">
         <f t="shared" si="24"/>
         <v>207.35999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
         <f t="shared" ref="E35:G35" si="25">E27*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="7">
         <f t="shared" si="25"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="7">
         <f t="shared" si="25"/>
         <v>207.35999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
         <f t="shared" ref="E36:G36" si="26">E28*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="7">
         <f t="shared" si="26"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="7">
         <f t="shared" si="26"/>
         <v>207.35999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7">
         <f t="shared" ref="E37:G37" si="27">E29*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7">
         <f t="shared" si="27"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="7">
         <f t="shared" si="27"/>
         <v>207.35999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <f>A34+1</f>
         <v>10</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>8</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7">
         <v>400</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="7">
         <v>300</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
         <v>8</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="7">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
         <v>400</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="7">
         <v>300</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
         <v>8</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7">
         <v>400</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="7">
         <v>300</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7">
         <v>8</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="7">
+        <v>5</v>
+      </c>
+      <c r="E41" s="7">
         <v>400</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="7">
         <v>300</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="7">
         <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7">
+        <v>500</v>
+      </c>
+      <c r="F42" s="7">
+        <v>400</v>
+      </c>
+      <c r="G42" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7">
+        <v>500</v>
+      </c>
+      <c r="F43" s="7">
+        <v>400</v>
+      </c>
+      <c r="G43" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>10</v>
+      </c>
+      <c r="D44" s="7">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>500</v>
+      </c>
+      <c r="F44" s="7">
+        <v>400</v>
+      </c>
+      <c r="G44" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7">
+        <v>500</v>
+      </c>
+      <c r="F45" s="7">
+        <v>400</v>
+      </c>
+      <c r="G45" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7">
+        <v>500</v>
+      </c>
+      <c r="F46" s="7">
+        <v>400</v>
+      </c>
+      <c r="G46" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7">
+        <v>5</v>
+      </c>
+      <c r="E47" s="7">
+        <v>500</v>
+      </c>
+      <c r="F47" s="7">
+        <v>400</v>
+      </c>
+      <c r="G47" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7">
+        <v>5</v>
+      </c>
+      <c r="E48" s="7">
+        <v>500</v>
+      </c>
+      <c r="F48" s="7">
+        <v>400</v>
+      </c>
+      <c r="G48" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>15</v>
+      </c>
+      <c r="D49" s="7">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7">
+        <v>500</v>
+      </c>
+      <c r="F49" s="7">
+        <v>400</v>
+      </c>
+      <c r="G49" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>8</v>
+      </c>
+      <c r="D50" s="7">
+        <v>10</v>
+      </c>
+      <c r="E50" s="7">
+        <f>E42*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F50" s="7">
+        <f>F42*1.2</f>
+        <v>480</v>
+      </c>
+      <c r="G50" s="7">
+        <f>G42*1.2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7">
+        <v>10</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" ref="E51:G51" si="28">E43*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="28"/>
+        <v>480</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="28"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>10</v>
+      </c>
+      <c r="D52" s="7">
+        <v>10</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" ref="E52:G52" si="29">E44*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="29"/>
+        <v>480</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="29"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7">
+        <v>10</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" ref="E53:G53" si="30">E45*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="30"/>
+        <v>480</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="30"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>12</v>
+      </c>
+      <c r="D54" s="7">
+        <v>10</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" ref="E54:G54" si="31">E46*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="31"/>
+        <v>480</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="31"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7">
+        <v>13</v>
+      </c>
+      <c r="D55" s="7">
+        <v>10</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" ref="E55:G55" si="32">E47*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="32"/>
+        <v>480</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="32"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7">
+        <v>14</v>
+      </c>
+      <c r="D56" s="7">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" ref="E56:G56" si="33">E48*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="33"/>
+        <v>480</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="33"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7">
+        <v>15</v>
+      </c>
+      <c r="D57" s="7">
+        <v>10</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" ref="E57:G57" si="34">E49*1.2</f>
+        <v>600</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="34"/>
+        <v>480</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="34"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="7">
+        <v>8</v>
+      </c>
+      <c r="D58" s="7">
+        <v>15</v>
+      </c>
+      <c r="E58" s="7">
+        <f>E50*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F58" s="7">
+        <f>F50*1.2</f>
+        <v>576</v>
+      </c>
+      <c r="G58" s="7">
+        <f>G50*1.2</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <v>9</v>
+      </c>
+      <c r="D59" s="7">
+        <v>15</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" ref="E59:G59" si="35">E51*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="35"/>
+        <v>576</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="35"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7">
+        <v>10</v>
+      </c>
+      <c r="D60" s="7">
+        <v>15</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" ref="E60:G60" si="36">E52*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" si="36"/>
+        <v>576</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="36"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <v>11</v>
+      </c>
+      <c r="D61" s="7">
+        <v>15</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" ref="E61:G61" si="37">E53*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="37"/>
+        <v>576</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="37"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>12</v>
+      </c>
+      <c r="D62" s="7">
+        <v>15</v>
+      </c>
+      <c r="E62" s="7">
+        <f t="shared" ref="E62:G62" si="38">E54*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" si="38"/>
+        <v>576</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="38"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7">
+        <v>13</v>
+      </c>
+      <c r="D63" s="7">
+        <v>15</v>
+      </c>
+      <c r="E63" s="7">
+        <f t="shared" ref="E63:G63" si="39">E55*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" si="39"/>
+        <v>576</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="39"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2</v>
+      </c>
+      <c r="C64" s="7">
+        <v>14</v>
+      </c>
+      <c r="D64" s="7">
+        <v>15</v>
+      </c>
+      <c r="E64" s="7">
+        <f t="shared" ref="E64:G64" si="40">E56*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" si="40"/>
+        <v>576</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="40"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7">
+        <v>15</v>
+      </c>
+      <c r="D65" s="7">
+        <v>15</v>
+      </c>
+      <c r="E65" s="7">
+        <f t="shared" ref="E65:G65" si="41">E57*1.2</f>
+        <v>720</v>
+      </c>
+      <c r="F65" s="7">
+        <f t="shared" si="41"/>
+        <v>576</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="41"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="7">
+        <v>8</v>
+      </c>
+      <c r="D66" s="7">
+        <v>20</v>
+      </c>
+      <c r="E66" s="7">
+        <f>E58*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F66" s="7">
+        <f>F58*1.2</f>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G66" s="7">
+        <f>G58*1.2</f>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="7">
+        <v>9</v>
+      </c>
+      <c r="D67" s="7">
+        <v>20</v>
+      </c>
+      <c r="E67" s="7">
+        <f t="shared" ref="E67:G67" si="42">E59*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F67" s="7">
+        <f t="shared" si="42"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="42"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="C68" s="7">
+        <v>10</v>
+      </c>
+      <c r="D68" s="7">
+        <v>20</v>
+      </c>
+      <c r="E68" s="7">
+        <f t="shared" ref="E68:G68" si="43">E60*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" si="43"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="43"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7">
+        <v>11</v>
+      </c>
+      <c r="D69" s="7">
+        <v>20</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" ref="E69:G69" si="44">E61*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" si="44"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="44"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>12</v>
+      </c>
+      <c r="D70" s="7">
+        <v>20</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" ref="E70:G70" si="45">E62*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="45"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="45"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7">
+        <v>13</v>
+      </c>
+      <c r="D71" s="7">
+        <v>20</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" ref="E71:G71" si="46">E63*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="46"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="46"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>14</v>
+      </c>
+      <c r="D72" s="7">
+        <v>20</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" ref="E72:G72" si="47">E64*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="47"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="47"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7">
+        <v>15</v>
+      </c>
+      <c r="D73" s="7">
+        <v>20</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" ref="E73:G73" si="48">E65*1.2</f>
+        <v>864</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="48"/>
+        <v>691.19999999999993</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="48"/>
+        <v>691.19999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <f>A70+1</f>
+        <v>19</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="7">
+        <v>8</v>
+      </c>
+      <c r="D74" s="7">
+        <v>25</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" ref="E74:G74" si="49">E66*1.2</f>
+        <v>1036.8</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="49"/>
+        <v>829.43999999999994</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="49"/>
+        <v>829.43999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7">
+        <v>9</v>
+      </c>
+      <c r="D75" s="7">
+        <v>25</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" ref="E75:G75" si="50">E67*1.2</f>
+        <v>1036.8</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="50"/>
+        <v>829.43999999999994</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="50"/>
+        <v>829.43999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <f t="shared" ref="A76:A139" si="51">A72+1</f>
+        <v>19</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7">
+        <v>10</v>
+      </c>
+      <c r="D76" s="7">
+        <v>25</v>
+      </c>
+      <c r="E76" s="7">
+        <f t="shared" ref="E76:G76" si="52">E68*1.2</f>
+        <v>1036.8</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="52"/>
+        <v>829.43999999999994</v>
+      </c>
+      <c r="G76" s="7">
+        <f t="shared" si="52"/>
+        <v>829.43999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <f t="shared" si="51"/>
+        <v>19</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7">
+        <v>11</v>
+      </c>
+      <c r="D77" s="7">
+        <v>25</v>
+      </c>
+      <c r="E77" s="7">
+        <f t="shared" ref="E77:G77" si="53">E69*1.2</f>
+        <v>1036.8</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="53"/>
+        <v>829.43999999999994</v>
+      </c>
+      <c r="G77" s="7">
+        <f t="shared" si="53"/>
+        <v>829.43999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <f>A74+1</f>
+        <v>20</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0</v>
+      </c>
+      <c r="C78" s="7">
+        <v>16</v>
+      </c>
+      <c r="D78" s="7">
+        <v>25</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F78" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <f t="shared" si="51"/>
+        <v>20</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>16</v>
+      </c>
+      <c r="D79" s="7">
+        <v>25</v>
+      </c>
+      <c r="E79" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F79" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G79" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <f t="shared" si="51"/>
+        <v>20</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="7">
+        <v>16</v>
+      </c>
+      <c r="D80" s="7">
+        <v>25</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F80" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <f t="shared" si="51"/>
+        <v>20</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81" s="7">
+        <v>16</v>
+      </c>
+      <c r="D81" s="7">
+        <v>25</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="7">
+        <v>16</v>
+      </c>
+      <c r="D82" s="7">
+        <v>30</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F82" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="7">
+        <v>17</v>
+      </c>
+      <c r="D83" s="7">
+        <v>30</v>
+      </c>
+      <c r="E83" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F83" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="C84" s="7">
+        <v>18</v>
+      </c>
+      <c r="D84" s="7">
+        <v>30</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <f t="shared" si="51"/>
+        <v>21</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7">
+        <v>19</v>
+      </c>
+      <c r="D85" s="7">
+        <v>30</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G85" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <f t="shared" si="51"/>
+        <v>22</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86" s="7">
+        <v>20</v>
+      </c>
+      <c r="D86" s="7">
+        <v>30</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G86" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <f t="shared" si="51"/>
+        <v>22</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
+        <v>21</v>
+      </c>
+      <c r="D87" s="7">
+        <v>30</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G87" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <f t="shared" si="51"/>
+        <v>22</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7">
+        <v>22</v>
+      </c>
+      <c r="D88" s="7">
+        <v>30</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F88" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G88" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <f t="shared" si="51"/>
+        <v>22</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7">
+        <v>23</v>
+      </c>
+      <c r="D89" s="7">
+        <v>30</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F89" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G89" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <f t="shared" si="51"/>
+        <v>23</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="7">
+        <v>16</v>
+      </c>
+      <c r="D90" s="7">
+        <v>35</v>
+      </c>
+      <c r="E90" s="7">
+        <f>E82*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F90" s="7">
+        <f>F82*1.2</f>
+        <v>1440</v>
+      </c>
+      <c r="G90" s="7">
+        <f>G82*1.2</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f t="shared" si="51"/>
+        <v>23</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7">
+        <v>17</v>
+      </c>
+      <c r="D91" s="7">
+        <v>35</v>
+      </c>
+      <c r="E91" s="7">
+        <f t="shared" ref="E91:G91" si="54">E83*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F91" s="7">
+        <f t="shared" si="54"/>
+        <v>1440</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" si="54"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f t="shared" si="51"/>
+        <v>23</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2</v>
+      </c>
+      <c r="C92" s="7">
+        <v>18</v>
+      </c>
+      <c r="D92" s="7">
+        <v>35</v>
+      </c>
+      <c r="E92" s="7">
+        <f t="shared" ref="E92:G92" si="55">E84*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F92" s="7">
+        <f t="shared" si="55"/>
+        <v>1440</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" si="55"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <f t="shared" si="51"/>
+        <v>23</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3</v>
+      </c>
+      <c r="C93" s="7">
+        <v>19</v>
+      </c>
+      <c r="D93" s="7">
+        <v>35</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" ref="E93:G93" si="56">E85*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F93" s="7">
+        <f t="shared" si="56"/>
+        <v>1440</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" si="56"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0</v>
+      </c>
+      <c r="C94" s="7">
+        <v>20</v>
+      </c>
+      <c r="D94" s="7">
+        <v>35</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" ref="E94:G94" si="57">E86*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" si="57"/>
+        <v>1440</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="57"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="7">
+        <v>21</v>
+      </c>
+      <c r="D95" s="7">
+        <v>35</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" ref="E95:G95" si="58">E87*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="58"/>
+        <v>1440</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="58"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2</v>
+      </c>
+      <c r="C96" s="7">
+        <v>22</v>
+      </c>
+      <c r="D96" s="7">
+        <v>35</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" ref="E96:G96" si="59">E88*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="59"/>
+        <v>1440</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="59"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <f t="shared" si="51"/>
+        <v>24</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3</v>
+      </c>
+      <c r="C97" s="7">
+        <v>23</v>
+      </c>
+      <c r="D97" s="7">
+        <v>35</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" ref="E97:G97" si="60">E89*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="60"/>
+        <v>1440</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="60"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="7">
+        <v>16</v>
+      </c>
+      <c r="D98" s="7">
+        <v>40</v>
+      </c>
+      <c r="E98" s="7">
+        <f>E90*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F98" s="7">
+        <f>F90*1.2</f>
+        <v>1728</v>
+      </c>
+      <c r="G98" s="7">
+        <f>G90*1.2</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="7">
+        <v>17</v>
+      </c>
+      <c r="D99" s="7">
+        <v>40</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" ref="E99:G99" si="61">E91*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="61"/>
+        <v>1728</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="61"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2</v>
+      </c>
+      <c r="C100" s="7">
+        <v>18</v>
+      </c>
+      <c r="D100" s="7">
+        <v>40</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" ref="E100:G100" si="62">E92*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="62"/>
+        <v>1728</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="62"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7">
+        <v>19</v>
+      </c>
+      <c r="D101" s="7">
+        <v>40</v>
+      </c>
+      <c r="E101" s="7">
+        <f t="shared" ref="E101:G101" si="63">E93*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" si="63"/>
+        <v>1728</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" si="63"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <f t="shared" si="51"/>
+        <v>26</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102" s="7">
+        <v>20</v>
+      </c>
+      <c r="D102" s="7">
+        <v>40</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" ref="E102:G102" si="64">E94*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="64"/>
+        <v>1728</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="64"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <f t="shared" si="51"/>
+        <v>26</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7">
+        <v>21</v>
+      </c>
+      <c r="D103" s="7">
+        <v>40</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" ref="E103:G103" si="65">E95*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="65"/>
+        <v>1728</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="65"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <f t="shared" si="51"/>
+        <v>26</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2</v>
+      </c>
+      <c r="C104" s="7">
+        <v>22</v>
+      </c>
+      <c r="D104" s="7">
+        <v>40</v>
+      </c>
+      <c r="E104" s="7">
+        <f t="shared" ref="E104:G104" si="66">E96*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F104" s="7">
+        <f t="shared" si="66"/>
+        <v>1728</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" si="66"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <f t="shared" si="51"/>
+        <v>26</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7">
+        <v>23</v>
+      </c>
+      <c r="D105" s="7">
+        <v>40</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" ref="E105:G105" si="67">E97*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="67"/>
+        <v>1728</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="67"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <f t="shared" si="51"/>
+        <v>27</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="7">
+        <v>16</v>
+      </c>
+      <c r="D106" s="7">
+        <v>45</v>
+      </c>
+      <c r="E106" s="7">
+        <f>E98*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F106" s="7">
+        <f>F98*1.2</f>
+        <v>2073.6</v>
+      </c>
+      <c r="G106" s="7">
+        <f>G98*1.2</f>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <f t="shared" si="51"/>
+        <v>27</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7">
+        <v>17</v>
+      </c>
+      <c r="D107" s="7">
+        <v>45</v>
+      </c>
+      <c r="E107" s="7">
+        <f t="shared" ref="E107:G107" si="68">E99*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F107" s="7">
+        <f t="shared" si="68"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" si="68"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <f t="shared" si="51"/>
+        <v>27</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2</v>
+      </c>
+      <c r="C108" s="7">
+        <v>18</v>
+      </c>
+      <c r="D108" s="7">
+        <v>45</v>
+      </c>
+      <c r="E108" s="7">
+        <f t="shared" ref="E108:G108" si="69">E100*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F108" s="7">
+        <f t="shared" si="69"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="69"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <f t="shared" si="51"/>
+        <v>27</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3</v>
+      </c>
+      <c r="C109" s="7">
+        <v>19</v>
+      </c>
+      <c r="D109" s="7">
+        <v>45</v>
+      </c>
+      <c r="E109" s="7">
+        <f t="shared" ref="E109:G109" si="70">E101*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="70"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="70"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <f t="shared" si="51"/>
+        <v>28</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0</v>
+      </c>
+      <c r="C110" s="7">
+        <v>20</v>
+      </c>
+      <c r="D110" s="7">
+        <v>45</v>
+      </c>
+      <c r="E110" s="7">
+        <f t="shared" ref="E110:G110" si="71">E102*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F110" s="7">
+        <f t="shared" si="71"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" si="71"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <f t="shared" si="51"/>
+        <v>28</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7">
+        <v>21</v>
+      </c>
+      <c r="D111" s="7">
+        <v>45</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" ref="E111:G111" si="72">E103*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F111" s="7">
+        <f t="shared" si="72"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="72"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <f t="shared" si="51"/>
+        <v>28</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2</v>
+      </c>
+      <c r="C112" s="7">
+        <v>22</v>
+      </c>
+      <c r="D112" s="7">
+        <v>45</v>
+      </c>
+      <c r="E112" s="7">
+        <f t="shared" ref="E112:G112" si="73">E104*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F112" s="7">
+        <f t="shared" si="73"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" si="73"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <f t="shared" si="51"/>
+        <v>28</v>
+      </c>
+      <c r="B113" s="3">
+        <v>3</v>
+      </c>
+      <c r="C113" s="7">
+        <v>23</v>
+      </c>
+      <c r="D113" s="7">
+        <v>45</v>
+      </c>
+      <c r="E113" s="7">
+        <f t="shared" ref="E113:G113" si="74">E105*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F113" s="7">
+        <f t="shared" si="74"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G113" s="7">
+        <f t="shared" si="74"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
+        <f>A110+1</f>
+        <v>29</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="7">
+        <v>16</v>
+      </c>
+      <c r="D114" s="7">
+        <v>50</v>
+      </c>
+      <c r="E114" s="7">
+        <f t="shared" ref="E114:G114" si="75">E106*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F114" s="7">
+        <f t="shared" si="75"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G114" s="7">
+        <f t="shared" si="75"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <f t="shared" si="51"/>
+        <v>29</v>
+      </c>
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="7">
+        <v>17</v>
+      </c>
+      <c r="D115" s="7">
+        <v>50</v>
+      </c>
+      <c r="E115" s="7">
+        <f t="shared" ref="E115:G115" si="76">E107*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F115" s="7">
+        <f t="shared" si="76"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G115" s="7">
+        <f t="shared" si="76"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <f t="shared" si="51"/>
+        <v>29</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="7">
+        <v>18</v>
+      </c>
+      <c r="D116" s="7">
+        <v>50</v>
+      </c>
+      <c r="E116" s="7">
+        <f t="shared" ref="E116:G116" si="77">E108*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F116" s="7">
+        <f t="shared" si="77"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" si="77"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <f t="shared" si="51"/>
+        <v>29</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="7">
+        <v>19</v>
+      </c>
+      <c r="D117" s="7">
+        <v>50</v>
+      </c>
+      <c r="E117" s="7">
+        <f t="shared" ref="E117:G117" si="78">E109*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F117" s="7">
+        <f t="shared" si="78"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" si="78"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <f>A114+1</f>
+        <v>30</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0</v>
+      </c>
+      <c r="C118" s="7">
+        <v>24</v>
+      </c>
+      <c r="D118" s="7">
+        <v>50</v>
+      </c>
+      <c r="E118" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F118" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G118" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <f t="shared" si="51"/>
+        <v>30</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="7">
+        <v>24</v>
+      </c>
+      <c r="D119" s="7">
+        <v>50</v>
+      </c>
+      <c r="E119" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F119" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G119" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <f t="shared" si="51"/>
+        <v>30</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="7">
+        <v>24</v>
+      </c>
+      <c r="D120" s="7">
+        <v>50</v>
+      </c>
+      <c r="E120" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F120" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G120" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <f t="shared" si="51"/>
+        <v>30</v>
+      </c>
+      <c r="B121" s="2">
+        <v>3</v>
+      </c>
+      <c r="C121" s="7">
+        <v>24</v>
+      </c>
+      <c r="D121" s="7">
+        <v>50</v>
+      </c>
+      <c r="E121" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F121" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G121" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <f t="shared" si="51"/>
+        <v>31</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0</v>
+      </c>
+      <c r="C122" s="7">
+        <v>24</v>
+      </c>
+      <c r="D122" s="7">
+        <v>30</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G122" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <f t="shared" si="51"/>
+        <v>31</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="7">
+        <v>25</v>
+      </c>
+      <c r="D123" s="7">
+        <v>30</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F123" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G123" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <f t="shared" si="51"/>
+        <v>31</v>
+      </c>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="7">
+        <v>26</v>
+      </c>
+      <c r="D124" s="7">
+        <v>30</v>
+      </c>
+      <c r="E124" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F124" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G124" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <f t="shared" si="51"/>
+        <v>31</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7">
+        <v>27</v>
+      </c>
+      <c r="D125" s="7">
+        <v>30</v>
+      </c>
+      <c r="E125" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F125" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G125" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
+        <f t="shared" si="51"/>
+        <v>32</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0</v>
+      </c>
+      <c r="C126" s="7">
+        <v>28</v>
+      </c>
+      <c r="D126" s="7">
+        <v>30</v>
+      </c>
+      <c r="E126" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G126" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <f t="shared" si="51"/>
+        <v>32</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1</v>
+      </c>
+      <c r="C127" s="7">
+        <v>29</v>
+      </c>
+      <c r="D127" s="7">
+        <v>30</v>
+      </c>
+      <c r="E127" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G127" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <f t="shared" si="51"/>
+        <v>32</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2</v>
+      </c>
+      <c r="C128" s="7">
+        <v>30</v>
+      </c>
+      <c r="D128" s="7">
+        <v>30</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F128" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G128" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <f t="shared" si="51"/>
+        <v>32</v>
+      </c>
+      <c r="B129" s="3">
+        <v>3</v>
+      </c>
+      <c r="C129" s="7">
+        <v>31</v>
+      </c>
+      <c r="D129" s="7">
+        <v>30</v>
+      </c>
+      <c r="E129" s="7">
+        <v>1500</v>
+      </c>
+      <c r="F129" s="7">
+        <v>1200</v>
+      </c>
+      <c r="G129" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
+        <f t="shared" si="51"/>
+        <v>33</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
+      <c r="C130" s="7">
+        <v>24</v>
+      </c>
+      <c r="D130" s="7">
+        <v>35</v>
+      </c>
+      <c r="E130" s="7">
+        <f>E122*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F130" s="7">
+        <f>F122*1.2</f>
+        <v>1440</v>
+      </c>
+      <c r="G130" s="7">
+        <f>G122*1.2</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <f t="shared" si="51"/>
+        <v>33</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1</v>
+      </c>
+      <c r="C131" s="7">
+        <v>25</v>
+      </c>
+      <c r="D131" s="7">
+        <v>35</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" ref="E131:G131" si="79">E123*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F131" s="7">
+        <f t="shared" si="79"/>
+        <v>1440</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" si="79"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <f t="shared" si="51"/>
+        <v>33</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="7">
+        <v>26</v>
+      </c>
+      <c r="D132" s="7">
+        <v>35</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" ref="E132:G132" si="80">E124*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F132" s="7">
+        <f t="shared" si="80"/>
+        <v>1440</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" si="80"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <f t="shared" si="51"/>
+        <v>33</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7">
+        <v>27</v>
+      </c>
+      <c r="D133" s="7">
+        <v>35</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" ref="E133:G133" si="81">E125*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F133" s="7">
+        <f t="shared" si="81"/>
+        <v>1440</v>
+      </c>
+      <c r="G133" s="7">
+        <f t="shared" si="81"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <f t="shared" si="51"/>
+        <v>34</v>
+      </c>
+      <c r="B134" s="5">
+        <v>0</v>
+      </c>
+      <c r="C134" s="7">
+        <v>28</v>
+      </c>
+      <c r="D134" s="7">
+        <v>35</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" ref="E134:G134" si="82">E126*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F134" s="7">
+        <f t="shared" si="82"/>
+        <v>1440</v>
+      </c>
+      <c r="G134" s="7">
+        <f t="shared" si="82"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <f t="shared" si="51"/>
+        <v>34</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="7">
+        <v>29</v>
+      </c>
+      <c r="D135" s="7">
+        <v>35</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" ref="E135:G135" si="83">E127*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F135" s="7">
+        <f t="shared" si="83"/>
+        <v>1440</v>
+      </c>
+      <c r="G135" s="7">
+        <f t="shared" si="83"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <f t="shared" si="51"/>
+        <v>34</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
+      <c r="C136" s="7">
+        <v>30</v>
+      </c>
+      <c r="D136" s="7">
+        <v>35</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" ref="E136:G136" si="84">E128*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F136" s="7">
+        <f t="shared" si="84"/>
+        <v>1440</v>
+      </c>
+      <c r="G136" s="7">
+        <f t="shared" si="84"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <f t="shared" si="51"/>
+        <v>34</v>
+      </c>
+      <c r="B137" s="3">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7">
+        <v>31</v>
+      </c>
+      <c r="D137" s="7">
+        <v>35</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" ref="E137:G137" si="85">E129*1.2</f>
+        <v>1800</v>
+      </c>
+      <c r="F137" s="7">
+        <f t="shared" si="85"/>
+        <v>1440</v>
+      </c>
+      <c r="G137" s="7">
+        <f t="shared" si="85"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
+        <f t="shared" si="51"/>
+        <v>35</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+      <c r="C138" s="7">
+        <v>24</v>
+      </c>
+      <c r="D138" s="7">
+        <v>40</v>
+      </c>
+      <c r="E138" s="7">
+        <f>E130*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F138" s="7">
+        <f>F130*1.2</f>
+        <v>1728</v>
+      </c>
+      <c r="G138" s="7">
+        <f>G130*1.2</f>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <f t="shared" si="51"/>
+        <v>35</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="7">
+        <v>25</v>
+      </c>
+      <c r="D139" s="7">
+        <v>40</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" ref="E139:G139" si="86">E131*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F139" s="7">
+        <f t="shared" si="86"/>
+        <v>1728</v>
+      </c>
+      <c r="G139" s="7">
+        <f t="shared" si="86"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <f t="shared" ref="A140:A161" si="87">A136+1</f>
+        <v>35</v>
+      </c>
+      <c r="B140" s="1">
+        <v>2</v>
+      </c>
+      <c r="C140" s="7">
+        <v>26</v>
+      </c>
+      <c r="D140" s="7">
+        <v>40</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" ref="E140:G140" si="88">E132*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F140" s="7">
+        <f t="shared" si="88"/>
+        <v>1728</v>
+      </c>
+      <c r="G140" s="7">
+        <f t="shared" si="88"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <f t="shared" si="87"/>
+        <v>35</v>
+      </c>
+      <c r="B141" s="1">
+        <v>3</v>
+      </c>
+      <c r="C141" s="7">
+        <v>27</v>
+      </c>
+      <c r="D141" s="7">
+        <v>40</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" ref="E141:G141" si="89">E133*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F141" s="7">
+        <f t="shared" si="89"/>
+        <v>1728</v>
+      </c>
+      <c r="G141" s="7">
+        <f t="shared" si="89"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <f t="shared" si="87"/>
+        <v>36</v>
+      </c>
+      <c r="B142" s="5">
+        <v>0</v>
+      </c>
+      <c r="C142" s="7">
+        <v>28</v>
+      </c>
+      <c r="D142" s="7">
+        <v>40</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" ref="E142:G142" si="90">E134*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F142" s="7">
+        <f t="shared" si="90"/>
+        <v>1728</v>
+      </c>
+      <c r="G142" s="7">
+        <f t="shared" si="90"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <f t="shared" si="87"/>
+        <v>36</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7">
+        <v>29</v>
+      </c>
+      <c r="D143" s="7">
+        <v>40</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" ref="E143:G143" si="91">E135*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F143" s="7">
+        <f t="shared" si="91"/>
+        <v>1728</v>
+      </c>
+      <c r="G143" s="7">
+        <f t="shared" si="91"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <f t="shared" si="87"/>
+        <v>36</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2</v>
+      </c>
+      <c r="C144" s="7">
+        <v>30</v>
+      </c>
+      <c r="D144" s="7">
+        <v>40</v>
+      </c>
+      <c r="E144" s="7">
+        <f t="shared" ref="E144:G144" si="92">E136*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F144" s="7">
+        <f t="shared" si="92"/>
+        <v>1728</v>
+      </c>
+      <c r="G144" s="7">
+        <f t="shared" si="92"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <f t="shared" si="87"/>
+        <v>36</v>
+      </c>
+      <c r="B145" s="3">
+        <v>3</v>
+      </c>
+      <c r="C145" s="7">
+        <v>31</v>
+      </c>
+      <c r="D145" s="7">
+        <v>40</v>
+      </c>
+      <c r="E145" s="7">
+        <f t="shared" ref="E145:G145" si="93">E137*1.2</f>
+        <v>2160</v>
+      </c>
+      <c r="F145" s="7">
+        <f t="shared" si="93"/>
+        <v>1728</v>
+      </c>
+      <c r="G145" s="7">
+        <f t="shared" si="93"/>
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <f t="shared" si="87"/>
+        <v>37</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0</v>
+      </c>
+      <c r="C146" s="7">
+        <v>24</v>
+      </c>
+      <c r="D146" s="7">
+        <v>45</v>
+      </c>
+      <c r="E146" s="7">
+        <f>E138*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F146" s="7">
+        <f>F138*1.2</f>
+        <v>2073.6</v>
+      </c>
+      <c r="G146" s="7">
+        <f>G138*1.2</f>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <f t="shared" si="87"/>
+        <v>37</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1</v>
+      </c>
+      <c r="C147" s="7">
+        <v>25</v>
+      </c>
+      <c r="D147" s="7">
+        <v>45</v>
+      </c>
+      <c r="E147" s="7">
+        <f t="shared" ref="E147:G147" si="94">E139*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F147" s="7">
+        <f t="shared" si="94"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G147" s="7">
+        <f t="shared" si="94"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <f t="shared" si="87"/>
+        <v>37</v>
+      </c>
+      <c r="B148" s="1">
+        <v>2</v>
+      </c>
+      <c r="C148" s="7">
+        <v>26</v>
+      </c>
+      <c r="D148" s="7">
+        <v>45</v>
+      </c>
+      <c r="E148" s="7">
+        <f t="shared" ref="E148:G148" si="95">E140*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F148" s="7">
+        <f t="shared" si="95"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G148" s="7">
+        <f t="shared" si="95"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <f t="shared" si="87"/>
+        <v>37</v>
+      </c>
+      <c r="B149" s="1">
+        <v>3</v>
+      </c>
+      <c r="C149" s="7">
+        <v>27</v>
+      </c>
+      <c r="D149" s="7">
+        <v>45</v>
+      </c>
+      <c r="E149" s="7">
+        <f t="shared" ref="E149:G149" si="96">E141*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F149" s="7">
+        <f t="shared" si="96"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G149" s="7">
+        <f t="shared" si="96"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <f t="shared" si="87"/>
+        <v>38</v>
+      </c>
+      <c r="B150" s="5">
+        <v>0</v>
+      </c>
+      <c r="C150" s="7">
+        <v>28</v>
+      </c>
+      <c r="D150" s="7">
+        <v>45</v>
+      </c>
+      <c r="E150" s="7">
+        <f t="shared" ref="E150:G150" si="97">E142*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F150" s="7">
+        <f t="shared" si="97"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G150" s="7">
+        <f t="shared" si="97"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <f t="shared" si="87"/>
+        <v>38</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+      <c r="C151" s="7">
+        <v>29</v>
+      </c>
+      <c r="D151" s="7">
+        <v>45</v>
+      </c>
+      <c r="E151" s="7">
+        <f t="shared" ref="E151:G151" si="98">E143*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F151" s="7">
+        <f t="shared" si="98"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G151" s="7">
+        <f t="shared" si="98"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <f t="shared" si="87"/>
+        <v>38</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="7">
+        <v>30</v>
+      </c>
+      <c r="D152" s="7">
+        <v>45</v>
+      </c>
+      <c r="E152" s="7">
+        <f t="shared" ref="E152:G152" si="99">E144*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F152" s="7">
+        <f t="shared" si="99"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G152" s="7">
+        <f t="shared" si="99"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
+        <f t="shared" si="87"/>
+        <v>38</v>
+      </c>
+      <c r="B153" s="3">
+        <v>3</v>
+      </c>
+      <c r="C153" s="7">
+        <v>31</v>
+      </c>
+      <c r="D153" s="7">
+        <v>45</v>
+      </c>
+      <c r="E153" s="7">
+        <f t="shared" ref="E153:G153" si="100">E145*1.2</f>
+        <v>2592</v>
+      </c>
+      <c r="F153" s="7">
+        <f t="shared" si="100"/>
+        <v>2073.6</v>
+      </c>
+      <c r="G153" s="7">
+        <f t="shared" si="100"/>
+        <v>2073.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
+        <f>A150+1</f>
+        <v>39</v>
+      </c>
+      <c r="B154" s="4">
+        <v>0</v>
+      </c>
+      <c r="C154" s="7">
+        <v>24</v>
+      </c>
+      <c r="D154" s="7">
+        <v>50</v>
+      </c>
+      <c r="E154" s="7">
+        <f t="shared" ref="E154:G154" si="101">E146*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F154" s="7">
+        <f t="shared" si="101"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G154" s="7">
+        <f t="shared" si="101"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <f t="shared" si="87"/>
+        <v>39</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1</v>
+      </c>
+      <c r="C155" s="7">
+        <v>25</v>
+      </c>
+      <c r="D155" s="7">
+        <v>50</v>
+      </c>
+      <c r="E155" s="7">
+        <f t="shared" ref="E155:G155" si="102">E147*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F155" s="7">
+        <f t="shared" si="102"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G155" s="7">
+        <f t="shared" si="102"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <f t="shared" si="87"/>
+        <v>39</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2</v>
+      </c>
+      <c r="C156" s="7">
+        <v>26</v>
+      </c>
+      <c r="D156" s="7">
+        <v>50</v>
+      </c>
+      <c r="E156" s="7">
+        <f t="shared" ref="E156:G156" si="103">E148*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F156" s="7">
+        <f t="shared" si="103"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G156" s="7">
+        <f t="shared" si="103"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <f t="shared" si="87"/>
+        <v>39</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3</v>
+      </c>
+      <c r="C157" s="7">
+        <v>27</v>
+      </c>
+      <c r="D157" s="7">
+        <v>50</v>
+      </c>
+      <c r="E157" s="7">
+        <f t="shared" ref="E157:G157" si="104">E149*1.2</f>
+        <v>3110.4</v>
+      </c>
+      <c r="F157" s="7">
+        <f t="shared" si="104"/>
+        <v>2488.3199999999997</v>
+      </c>
+      <c r="G157" s="7">
+        <f t="shared" si="104"/>
+        <v>2488.3199999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <f>A154+1</f>
+        <v>40</v>
+      </c>
+      <c r="B158" s="6">
+        <v>0</v>
+      </c>
+      <c r="C158" s="7">
+        <v>32</v>
+      </c>
+      <c r="D158" s="7">
+        <v>50</v>
+      </c>
+      <c r="E158" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F158" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G158" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+      <c r="C159" s="7">
+        <v>32</v>
+      </c>
+      <c r="D159" s="7">
+        <v>50</v>
+      </c>
+      <c r="E159" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F159" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G159" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="7">
+        <v>32</v>
+      </c>
+      <c r="D160" s="7">
+        <v>50</v>
+      </c>
+      <c r="E160" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F160" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G160" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <f t="shared" si="87"/>
+        <v>40</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3</v>
+      </c>
+      <c r="C161" s="7">
+        <v>32</v>
+      </c>
+      <c r="D161" s="7">
+        <v>50</v>
+      </c>
+      <c r="E161" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F161" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G161" s="7">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07169AAD-6C0B-403E-A1EE-6CEC7807C452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4083896-F430-4A91-B248-47790CB93EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -123,7 +123,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -407,15 +406,15 @@
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K21:K23"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
@@ -436,10 +435,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -459,19 +458,19 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>120</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2">
         <v>100</v>
       </c>
     </row>
@@ -482,19 +481,19 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>120</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
         <v>100</v>
       </c>
     </row>
@@ -505,19 +504,19 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>120</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>100</v>
       </c>
     </row>
@@ -528,19 +527,19 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>120</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>100</v>
       </c>
     </row>
@@ -551,19 +550,19 @@
       <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>120</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>100</v>
       </c>
     </row>
@@ -574,19 +573,19 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>120</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>100</v>
       </c>
     </row>
@@ -597,19 +596,19 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>120</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>100</v>
       </c>
     </row>
@@ -620,19 +619,19 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>120</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
         <v>100</v>
       </c>
     </row>
@@ -644,21 +643,21 @@
       <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <f>E2*1.2</f>
         <v>144</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <f>F2*1.2</f>
         <v>120</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
         <f>G2*1.2</f>
         <v>120</v>
       </c>
@@ -671,21 +670,21 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <f t="shared" ref="E11:G11" si="1">E3*1.2</f>
         <v>144</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -698,21 +697,21 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <f t="shared" ref="E12:G12" si="2">E4*1.2</f>
         <v>144</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -725,21 +724,21 @@
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <f t="shared" ref="E13:G13" si="3">E5*1.2</f>
         <v>144</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
@@ -752,21 +751,21 @@
       <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <f t="shared" ref="E14:G14" si="4">E6*1.2</f>
         <v>144</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -779,21 +778,21 @@
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <f t="shared" ref="E15:G15" si="5">E7*1.2</f>
         <v>144</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
@@ -806,21 +805,21 @@
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <f t="shared" ref="E16:G16" si="6">E8*1.2</f>
         <v>144</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -833,21 +832,21 @@
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>7</v>
       </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <f t="shared" ref="E17:G17" si="7">E9*1.2</f>
         <v>144</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
@@ -860,21 +859,21 @@
       <c r="B18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
-        <v>3</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <f t="shared" ref="E18:G18" si="8">E10*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18">
         <f t="shared" si="8"/>
         <v>144</v>
       </c>
@@ -887,21 +886,21 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <f t="shared" ref="E19:G19" si="9">E11*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19">
         <f t="shared" si="9"/>
         <v>144</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19">
         <f t="shared" si="9"/>
         <v>144</v>
       </c>
@@ -914,21 +913,21 @@
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <f t="shared" ref="E20:G20" si="10">E12*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
@@ -941,21 +940,21 @@
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <f t="shared" ref="E21:G21" si="11">E13*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21">
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21">
         <f t="shared" si="11"/>
         <v>144</v>
       </c>
@@ -968,21 +967,21 @@
       <c r="B22" s="5">
         <v>0</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <f t="shared" ref="E22:G22" si="12">E14*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22">
         <f t="shared" si="12"/>
         <v>144</v>
       </c>
@@ -995,21 +994,21 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
-        <v>3</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <f t="shared" ref="E23:G23" si="13">E15*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23">
         <f t="shared" si="13"/>
         <v>144</v>
       </c>
@@ -1022,21 +1021,21 @@
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
-        <v>3</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <f t="shared" ref="E24:G24" si="14">E16*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24">
         <f t="shared" si="14"/>
         <v>144</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24">
         <f t="shared" si="14"/>
         <v>144</v>
       </c>
@@ -1049,21 +1048,21 @@
       <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
-        <v>3</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <f t="shared" ref="E25:G25" si="15">E17*1.2</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25">
         <f t="shared" si="15"/>
         <v>144</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25">
         <f t="shared" si="15"/>
         <v>144</v>
       </c>
@@ -1076,21 +1075,21 @@
       <c r="B26" s="4">
         <v>0</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <f t="shared" ref="E26:G26" si="16">E18*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26">
         <f t="shared" si="16"/>
         <v>172.79999999999998</v>
       </c>
@@ -1103,21 +1102,21 @@
       <c r="B27" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <f t="shared" ref="E27:G27" si="17">E19*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27">
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27">
         <f t="shared" si="17"/>
         <v>172.79999999999998</v>
       </c>
@@ -1130,21 +1129,21 @@
       <c r="B28" s="1">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <f t="shared" ref="E28:G28" si="18">E20*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28">
         <f t="shared" si="18"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28">
         <f t="shared" si="18"/>
         <v>172.79999999999998</v>
       </c>
@@ -1157,21 +1156,21 @@
       <c r="B29" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="7">
-        <v>3</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <f t="shared" ref="E29:G29" si="19">E21*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29">
         <f t="shared" si="19"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29">
         <f t="shared" si="19"/>
         <v>172.79999999999998</v>
       </c>
@@ -1184,21 +1183,21 @@
       <c r="B30" s="5">
         <v>0</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <f t="shared" ref="E30:G30" si="20">E22*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30">
         <f t="shared" si="20"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30">
         <f t="shared" si="20"/>
         <v>172.79999999999998</v>
       </c>
@@ -1211,21 +1210,21 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <f t="shared" ref="E31:G31" si="21">E23*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31">
         <f t="shared" si="21"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31">
         <f t="shared" si="21"/>
         <v>172.79999999999998</v>
       </c>
@@ -1238,21 +1237,21 @@
       <c r="B32" s="3">
         <v>2</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <f t="shared" ref="E32:G32" si="22">E24*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32">
         <f t="shared" si="22"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32">
         <f t="shared" si="22"/>
         <v>172.79999999999998</v>
       </c>
@@ -1265,21 +1264,21 @@
       <c r="B33" s="3">
         <v>3</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>7</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <f t="shared" ref="E33:G33" si="23">E25*1.2</f>
         <v>207.35999999999999</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33">
         <f t="shared" si="23"/>
         <v>172.79999999999998</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33">
         <f t="shared" si="23"/>
         <v>172.79999999999998</v>
       </c>
@@ -1292,21 +1291,21 @@
       <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <f t="shared" ref="E34:G34" si="24">E26*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34">
         <f t="shared" si="24"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34">
         <f t="shared" si="24"/>
         <v>207.35999999999999</v>
       </c>
@@ -1319,21 +1318,21 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <f t="shared" ref="E35:G35" si="25">E27*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35">
         <f t="shared" si="25"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35">
         <f t="shared" si="25"/>
         <v>207.35999999999999</v>
       </c>
@@ -1346,21 +1345,21 @@
       <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <f t="shared" ref="E36:G36" si="26">E28*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36">
         <f t="shared" si="26"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36">
         <f t="shared" si="26"/>
         <v>207.35999999999999</v>
       </c>
@@ -1373,21 +1372,21 @@
       <c r="B37" s="1">
         <v>3</v>
       </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <f t="shared" ref="E37:G37" si="27">E29*1.2</f>
         <v>248.83199999999997</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37">
         <f t="shared" si="27"/>
         <v>207.35999999999999</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37">
         <f t="shared" si="27"/>
         <v>207.35999999999999</v>
       </c>
@@ -1400,19 +1399,19 @@
       <c r="B38" s="6">
         <v>0</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38">
         <v>8</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38">
         <v>400</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38">
         <v>300</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38">
         <v>300</v>
       </c>
     </row>
@@ -1424,19 +1423,19 @@
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>8</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>400</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39">
         <v>300</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39">
         <v>300</v>
       </c>
     </row>
@@ -1448,19 +1447,19 @@
       <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40">
         <v>8</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40">
         <v>5</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40">
         <v>400</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40">
         <v>300</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40">
         <v>300</v>
       </c>
     </row>
@@ -1472,19 +1471,19 @@
       <c r="B41" s="2">
         <v>3</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41">
         <v>8</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41">
         <v>5</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>400</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41">
         <v>300</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41">
         <v>300</v>
       </c>
     </row>
@@ -1496,19 +1495,19 @@
       <c r="B42" s="4">
         <v>0</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42">
         <v>8</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42">
         <v>5</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>500</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42">
         <v>400</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42">
         <v>400</v>
       </c>
     </row>
@@ -1520,19 +1519,19 @@
       <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43">
         <v>9</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>500</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43">
         <v>400</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43">
         <v>400</v>
       </c>
     </row>
@@ -1544,19 +1543,19 @@
       <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44">
         <v>10</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>500</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44">
         <v>400</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44">
         <v>400</v>
       </c>
     </row>
@@ -1568,19 +1567,19 @@
       <c r="B45" s="1">
         <v>3</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45">
         <v>11</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45">
         <v>500</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45">
         <v>400</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45">
         <v>400</v>
       </c>
     </row>
@@ -1592,19 +1591,19 @@
       <c r="B46" s="5">
         <v>0</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46">
         <v>5</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46">
         <v>500</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46">
         <v>400</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46">
         <v>400</v>
       </c>
     </row>
@@ -1616,19 +1615,19 @@
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47">
         <v>13</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47">
         <v>5</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47">
         <v>500</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47">
         <v>400</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47">
         <v>400</v>
       </c>
     </row>
@@ -1640,19 +1639,19 @@
       <c r="B48" s="3">
         <v>2</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48">
         <v>14</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48">
         <v>5</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48">
         <v>500</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48">
         <v>400</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48">
         <v>400</v>
       </c>
     </row>
@@ -1664,19 +1663,19 @@
       <c r="B49" s="3">
         <v>3</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49">
         <v>15</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49">
         <v>500</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49">
         <v>400</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49">
         <v>400</v>
       </c>
     </row>
@@ -1688,21 +1687,21 @@
       <c r="B50" s="4">
         <v>0</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50">
         <v>8</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50">
         <v>10</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50">
         <f>E42*1.2</f>
         <v>600</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50">
         <f>F42*1.2</f>
         <v>480</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50">
         <f>G42*1.2</f>
         <v>480</v>
       </c>
@@ -1715,21 +1714,21 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51">
         <v>10</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51">
         <f t="shared" ref="E51:G51" si="28">E43*1.2</f>
         <v>600</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51">
         <f t="shared" si="28"/>
         <v>480</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51">
         <f t="shared" si="28"/>
         <v>480</v>
       </c>
@@ -1742,21 +1741,21 @@
       <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52">
         <v>10</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52">
         <f t="shared" ref="E52:G52" si="29">E44*1.2</f>
         <v>600</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52">
         <f t="shared" si="29"/>
         <v>480</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52">
         <f t="shared" si="29"/>
         <v>480</v>
       </c>
@@ -1769,21 +1768,21 @@
       <c r="B53" s="1">
         <v>3</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53">
         <v>10</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53">
         <f t="shared" ref="E53:G53" si="30">E45*1.2</f>
         <v>600</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53">
         <f t="shared" si="30"/>
         <v>480</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53">
         <f t="shared" si="30"/>
         <v>480</v>
       </c>
@@ -1796,21 +1795,21 @@
       <c r="B54" s="5">
         <v>0</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54">
         <v>10</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54">
         <f t="shared" ref="E54:G54" si="31">E46*1.2</f>
         <v>600</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54">
         <f t="shared" si="31"/>
         <v>480</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54">
         <f t="shared" si="31"/>
         <v>480</v>
       </c>
@@ -1823,21 +1822,21 @@
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55">
         <v>13</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55">
         <v>10</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55">
         <f t="shared" ref="E55:G55" si="32">E47*1.2</f>
         <v>600</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55">
         <f t="shared" si="32"/>
         <v>480</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55">
         <f t="shared" si="32"/>
         <v>480</v>
       </c>
@@ -1850,21 +1849,21 @@
       <c r="B56" s="3">
         <v>2</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56">
         <v>10</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56">
         <f t="shared" ref="E56:G56" si="33">E48*1.2</f>
         <v>600</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56">
         <f t="shared" si="33"/>
         <v>480</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56">
         <f t="shared" si="33"/>
         <v>480</v>
       </c>
@@ -1877,21 +1876,21 @@
       <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57">
         <v>15</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57">
         <v>10</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57">
         <f t="shared" ref="E57:G57" si="34">E49*1.2</f>
         <v>600</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57">
         <f t="shared" si="34"/>
         <v>480</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57">
         <f t="shared" si="34"/>
         <v>480</v>
       </c>
@@ -1904,21 +1903,21 @@
       <c r="B58" s="4">
         <v>0</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58">
         <v>8</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58">
         <v>15</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58">
         <f>E50*1.2</f>
         <v>720</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58">
         <f>F50*1.2</f>
         <v>576</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58">
         <f>G50*1.2</f>
         <v>576</v>
       </c>
@@ -1931,21 +1930,21 @@
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59">
         <v>9</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59">
         <v>15</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59">
         <f t="shared" ref="E59:G59" si="35">E51*1.2</f>
         <v>720</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59">
         <f t="shared" si="35"/>
         <v>576</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59">
         <f t="shared" si="35"/>
         <v>576</v>
       </c>
@@ -1958,21 +1957,21 @@
       <c r="B60" s="1">
         <v>2</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60">
         <v>10</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60">
         <v>15</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60">
         <f t="shared" ref="E60:G60" si="36">E52*1.2</f>
         <v>720</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60">
         <f t="shared" si="36"/>
         <v>576</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60">
         <f t="shared" si="36"/>
         <v>576</v>
       </c>
@@ -1985,21 +1984,21 @@
       <c r="B61" s="1">
         <v>3</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61">
         <v>11</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61">
         <v>15</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61">
         <f t="shared" ref="E61:G61" si="37">E53*1.2</f>
         <v>720</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61">
         <f t="shared" si="37"/>
         <v>576</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61">
         <f t="shared" si="37"/>
         <v>576</v>
       </c>
@@ -2012,21 +2011,21 @@
       <c r="B62" s="5">
         <v>0</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62">
         <v>12</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62">
         <v>15</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62">
         <f t="shared" ref="E62:G62" si="38">E54*1.2</f>
         <v>720</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62">
         <f t="shared" si="38"/>
         <v>576</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62">
         <f t="shared" si="38"/>
         <v>576</v>
       </c>
@@ -2039,21 +2038,21 @@
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63">
         <v>13</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63">
         <v>15</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63">
         <f t="shared" ref="E63:G63" si="39">E55*1.2</f>
         <v>720</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63">
         <f t="shared" si="39"/>
         <v>576</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63">
         <f t="shared" si="39"/>
         <v>576</v>
       </c>
@@ -2066,21 +2065,21 @@
       <c r="B64" s="3">
         <v>2</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64">
         <v>14</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64">
         <v>15</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64">
         <f t="shared" ref="E64:G64" si="40">E56*1.2</f>
         <v>720</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64">
         <f t="shared" si="40"/>
         <v>576</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64">
         <f t="shared" si="40"/>
         <v>576</v>
       </c>
@@ -2093,21 +2092,21 @@
       <c r="B65" s="3">
         <v>3</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65">
         <v>15</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65">
         <v>15</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65">
         <f t="shared" ref="E65:G65" si="41">E57*1.2</f>
         <v>720</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65">
         <f t="shared" si="41"/>
         <v>576</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65">
         <f t="shared" si="41"/>
         <v>576</v>
       </c>
@@ -2120,21 +2119,21 @@
       <c r="B66" s="4">
         <v>0</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66">
         <v>8</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66">
         <v>20</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66">
         <f>E58*1.2</f>
         <v>864</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66">
         <f>F58*1.2</f>
         <v>691.19999999999993</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66">
         <f>G58*1.2</f>
         <v>691.19999999999993</v>
       </c>
@@ -2147,21 +2146,21 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67">
         <v>9</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67">
         <v>20</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67">
         <f t="shared" ref="E67:G67" si="42">E59*1.2</f>
         <v>864</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67">
         <f t="shared" si="42"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67">
         <f t="shared" si="42"/>
         <v>691.19999999999993</v>
       </c>
@@ -2174,21 +2173,21 @@
       <c r="B68" s="1">
         <v>2</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68">
         <v>10</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68">
         <v>20</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68">
         <f t="shared" ref="E68:G68" si="43">E60*1.2</f>
         <v>864</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68">
         <f t="shared" si="43"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68">
         <f t="shared" si="43"/>
         <v>691.19999999999993</v>
       </c>
@@ -2201,21 +2200,21 @@
       <c r="B69" s="1">
         <v>3</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69">
         <v>11</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69">
         <v>20</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69">
         <f t="shared" ref="E69:G69" si="44">E61*1.2</f>
         <v>864</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69">
         <f t="shared" si="44"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69">
         <f t="shared" si="44"/>
         <v>691.19999999999993</v>
       </c>
@@ -2228,21 +2227,21 @@
       <c r="B70" s="5">
         <v>0</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70">
         <v>12</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70">
         <v>20</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70">
         <f t="shared" ref="E70:G70" si="45">E62*1.2</f>
         <v>864</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70">
         <f t="shared" si="45"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70">
         <f t="shared" si="45"/>
         <v>691.19999999999993</v>
       </c>
@@ -2255,21 +2254,21 @@
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71">
         <v>13</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71">
         <v>20</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71">
         <f t="shared" ref="E71:G71" si="46">E63*1.2</f>
         <v>864</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71">
         <f t="shared" si="46"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71">
         <f t="shared" si="46"/>
         <v>691.19999999999993</v>
       </c>
@@ -2282,21 +2281,21 @@
       <c r="B72" s="3">
         <v>2</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72">
         <v>14</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72">
         <v>20</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72">
         <f t="shared" ref="E72:G72" si="47">E64*1.2</f>
         <v>864</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72">
         <f t="shared" si="47"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72">
         <f t="shared" si="47"/>
         <v>691.19999999999993</v>
       </c>
@@ -2309,21 +2308,21 @@
       <c r="B73" s="3">
         <v>3</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73">
         <v>15</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73">
         <v>20</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73">
         <f t="shared" ref="E73:G73" si="48">E65*1.2</f>
         <v>864</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73">
         <f t="shared" si="48"/>
         <v>691.19999999999993</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73">
         <f t="shared" si="48"/>
         <v>691.19999999999993</v>
       </c>
@@ -2336,21 +2335,21 @@
       <c r="B74" s="4">
         <v>0</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74">
         <v>8</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74">
         <v>25</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74">
         <f t="shared" ref="E74:G74" si="49">E66*1.2</f>
         <v>1036.8</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74">
         <f t="shared" si="49"/>
         <v>829.43999999999994</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74">
         <f t="shared" si="49"/>
         <v>829.43999999999994</v>
       </c>
@@ -2363,21 +2362,21 @@
       <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75">
         <v>9</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75">
         <v>25</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75">
         <f t="shared" ref="E75:G75" si="50">E67*1.2</f>
         <v>1036.8</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75">
         <f t="shared" si="50"/>
         <v>829.43999999999994</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75">
         <f t="shared" si="50"/>
         <v>829.43999999999994</v>
       </c>
@@ -2390,21 +2389,21 @@
       <c r="B76" s="1">
         <v>2</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76">
         <v>10</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76">
         <v>25</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76">
         <f t="shared" ref="E76:G76" si="52">E68*1.2</f>
         <v>1036.8</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76">
         <f t="shared" si="52"/>
         <v>829.43999999999994</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76">
         <f t="shared" si="52"/>
         <v>829.43999999999994</v>
       </c>
@@ -2417,21 +2416,21 @@
       <c r="B77" s="1">
         <v>3</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77">
         <v>11</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77">
         <v>25</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77">
         <f t="shared" ref="E77:G77" si="53">E69*1.2</f>
         <v>1036.8</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77">
         <f t="shared" si="53"/>
         <v>829.43999999999994</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77">
         <f t="shared" si="53"/>
         <v>829.43999999999994</v>
       </c>
@@ -2444,19 +2443,19 @@
       <c r="B78" s="6">
         <v>0</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78">
         <v>16</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78">
         <v>25</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78">
         <v>1200</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78">
         <v>1000</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78">
         <v>1000</v>
       </c>
     </row>
@@ -2468,19 +2467,19 @@
       <c r="B79" s="2">
         <v>1</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79">
         <v>16</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79">
         <v>25</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79">
         <v>1200</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79">
         <v>1000</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79">
         <v>1000</v>
       </c>
     </row>
@@ -2492,19 +2491,19 @@
       <c r="B80" s="2">
         <v>2</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80">
         <v>16</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80">
         <v>25</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80">
         <v>1200</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80">
         <v>1000</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80">
         <v>1000</v>
       </c>
     </row>
@@ -2516,19 +2515,19 @@
       <c r="B81" s="2">
         <v>3</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81">
         <v>16</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81">
         <v>25</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81">
         <v>1200</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81">
         <v>1000</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81">
         <v>1000</v>
       </c>
     </row>
@@ -2540,19 +2539,19 @@
       <c r="B82" s="4">
         <v>0</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82">
         <v>16</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82">
         <v>30</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82">
         <v>1500</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82">
         <v>1200</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82">
         <v>1200</v>
       </c>
     </row>
@@ -2564,19 +2563,19 @@
       <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83">
         <v>17</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83">
         <v>30</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83">
         <v>1500</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83">
         <v>1200</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83">
         <v>1200</v>
       </c>
     </row>
@@ -2588,19 +2587,19 @@
       <c r="B84" s="1">
         <v>2</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84">
         <v>18</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84">
         <v>30</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84">
         <v>1500</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84">
         <v>1200</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84">
         <v>1200</v>
       </c>
     </row>
@@ -2612,19 +2611,19 @@
       <c r="B85" s="1">
         <v>3</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85">
         <v>19</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85">
         <v>30</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85">
         <v>1500</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85">
         <v>1200</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85">
         <v>1200</v>
       </c>
     </row>
@@ -2636,19 +2635,19 @@
       <c r="B86" s="5">
         <v>0</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86">
         <v>20</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86">
         <v>30</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86">
         <v>1500</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86">
         <v>1200</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86">
         <v>1200</v>
       </c>
     </row>
@@ -2660,19 +2659,19 @@
       <c r="B87" s="3">
         <v>1</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87">
         <v>21</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87">
         <v>30</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87">
         <v>1500</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87">
         <v>1200</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87">
         <v>1200</v>
       </c>
     </row>
@@ -2684,19 +2683,19 @@
       <c r="B88" s="3">
         <v>2</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88">
         <v>22</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88">
         <v>30</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88">
         <v>1500</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88">
         <v>1200</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88">
         <v>1200</v>
       </c>
     </row>
@@ -2708,19 +2707,19 @@
       <c r="B89" s="3">
         <v>3</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89">
         <v>23</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89">
         <v>30</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89">
         <v>1500</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89">
         <v>1200</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89">
         <v>1200</v>
       </c>
     </row>
@@ -2732,21 +2731,21 @@
       <c r="B90" s="4">
         <v>0</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90">
         <v>16</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90">
         <v>35</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90">
         <f>E82*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90">
         <f>F82*1.2</f>
         <v>1440</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90">
         <f>G82*1.2</f>
         <v>1440</v>
       </c>
@@ -2759,21 +2758,21 @@
       <c r="B91" s="1">
         <v>1</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91">
         <v>17</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91">
         <v>35</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91">
         <f t="shared" ref="E91:G91" si="54">E83*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91">
         <f t="shared" si="54"/>
         <v>1440</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91">
         <f t="shared" si="54"/>
         <v>1440</v>
       </c>
@@ -2786,21 +2785,21 @@
       <c r="B92" s="1">
         <v>2</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92">
         <v>18</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92">
         <v>35</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92">
         <f t="shared" ref="E92:G92" si="55">E84*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92">
         <f t="shared" si="55"/>
         <v>1440</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92">
         <f t="shared" si="55"/>
         <v>1440</v>
       </c>
@@ -2813,21 +2812,21 @@
       <c r="B93" s="1">
         <v>3</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93">
         <v>19</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93">
         <v>35</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93">
         <f t="shared" ref="E93:G93" si="56">E85*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93">
         <f t="shared" si="56"/>
         <v>1440</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93">
         <f t="shared" si="56"/>
         <v>1440</v>
       </c>
@@ -2840,21 +2839,21 @@
       <c r="B94" s="5">
         <v>0</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94">
         <v>20</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94">
         <v>35</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94">
         <f t="shared" ref="E94:G94" si="57">E86*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94">
         <f t="shared" si="57"/>
         <v>1440</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94">
         <f t="shared" si="57"/>
         <v>1440</v>
       </c>
@@ -2867,21 +2866,21 @@
       <c r="B95" s="3">
         <v>1</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95">
         <v>21</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95">
         <v>35</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95">
         <f t="shared" ref="E95:G95" si="58">E87*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95">
         <f t="shared" si="58"/>
         <v>1440</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95">
         <f t="shared" si="58"/>
         <v>1440</v>
       </c>
@@ -2894,21 +2893,21 @@
       <c r="B96" s="3">
         <v>2</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96">
         <v>22</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96">
         <v>35</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96">
         <f t="shared" ref="E96:G96" si="59">E88*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96">
         <f t="shared" si="59"/>
         <v>1440</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96">
         <f t="shared" si="59"/>
         <v>1440</v>
       </c>
@@ -2921,21 +2920,21 @@
       <c r="B97" s="3">
         <v>3</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97">
         <v>23</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97">
         <v>35</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97">
         <f t="shared" ref="E97:G97" si="60">E89*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97">
         <f t="shared" si="60"/>
         <v>1440</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97">
         <f t="shared" si="60"/>
         <v>1440</v>
       </c>
@@ -2948,21 +2947,21 @@
       <c r="B98" s="4">
         <v>0</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98">
         <v>16</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98">
         <v>40</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98">
         <f>E90*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98">
         <f>F90*1.2</f>
         <v>1728</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98">
         <f>G90*1.2</f>
         <v>1728</v>
       </c>
@@ -2975,21 +2974,21 @@
       <c r="B99" s="1">
         <v>1</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99">
         <v>17</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99">
         <v>40</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99">
         <f t="shared" ref="E99:G99" si="61">E91*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99">
         <f t="shared" si="61"/>
         <v>1728</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99">
         <f t="shared" si="61"/>
         <v>1728</v>
       </c>
@@ -3002,21 +3001,21 @@
       <c r="B100" s="1">
         <v>2</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100">
         <v>18</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100">
         <v>40</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100">
         <f t="shared" ref="E100:G100" si="62">E92*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100">
         <f t="shared" si="62"/>
         <v>1728</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100">
         <f t="shared" si="62"/>
         <v>1728</v>
       </c>
@@ -3029,21 +3028,21 @@
       <c r="B101" s="1">
         <v>3</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101">
         <v>19</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101">
         <v>40</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101">
         <f t="shared" ref="E101:G101" si="63">E93*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101">
         <f t="shared" si="63"/>
         <v>1728</v>
       </c>
-      <c r="G101" s="7">
+      <c r="G101">
         <f t="shared" si="63"/>
         <v>1728</v>
       </c>
@@ -3056,21 +3055,21 @@
       <c r="B102" s="5">
         <v>0</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102">
         <v>20</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102">
         <v>40</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102">
         <f t="shared" ref="E102:G102" si="64">E94*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102">
         <f t="shared" si="64"/>
         <v>1728</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102">
         <f t="shared" si="64"/>
         <v>1728</v>
       </c>
@@ -3083,21 +3082,21 @@
       <c r="B103" s="3">
         <v>1</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103">
         <v>21</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103">
         <v>40</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103">
         <f t="shared" ref="E103:G103" si="65">E95*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103">
         <f t="shared" si="65"/>
         <v>1728</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103">
         <f t="shared" si="65"/>
         <v>1728</v>
       </c>
@@ -3110,21 +3109,21 @@
       <c r="B104" s="3">
         <v>2</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104">
         <v>22</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104">
         <v>40</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104">
         <f t="shared" ref="E104:G104" si="66">E96*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104">
         <f t="shared" si="66"/>
         <v>1728</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104">
         <f t="shared" si="66"/>
         <v>1728</v>
       </c>
@@ -3137,21 +3136,21 @@
       <c r="B105" s="3">
         <v>3</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105">
         <v>23</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105">
         <v>40</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105">
         <f t="shared" ref="E105:G105" si="67">E97*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105">
         <f t="shared" si="67"/>
         <v>1728</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105">
         <f t="shared" si="67"/>
         <v>1728</v>
       </c>
@@ -3164,21 +3163,21 @@
       <c r="B106" s="4">
         <v>0</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106">
         <v>16</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106">
         <v>45</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106">
         <f>E98*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106">
         <f>F98*1.2</f>
         <v>2073.6</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106">
         <f>G98*1.2</f>
         <v>2073.6</v>
       </c>
@@ -3191,21 +3190,21 @@
       <c r="B107" s="1">
         <v>1</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107">
         <v>17</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107">
         <v>45</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107">
         <f t="shared" ref="E107:G107" si="68">E99*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107">
         <f t="shared" si="68"/>
         <v>2073.6</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107">
         <f t="shared" si="68"/>
         <v>2073.6</v>
       </c>
@@ -3218,21 +3217,21 @@
       <c r="B108" s="1">
         <v>2</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108">
         <v>18</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108">
         <v>45</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108">
         <f t="shared" ref="E108:G108" si="69">E100*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108">
         <f t="shared" si="69"/>
         <v>2073.6</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108">
         <f t="shared" si="69"/>
         <v>2073.6</v>
       </c>
@@ -3245,21 +3244,21 @@
       <c r="B109" s="1">
         <v>3</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109">
         <v>19</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109">
         <v>45</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109">
         <f t="shared" ref="E109:G109" si="70">E101*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109">
         <f t="shared" si="70"/>
         <v>2073.6</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109">
         <f t="shared" si="70"/>
         <v>2073.6</v>
       </c>
@@ -3272,21 +3271,21 @@
       <c r="B110" s="5">
         <v>0</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110">
         <v>20</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110">
         <v>45</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110">
         <f t="shared" ref="E110:G110" si="71">E102*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110">
         <f t="shared" si="71"/>
         <v>2073.6</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110">
         <f t="shared" si="71"/>
         <v>2073.6</v>
       </c>
@@ -3299,21 +3298,21 @@
       <c r="B111" s="3">
         <v>1</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111">
         <v>21</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111">
         <v>45</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111">
         <f t="shared" ref="E111:G111" si="72">E103*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111">
         <f t="shared" si="72"/>
         <v>2073.6</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111">
         <f t="shared" si="72"/>
         <v>2073.6</v>
       </c>
@@ -3326,21 +3325,21 @@
       <c r="B112" s="3">
         <v>2</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112">
         <v>22</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112">
         <v>45</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112">
         <f t="shared" ref="E112:G112" si="73">E104*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112">
         <f t="shared" si="73"/>
         <v>2073.6</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112">
         <f t="shared" si="73"/>
         <v>2073.6</v>
       </c>
@@ -3353,21 +3352,21 @@
       <c r="B113" s="3">
         <v>3</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113">
         <v>23</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113">
         <v>45</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113">
         <f t="shared" ref="E113:G113" si="74">E105*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113">
         <f t="shared" si="74"/>
         <v>2073.6</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G113">
         <f t="shared" si="74"/>
         <v>2073.6</v>
       </c>
@@ -3380,21 +3379,21 @@
       <c r="B114" s="4">
         <v>0</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114">
         <v>16</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114">
         <v>50</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114">
         <f t="shared" ref="E114:G114" si="75">E106*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114">
         <f t="shared" si="75"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G114" s="7">
+      <c r="G114">
         <f t="shared" si="75"/>
         <v>2488.3199999999997</v>
       </c>
@@ -3407,21 +3406,21 @@
       <c r="B115" s="1">
         <v>1</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115">
         <v>17</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115">
         <v>50</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115">
         <f t="shared" ref="E115:G115" si="76">E107*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115">
         <f t="shared" si="76"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G115" s="7">
+      <c r="G115">
         <f t="shared" si="76"/>
         <v>2488.3199999999997</v>
       </c>
@@ -3434,21 +3433,21 @@
       <c r="B116" s="1">
         <v>2</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116">
         <v>18</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116">
         <v>50</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116">
         <f t="shared" ref="E116:G116" si="77">E108*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116">
         <f t="shared" si="77"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G116">
         <f t="shared" si="77"/>
         <v>2488.3199999999997</v>
       </c>
@@ -3461,21 +3460,21 @@
       <c r="B117" s="1">
         <v>3</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117">
         <v>19</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117">
         <v>50</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117">
         <f t="shared" ref="E117:G117" si="78">E109*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117">
         <f t="shared" si="78"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117">
         <f t="shared" si="78"/>
         <v>2488.3199999999997</v>
       </c>
@@ -3488,19 +3487,19 @@
       <c r="B118" s="6">
         <v>0</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118">
         <v>24</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118">
         <v>50</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118">
         <v>3500</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118">
         <v>3000</v>
       </c>
-      <c r="G118" s="7">
+      <c r="G118">
         <v>3000</v>
       </c>
     </row>
@@ -3512,19 +3511,19 @@
       <c r="B119" s="2">
         <v>1</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119">
         <v>24</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119">
         <v>50</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119">
         <v>3500</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119">
         <v>3000</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119">
         <v>3000</v>
       </c>
     </row>
@@ -3536,19 +3535,19 @@
       <c r="B120" s="2">
         <v>2</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120">
         <v>24</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120">
         <v>50</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120">
         <v>3500</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120">
         <v>3000</v>
       </c>
-      <c r="G120" s="7">
+      <c r="G120">
         <v>3000</v>
       </c>
     </row>
@@ -3560,19 +3559,19 @@
       <c r="B121" s="2">
         <v>3</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121">
         <v>24</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121">
         <v>50</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121">
         <v>3500</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121">
         <v>3000</v>
       </c>
-      <c r="G121" s="7">
+      <c r="G121">
         <v>3000</v>
       </c>
     </row>
@@ -3584,19 +3583,19 @@
       <c r="B122" s="4">
         <v>0</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122">
         <v>24</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122">
         <v>30</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122">
         <v>1500</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122">
         <v>1200</v>
       </c>
-      <c r="G122" s="7">
+      <c r="G122">
         <v>1200</v>
       </c>
     </row>
@@ -3608,19 +3607,19 @@
       <c r="B123" s="1">
         <v>1</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123">
         <v>25</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123">
         <v>30</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123">
         <v>1500</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123">
         <v>1200</v>
       </c>
-      <c r="G123" s="7">
+      <c r="G123">
         <v>1200</v>
       </c>
     </row>
@@ -3632,19 +3631,19 @@
       <c r="B124" s="1">
         <v>2</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124">
         <v>26</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124">
         <v>30</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124">
         <v>1500</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124">
         <v>1200</v>
       </c>
-      <c r="G124" s="7">
+      <c r="G124">
         <v>1200</v>
       </c>
     </row>
@@ -3656,19 +3655,19 @@
       <c r="B125" s="1">
         <v>3</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125">
         <v>27</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125">
         <v>30</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125">
         <v>1500</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125">
         <v>1200</v>
       </c>
-      <c r="G125" s="7">
+      <c r="G125">
         <v>1200</v>
       </c>
     </row>
@@ -3680,19 +3679,19 @@
       <c r="B126" s="5">
         <v>0</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C126">
         <v>28</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126">
         <v>30</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126">
         <v>1500</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126">
         <v>1200</v>
       </c>
-      <c r="G126" s="7">
+      <c r="G126">
         <v>1200</v>
       </c>
     </row>
@@ -3704,19 +3703,19 @@
       <c r="B127" s="3">
         <v>1</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127">
         <v>29</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127">
         <v>30</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127">
         <v>1500</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127">
         <v>1200</v>
       </c>
-      <c r="G127" s="7">
+      <c r="G127">
         <v>1200</v>
       </c>
     </row>
@@ -3728,19 +3727,19 @@
       <c r="B128" s="3">
         <v>2</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128">
         <v>30</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128">
         <v>30</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128">
         <v>1500</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128">
         <v>1200</v>
       </c>
-      <c r="G128" s="7">
+      <c r="G128">
         <v>1200</v>
       </c>
     </row>
@@ -3752,19 +3751,19 @@
       <c r="B129" s="3">
         <v>3</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129">
         <v>31</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129">
         <v>30</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129">
         <v>1500</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129">
         <v>1200</v>
       </c>
-      <c r="G129" s="7">
+      <c r="G129">
         <v>1200</v>
       </c>
     </row>
@@ -3776,21 +3775,21 @@
       <c r="B130" s="4">
         <v>0</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C130">
         <v>24</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130">
         <v>35</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130">
         <f>E122*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130">
         <f>F122*1.2</f>
         <v>1440</v>
       </c>
-      <c r="G130" s="7">
+      <c r="G130">
         <f>G122*1.2</f>
         <v>1440</v>
       </c>
@@ -3803,21 +3802,21 @@
       <c r="B131" s="1">
         <v>1</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C131">
         <v>25</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131">
         <v>35</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131">
         <f t="shared" ref="E131:G131" si="79">E123*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131">
         <f t="shared" si="79"/>
         <v>1440</v>
       </c>
-      <c r="G131" s="7">
+      <c r="G131">
         <f t="shared" si="79"/>
         <v>1440</v>
       </c>
@@ -3830,21 +3829,21 @@
       <c r="B132" s="1">
         <v>2</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132">
         <v>26</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132">
         <v>35</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132">
         <f t="shared" ref="E132:G132" si="80">E124*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132">
         <f t="shared" si="80"/>
         <v>1440</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132">
         <f t="shared" si="80"/>
         <v>1440</v>
       </c>
@@ -3857,21 +3856,21 @@
       <c r="B133" s="1">
         <v>3</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133">
         <v>27</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133">
         <v>35</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133">
         <f t="shared" ref="E133:G133" si="81">E125*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133">
         <f t="shared" si="81"/>
         <v>1440</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G133">
         <f t="shared" si="81"/>
         <v>1440</v>
       </c>
@@ -3884,21 +3883,21 @@
       <c r="B134" s="5">
         <v>0</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134">
         <v>28</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134">
         <v>35</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134">
         <f t="shared" ref="E134:G134" si="82">E126*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134">
         <f t="shared" si="82"/>
         <v>1440</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134">
         <f t="shared" si="82"/>
         <v>1440</v>
       </c>
@@ -3911,21 +3910,21 @@
       <c r="B135" s="3">
         <v>1</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135">
         <v>29</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135">
         <v>35</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135">
         <f t="shared" ref="E135:G135" si="83">E127*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135">
         <f t="shared" si="83"/>
         <v>1440</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135">
         <f t="shared" si="83"/>
         <v>1440</v>
       </c>
@@ -3938,21 +3937,21 @@
       <c r="B136" s="3">
         <v>2</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136">
         <v>30</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136">
         <v>35</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136">
         <f t="shared" ref="E136:G136" si="84">E128*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136">
         <f t="shared" si="84"/>
         <v>1440</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136">
         <f t="shared" si="84"/>
         <v>1440</v>
       </c>
@@ -3965,21 +3964,21 @@
       <c r="B137" s="3">
         <v>3</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137">
         <v>31</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137">
         <v>35</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137">
         <f t="shared" ref="E137:G137" si="85">E129*1.2</f>
         <v>1800</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137">
         <f t="shared" si="85"/>
         <v>1440</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G137">
         <f t="shared" si="85"/>
         <v>1440</v>
       </c>
@@ -3992,21 +3991,21 @@
       <c r="B138" s="4">
         <v>0</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138">
         <v>24</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138">
         <v>40</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138">
         <f>E130*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138">
         <f>F130*1.2</f>
         <v>1728</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138">
         <f>G130*1.2</f>
         <v>1728</v>
       </c>
@@ -4019,21 +4018,21 @@
       <c r="B139" s="1">
         <v>1</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139">
         <v>25</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139">
         <v>40</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139">
         <f t="shared" ref="E139:G139" si="86">E131*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139">
         <f t="shared" si="86"/>
         <v>1728</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139">
         <f t="shared" si="86"/>
         <v>1728</v>
       </c>
@@ -4046,21 +4045,21 @@
       <c r="B140" s="1">
         <v>2</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140">
         <v>26</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140">
         <v>40</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140">
         <f t="shared" ref="E140:G140" si="88">E132*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140">
         <f t="shared" si="88"/>
         <v>1728</v>
       </c>
-      <c r="G140" s="7">
+      <c r="G140">
         <f t="shared" si="88"/>
         <v>1728</v>
       </c>
@@ -4073,21 +4072,21 @@
       <c r="B141" s="1">
         <v>3</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141">
         <v>27</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141">
         <v>40</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141">
         <f t="shared" ref="E141:G141" si="89">E133*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141">
         <f t="shared" si="89"/>
         <v>1728</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141">
         <f t="shared" si="89"/>
         <v>1728</v>
       </c>
@@ -4100,21 +4099,21 @@
       <c r="B142" s="5">
         <v>0</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142">
         <v>28</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142">
         <v>40</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142">
         <f t="shared" ref="E142:G142" si="90">E134*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142">
         <f t="shared" si="90"/>
         <v>1728</v>
       </c>
-      <c r="G142" s="7">
+      <c r="G142">
         <f t="shared" si="90"/>
         <v>1728</v>
       </c>
@@ -4127,21 +4126,21 @@
       <c r="B143" s="3">
         <v>1</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143">
         <v>29</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143">
         <v>40</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143">
         <f t="shared" ref="E143:G143" si="91">E135*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143">
         <f t="shared" si="91"/>
         <v>1728</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143">
         <f t="shared" si="91"/>
         <v>1728</v>
       </c>
@@ -4154,21 +4153,21 @@
       <c r="B144" s="3">
         <v>2</v>
       </c>
-      <c r="C144" s="7">
+      <c r="C144">
         <v>30</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144">
         <v>40</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144">
         <f t="shared" ref="E144:G144" si="92">E136*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144">
         <f t="shared" si="92"/>
         <v>1728</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144">
         <f t="shared" si="92"/>
         <v>1728</v>
       </c>
@@ -4181,21 +4180,21 @@
       <c r="B145" s="3">
         <v>3</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145">
         <v>31</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145">
         <v>40</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145">
         <f t="shared" ref="E145:G145" si="93">E137*1.2</f>
         <v>2160</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145">
         <f t="shared" si="93"/>
         <v>1728</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145">
         <f t="shared" si="93"/>
         <v>1728</v>
       </c>
@@ -4208,21 +4207,21 @@
       <c r="B146" s="4">
         <v>0</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C146">
         <v>24</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146">
         <v>45</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146">
         <f>E138*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146">
         <f>F138*1.2</f>
         <v>2073.6</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146">
         <f>G138*1.2</f>
         <v>2073.6</v>
       </c>
@@ -4235,21 +4234,21 @@
       <c r="B147" s="1">
         <v>1</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147">
         <v>25</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147">
         <v>45</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147">
         <f t="shared" ref="E147:G147" si="94">E139*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147">
         <f t="shared" si="94"/>
         <v>2073.6</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147">
         <f t="shared" si="94"/>
         <v>2073.6</v>
       </c>
@@ -4262,21 +4261,21 @@
       <c r="B148" s="1">
         <v>2</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C148">
         <v>26</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148">
         <v>45</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148">
         <f t="shared" ref="E148:G148" si="95">E140*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148">
         <f t="shared" si="95"/>
         <v>2073.6</v>
       </c>
-      <c r="G148" s="7">
+      <c r="G148">
         <f t="shared" si="95"/>
         <v>2073.6</v>
       </c>
@@ -4289,21 +4288,21 @@
       <c r="B149" s="1">
         <v>3</v>
       </c>
-      <c r="C149" s="7">
+      <c r="C149">
         <v>27</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149">
         <v>45</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149">
         <f t="shared" ref="E149:G149" si="96">E141*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149">
         <f t="shared" si="96"/>
         <v>2073.6</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149">
         <f t="shared" si="96"/>
         <v>2073.6</v>
       </c>
@@ -4316,21 +4315,21 @@
       <c r="B150" s="5">
         <v>0</v>
       </c>
-      <c r="C150" s="7">
+      <c r="C150">
         <v>28</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150">
         <v>45</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150">
         <f t="shared" ref="E150:G150" si="97">E142*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150">
         <f t="shared" si="97"/>
         <v>2073.6</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150">
         <f t="shared" si="97"/>
         <v>2073.6</v>
       </c>
@@ -4343,21 +4342,21 @@
       <c r="B151" s="3">
         <v>1</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C151">
         <v>29</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151">
         <v>45</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151">
         <f t="shared" ref="E151:G151" si="98">E143*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151">
         <f t="shared" si="98"/>
         <v>2073.6</v>
       </c>
-      <c r="G151" s="7">
+      <c r="G151">
         <f t="shared" si="98"/>
         <v>2073.6</v>
       </c>
@@ -4370,21 +4369,21 @@
       <c r="B152" s="3">
         <v>2</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C152">
         <v>30</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152">
         <v>45</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152">
         <f t="shared" ref="E152:G152" si="99">E144*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152">
         <f t="shared" si="99"/>
         <v>2073.6</v>
       </c>
-      <c r="G152" s="7">
+      <c r="G152">
         <f t="shared" si="99"/>
         <v>2073.6</v>
       </c>
@@ -4397,21 +4396,21 @@
       <c r="B153" s="3">
         <v>3</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C153">
         <v>31</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153">
         <v>45</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153">
         <f t="shared" ref="E153:G153" si="100">E145*1.2</f>
         <v>2592</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153">
         <f t="shared" si="100"/>
         <v>2073.6</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153">
         <f t="shared" si="100"/>
         <v>2073.6</v>
       </c>
@@ -4424,21 +4423,21 @@
       <c r="B154" s="4">
         <v>0</v>
       </c>
-      <c r="C154" s="7">
+      <c r="C154">
         <v>24</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154">
         <v>50</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154">
         <f t="shared" ref="E154:G154" si="101">E146*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154">
         <f t="shared" si="101"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G154">
         <f t="shared" si="101"/>
         <v>2488.3199999999997</v>
       </c>
@@ -4451,21 +4450,21 @@
       <c r="B155" s="1">
         <v>1</v>
       </c>
-      <c r="C155" s="7">
+      <c r="C155">
         <v>25</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155">
         <v>50</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155">
         <f t="shared" ref="E155:G155" si="102">E147*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155">
         <f t="shared" si="102"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155">
         <f t="shared" si="102"/>
         <v>2488.3199999999997</v>
       </c>
@@ -4478,21 +4477,21 @@
       <c r="B156" s="1">
         <v>2</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156">
         <v>26</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156">
         <v>50</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156">
         <f t="shared" ref="E156:G156" si="103">E148*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156">
         <f t="shared" si="103"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G156" s="7">
+      <c r="G156">
         <f t="shared" si="103"/>
         <v>2488.3199999999997</v>
       </c>
@@ -4505,21 +4504,21 @@
       <c r="B157" s="1">
         <v>3</v>
       </c>
-      <c r="C157" s="7">
+      <c r="C157">
         <v>27</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157">
         <v>50</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157">
         <f t="shared" ref="E157:G157" si="104">E149*1.2</f>
         <v>3110.4</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157">
         <f t="shared" si="104"/>
         <v>2488.3199999999997</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157">
         <f t="shared" si="104"/>
         <v>2488.3199999999997</v>
       </c>
@@ -4532,19 +4531,19 @@
       <c r="B158" s="6">
         <v>0</v>
       </c>
-      <c r="C158" s="7">
+      <c r="C158">
         <v>32</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158">
         <v>50</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158">
         <v>3500</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158">
         <v>3000</v>
       </c>
-      <c r="G158" s="7">
+      <c r="G158">
         <v>3000</v>
       </c>
     </row>
@@ -4556,19 +4555,19 @@
       <c r="B159" s="2">
         <v>1</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159">
         <v>32</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159">
         <v>50</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159">
         <v>3500</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159">
         <v>3000</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159">
         <v>3000</v>
       </c>
     </row>
@@ -4580,19 +4579,19 @@
       <c r="B160" s="2">
         <v>2</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160">
         <v>32</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160">
         <v>50</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160">
         <v>3500</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160">
         <v>3000</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160">
         <v>3000</v>
       </c>
     </row>
@@ -4604,19 +4603,19 @@
       <c r="B161" s="2">
         <v>3</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161">
         <v>32</v>
       </c>
-      <c r="D161" s="7">
+      <c r="D161">
         <v>50</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161">
         <v>3500</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161">
         <v>3000</v>
       </c>
-      <c r="G161" s="7">
+      <c r="G161">
         <v>3000</v>
       </c>
     </row>

--- a/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
+++ b/JourneyofLords/Assets/Scripts/GameData/StageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SangHyeok\Documents\GitHub\JourneyofLords\JourneyofLords\Assets\Scripts\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A86B9BF-F3F2-4E93-B129-49CE2E37D6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C602D3E-5EEF-460B-8522-04C387AC4108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HeroData" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="J397" sqref="J397"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="J394" sqref="J394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,15 +698,15 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E37" si="10">E10+(E10/100)</f>
+        <f t="shared" ref="E11:E13" si="10">E10+(E10/100)</f>
         <v>174.52799999999999</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F37" si="11">F10+(F10/100)</f>
+        <f t="shared" ref="F11:F13" si="11">F10+(F10/100)</f>
         <v>145.44</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G37" si="12">G10+(G10/100)</f>
+        <f t="shared" ref="G11:G13" si="12">G10+(G10/100)</f>
         <v>145.44</v>
       </c>
     </row>
@@ -806,15 +806,15 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E37" si="14">E14+(E14/100)</f>
+        <f t="shared" ref="E15:E17" si="14">E14+(E14/100)</f>
         <v>209.43359999999998</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F37" si="15">F14+(F14/100)</f>
+        <f t="shared" ref="F15:F17" si="15">F14+(F14/100)</f>
         <v>174.52799999999999</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G37" si="16">G14+(G14/100)</f>
+        <f t="shared" ref="G15:G17" si="16">G14+(G14/100)</f>
         <v>174.52799999999999</v>
       </c>
     </row>
@@ -914,15 +914,15 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E37" si="18">E18+(E18/100)</f>
+        <f t="shared" ref="E19:E21" si="18">E18+(E18/100)</f>
         <v>251.32031999999995</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F37" si="19">F18+(F18/100)</f>
+        <f t="shared" ref="F19:F21" si="19">F18+(F18/100)</f>
         <v>209.43359999999998</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G37" si="20">G18+(G18/100)</f>
+        <f t="shared" ref="G19:G21" si="20">G18+(G18/100)</f>
         <v>209.43359999999998</v>
       </c>
     </row>
@@ -1022,15 +1022,15 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E37" si="22">E22+(E22/100)</f>
+        <f t="shared" ref="E23:E25" si="22">E22+(E22/100)</f>
         <v>301.58438399999994</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F37" si="23">F22+(F22/100)</f>
+        <f t="shared" ref="F23:F25" si="23">F22+(F22/100)</f>
         <v>251.32031999999995</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G37" si="24">G22+(G22/100)</f>
+        <f t="shared" ref="G23:G25" si="24">G22+(G22/100)</f>
         <v>251.32031999999995</v>
       </c>
     </row>
@@ -1130,15 +1130,15 @@
         <v>4</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27:E37" si="26">E26+(E26/100)</f>
+        <f t="shared" ref="E27:E29" si="26">E26+(E26/100)</f>
         <v>361.90126079999993</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F37" si="27">F26+(F26/100)</f>
+        <f t="shared" ref="F27:F29" si="27">F26+(F26/100)</f>
         <v>301.58438399999994</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G37" si="28">G26+(G26/100)</f>
+        <f t="shared" ref="G27:G29" si="28">G26+(G26/100)</f>
         <v>301.58438399999994</v>
       </c>
     </row>
@@ -1238,15 +1238,15 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E37" si="30">E30+(E30/100)</f>
+        <f t="shared" ref="E31:E33" si="30">E30+(E30/100)</f>
         <v>434.28151295999993</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F37" si="31">F30+(F30/100)</f>
+        <f t="shared" ref="F31:F33" si="31">F30+(F30/100)</f>
         <v>361.90126079999993</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31:G37" si="32">G30+(G30/100)</f>
+        <f t="shared" ref="G31:G33" si="32">G30+(G30/100)</f>
         <v>361.90126079999993</v>
       </c>
     </row>
@@ -1763,15 +1763,15 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E77" si="45">E50+(E50/100)</f>
+        <f t="shared" ref="E51:E53" si="45">E50+(E50/100)</f>
         <v>733.2600000000001</v>
       </c>
       <c r="F51">
-        <f t="shared" ref="F51:F77" si="46">F50+(F50/100)</f>
+        <f t="shared" ref="F51:F53" si="46">F50+(F50/100)</f>
         <v>611.04999999999995</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G77" si="47">G50+(G50/100)</f>
+        <f t="shared" ref="G51:G53" si="47">G50+(G50/100)</f>
         <v>611.04999999999995</v>
       </c>
     </row>
@@ -1871,15 +1871,15 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55:E77" si="49">E54+(E54/100)</f>
+        <f t="shared" ref="E55:E57" si="49">E54+(E54/100)</f>
         <v>806.58600000000013</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:F77" si="50">F54+(F54/100)</f>
+        <f t="shared" ref="F55:F57" si="50">F54+(F54/100)</f>
         <v>672.15499999999997</v>
       </c>
       <c r="G55">
-        <f t="shared" ref="G55:G77" si="51">G54+(G54/100)</f>
+        <f t="shared" ref="G55:G57" si="51">G54+(G54/100)</f>
         <v>672.15499999999997</v>
       </c>
     </row>
@@ -1979,15 +1979,15 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:E77" si="53">E58+(E58/100)</f>
+        <f t="shared" ref="E59:E61" si="53">E58+(E58/100)</f>
         <v>887.24460000000022</v>
       </c>
       <c r="F59">
-        <f t="shared" ref="F59:F77" si="54">F58+(F58/100)</f>
+        <f t="shared" ref="F59:F61" si="54">F58+(F58/100)</f>
         <v>739.37050000000011</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G77" si="55">G58+(G58/100)</f>
+        <f t="shared" ref="G59:G61" si="55">G58+(G58/100)</f>
         <v>739.37050000000011</v>
       </c>
     </row>
@@ -2087,15 +2087,15 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E77" si="57">E62+(E62/100)</f>
+        <f t="shared" ref="E63:E65" si="57">E62+(E62/100)</f>
         <v>975.96906000000035</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63:F77" si="58">F62+(F62/100)</f>
+        <f t="shared" ref="F63:F65" si="58">F62+(F62/100)</f>
         <v>813.30755000000011</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G77" si="59">G62+(G62/100)</f>
+        <f t="shared" ref="G63:G65" si="59">G62+(G62/100)</f>
         <v>813.30755000000011</v>
       </c>
     </row>
@@ -2195,15 +2195,15 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E77" si="61">E66+(E66/100)</f>
+        <f t="shared" ref="E67:E69" si="61">E66+(E66/100)</f>
         <v>1073.5659660000006</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F77" si="62">F66+(F66/100)</f>
+        <f t="shared" ref="F67:F69" si="62">F66+(F66/100)</f>
         <v>894.63830500000017</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G77" si="63">G66+(G66/100)</f>
+        <f t="shared" ref="G67:G69" si="63">G66+(G66/100)</f>
         <v>894.63830500000017</v>
       </c>
     </row>
@@ -2303,15 +2303,15 @@
         <v>20</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E77" si="65">E70+(E70/100)</f>
+        <f t="shared" ref="E71:E73" si="65">E70+(E70/100)</f>
         <v>1180.9225626000004</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F77" si="66">F70+(F70/100)</f>
+        <f t="shared" ref="F71:F73" si="66">F70+(F70/100)</f>
         <v>984.10213550000026</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G77" si="67">G70+(G70/100)</f>
+        <f t="shared" ref="G71:G73" si="67">G70+(G70/100)</f>
         <v>984.10213550000026</v>
       </c>
     </row>
@@ -2828,15 +2828,15 @@
         <v>35</v>
       </c>
       <c r="E91">
-        <f t="shared" ref="E91:E117" si="81">E90+(E90/100)</f>
+        <f t="shared" ref="E91:E93" si="81">E90+(E90/100)</f>
         <v>1833.1500000000005</v>
       </c>
       <c r="F91">
-        <f t="shared" ref="F91:F117" si="82">F90+(F90/100)</f>
+        <f t="shared" ref="F91:F93" si="82">F90+(F90/100)</f>
         <v>1466.5200000000002</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91:G117" si="83">G90+(G90/100)</f>
+        <f t="shared" ref="G91:G93" si="83">G90+(G90/100)</f>
         <v>1466.5200000000002</v>
       </c>
     </row>
@@ -2936,15 +2936,15 @@
         <v>35</v>
       </c>
       <c r="E95">
-        <f t="shared" ref="E95:E117" si="85">E94+(E94/100)</f>
+        <f t="shared" ref="E95:E97" si="85">E94+(E94/100)</f>
         <v>2016.4650000000006</v>
       </c>
       <c r="F95">
-        <f t="shared" ref="F95:F117" si="86">F94+(F94/100)</f>
+        <f t="shared" ref="F95:F97" si="86">F94+(F94/100)</f>
         <v>1613.1720000000003</v>
       </c>
       <c r="G95">
-        <f t="shared" ref="G95:G117" si="87">G94+(G94/100)</f>
+        <f t="shared" ref="G95:G97" si="87">G94+(G94/100)</f>
         <v>1613.1720000000003</v>
       </c>
     </row>
@@ -3044,15 +3044,15 @@
         <v>40</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:E117" si="89">E98+(E98/100)</f>
+        <f t="shared" ref="E99:E101" si="89">E98+(E98/100)</f>
         <v>2218.1115000000009</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:F117" si="90">F98+(F98/100)</f>
+        <f t="shared" ref="F99:F101" si="90">F98+(F98/100)</f>
         <v>1774.4892000000004</v>
       </c>
       <c r="G99">
-        <f t="shared" ref="G99:G117" si="91">G98+(G98/100)</f>
+        <f t="shared" ref="G99:G101" si="91">G98+(G98/100)</f>
         <v>1774.4892000000004</v>
       </c>
     </row>
@@ -3152,15 +3152,15 @@
         <v>40</v>
       </c>
       <c r="E103">
-        <f t="shared" ref="E103:E117" si="93">E102+(E102/100)</f>
+        <f t="shared" ref="E103:E105" si="93">E102+(E102/100)</f>
         <v>2439.9226500000013</v>
       </c>
       <c r="F103">
-        <f t="shared" ref="F103:F117" si="94">F102+(F102/100)</f>
+        <f t="shared" ref="F103:F105" si="94">F102+(F102/100)</f>
         <v>1951.9381200000007</v>
       </c>
       <c r="G103">
-        <f t="shared" ref="G103:G117" si="95">G102+(G102/100)</f>
+        <f t="shared" ref="G103:G105" si="95">G102+(G102/100)</f>
         <v>1951.9381200000007</v>
       </c>
     </row>
@@ -3260,15 +3260,15 @@
         <v>45</v>
       </c>
       <c r="E107">
-        <f t="shared" ref="E107:E117" si="97">E106+(E106/100)</f>
+        <f t="shared" ref="E107:E109" si="97">E106+(E106/100)</f>
         <v>2683.9149150000012</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="F107:F117" si="98">F106+(F106/100)</f>
+        <f t="shared" ref="F107:F109" si="98">F106+(F106/100)</f>
         <v>2147.1319320000011</v>
       </c>
       <c r="G107">
-        <f t="shared" ref="G107:G117" si="99">G106+(G106/100)</f>
+        <f t="shared" ref="G107:G109" si="99">G106+(G106/100)</f>
         <v>2147.1319320000011</v>
       </c>
     </row>
@@ -3368,15 +3368,15 @@
         <v>45</v>
       </c>
       <c r="E111">
-        <f t="shared" ref="E111:E117" si="101">E110+(E110/100)</f>
+        <f t="shared" ref="E111:E113" si="101">E110+(E110/100)</f>
         <v>2952.3064065000017</v>
       </c>
       <c r="F111">
-        <f t="shared" ref="F111:F117" si="102">F110+(F110/100)</f>
+        <f t="shared" ref="F111:F113" si="102">F110+(F110/100)</f>
         <v>2361.8451252000009</v>
       </c>
       <c r="G111">
-        <f t="shared" ref="G111:G117" si="103">G110+(G110/100)</f>
+        <f t="shared" ref="G111:G113" si="103">G110+(G110/100)</f>
         <v>2361.8451252000009</v>
       </c>
     </row>
@@ -3650,7 +3650,8 @@
         <v>18</v>
       </c>
       <c r="D122">
-        <v>30</v>
+        <f>D118+5</f>
+        <v>55</v>
       </c>
       <c r="E122">
         <v>3500</v>
@@ -3674,18 +3675,19 @@
         <v>19</v>
       </c>
       <c r="D123">
-        <v>30</v>
+        <f t="shared" ref="D123:D186" si="108">D119+5</f>
+        <v>55</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123:E125" si="108">E122+(E122/100)</f>
+        <f t="shared" ref="E123:E125" si="109">E122+(E122/100)</f>
         <v>3535</v>
       </c>
       <c r="F123">
-        <f t="shared" ref="F123:F125" si="109">F122+(F122/100)</f>
+        <f t="shared" ref="F123:F125" si="110">F122+(F122/100)</f>
         <v>3030</v>
       </c>
       <c r="G123">
-        <f t="shared" ref="G123:G125" si="110">G122+(G122/100)</f>
+        <f t="shared" ref="G123:G125" si="111">G122+(G122/100)</f>
         <v>3030</v>
       </c>
     </row>
@@ -3701,18 +3703,19 @@
         <v>20</v>
       </c>
       <c r="D124">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>55</v>
       </c>
       <c r="E124">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3570.35</v>
       </c>
       <c r="F124">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3060.3</v>
       </c>
       <c r="G124">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>3060.3</v>
       </c>
     </row>
@@ -3728,18 +3731,19 @@
         <v>21</v>
       </c>
       <c r="D125">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>55</v>
       </c>
       <c r="E125">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>3606.0535</v>
       </c>
       <c r="F125">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>3090.9030000000002</v>
       </c>
       <c r="G125">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>3090.9030000000002</v>
       </c>
     </row>
@@ -3755,18 +3759,19 @@
         <v>19</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>60</v>
       </c>
       <c r="E126">
-        <f t="shared" ref="E126:G126" si="111">E122*1.1</f>
+        <f t="shared" ref="E126:G126" si="112">E122*1.1</f>
         <v>3850.0000000000005</v>
       </c>
       <c r="F126">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>3300.0000000000005</v>
       </c>
       <c r="G126">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>3300.0000000000005</v>
       </c>
     </row>
@@ -3782,18 +3787,19 @@
         <v>20</v>
       </c>
       <c r="D127">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>60</v>
       </c>
       <c r="E127">
-        <f t="shared" ref="E127:E129" si="112">E126+(E126/100)</f>
+        <f t="shared" ref="E127:E129" si="113">E126+(E126/100)</f>
         <v>3888.5000000000005</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="F127:F129" si="113">F126+(F126/100)</f>
+        <f t="shared" ref="F127:F129" si="114">F126+(F126/100)</f>
         <v>3333.0000000000005</v>
       </c>
       <c r="G127">
-        <f t="shared" ref="G127:G129" si="114">G126+(G126/100)</f>
+        <f t="shared" ref="G127:G129" si="115">G126+(G126/100)</f>
         <v>3333.0000000000005</v>
       </c>
     </row>
@@ -3809,18 +3815,19 @@
         <v>21</v>
       </c>
       <c r="D128">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>60</v>
       </c>
       <c r="E128">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3927.3850000000007</v>
       </c>
       <c r="F128">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>3366.3300000000004</v>
       </c>
       <c r="G128">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3366.3300000000004</v>
       </c>
     </row>
@@ -3836,18 +3843,19 @@
         <v>22</v>
       </c>
       <c r="D129">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>60</v>
       </c>
       <c r="E129">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3966.6588500000007</v>
       </c>
       <c r="F129">
-        <f t="shared" si="113"/>
+        <f t="shared" si="114"/>
         <v>3399.9933000000005</v>
       </c>
       <c r="G129">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>3399.9933000000005</v>
       </c>
     </row>
@@ -3863,18 +3871,19 @@
         <v>20</v>
       </c>
       <c r="D130">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>65</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:G130" si="115">E126*1.1</f>
+        <f t="shared" ref="E130:G130" si="116">E126*1.1</f>
         <v>4235.0000000000009</v>
       </c>
       <c r="F130">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3630.0000000000009</v>
       </c>
       <c r="G130">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>3630.0000000000009</v>
       </c>
     </row>
@@ -3890,18 +3899,19 @@
         <v>21</v>
       </c>
       <c r="D131">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>65</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E157" si="116">E130+(E130/100)</f>
+        <f t="shared" ref="E131:E133" si="117">E130+(E130/100)</f>
         <v>4277.3500000000013</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F157" si="117">F130+(F130/100)</f>
+        <f t="shared" ref="F131:F133" si="118">F130+(F130/100)</f>
         <v>3666.3000000000011</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G157" si="118">G130+(G130/100)</f>
+        <f t="shared" ref="G131:G133" si="119">G130+(G130/100)</f>
         <v>3666.3000000000011</v>
       </c>
     </row>
@@ -3917,18 +3927,19 @@
         <v>22</v>
       </c>
       <c r="D132">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>65</v>
       </c>
       <c r="E132">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>4320.1235000000015</v>
       </c>
       <c r="F132">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3702.9630000000011</v>
       </c>
       <c r="G132">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3702.9630000000011</v>
       </c>
     </row>
@@ -3944,18 +3955,19 @@
         <v>23</v>
       </c>
       <c r="D133">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>65</v>
       </c>
       <c r="E133">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>4363.324735000002</v>
       </c>
       <c r="F133">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3739.9926300000011</v>
       </c>
       <c r="G133">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>3739.9926300000011</v>
       </c>
     </row>
@@ -3971,18 +3983,19 @@
         <v>18</v>
       </c>
       <c r="D134">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>70</v>
       </c>
       <c r="E134">
-        <f t="shared" ref="E134:G134" si="119">E130*1.1</f>
+        <f t="shared" ref="E134:G134" si="120">E130*1.1</f>
         <v>4658.5000000000018</v>
       </c>
       <c r="F134">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>3993.0000000000014</v>
       </c>
       <c r="G134">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>3993.0000000000014</v>
       </c>
     </row>
@@ -3998,18 +4011,19 @@
         <v>19</v>
       </c>
       <c r="D135">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>70</v>
       </c>
       <c r="E135">
-        <f t="shared" ref="E135:E157" si="120">E134+(E134/100)</f>
+        <f t="shared" ref="E135:E137" si="121">E134+(E134/100)</f>
         <v>4705.0850000000019</v>
       </c>
       <c r="F135">
-        <f t="shared" ref="F135:F157" si="121">F134+(F134/100)</f>
+        <f t="shared" ref="F135:F137" si="122">F134+(F134/100)</f>
         <v>4032.9300000000012</v>
       </c>
       <c r="G135">
-        <f t="shared" ref="G135:G157" si="122">G134+(G134/100)</f>
+        <f t="shared" ref="G135:G137" si="123">G134+(G134/100)</f>
         <v>4032.9300000000012</v>
       </c>
     </row>
@@ -4025,18 +4039,19 @@
         <v>20</v>
       </c>
       <c r="D136">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>70</v>
       </c>
       <c r="E136">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>4752.1358500000015</v>
       </c>
       <c r="F136">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>4073.2593000000011</v>
       </c>
       <c r="G136">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>4073.2593000000011</v>
       </c>
     </row>
@@ -4052,18 +4067,19 @@
         <v>21</v>
       </c>
       <c r="D137">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>70</v>
       </c>
       <c r="E137">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>4799.6572085000016</v>
       </c>
       <c r="F137">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>4113.9918930000013</v>
       </c>
       <c r="G137">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>4113.9918930000013</v>
       </c>
     </row>
@@ -4079,18 +4095,19 @@
         <v>19</v>
       </c>
       <c r="D138">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>75</v>
       </c>
       <c r="E138">
-        <f t="shared" ref="E138:G138" si="123">E134*1.1</f>
+        <f t="shared" ref="E138:G138" si="124">E134*1.1</f>
         <v>5124.3500000000022</v>
       </c>
       <c r="F138">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>4392.300000000002</v>
       </c>
       <c r="G138">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>4392.300000000002</v>
       </c>
     </row>
@@ -4106,24 +4123,25 @@
         <v>20</v>
       </c>
       <c r="D139">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>75</v>
       </c>
       <c r="E139">
-        <f t="shared" ref="E139:E157" si="124">E138+(E138/100)</f>
+        <f t="shared" ref="E139:E141" si="125">E138+(E138/100)</f>
         <v>5175.5935000000018</v>
       </c>
       <c r="F139">
-        <f t="shared" ref="F139:F157" si="125">F138+(F138/100)</f>
+        <f t="shared" ref="F139:F141" si="126">F138+(F138/100)</f>
         <v>4436.2230000000018</v>
       </c>
       <c r="G139">
-        <f t="shared" ref="G139:G157" si="126">G138+(G138/100)</f>
+        <f t="shared" ref="G139:G141" si="127">G138+(G138/100)</f>
         <v>4436.2230000000018</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f t="shared" ref="A140:A203" si="127">A136+1</f>
+        <f t="shared" ref="A140:A203" si="128">A136+1</f>
         <v>35</v>
       </c>
       <c r="B140" s="1">
@@ -4133,24 +4151,25 @@
         <v>21</v>
       </c>
       <c r="D140">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>75</v>
       </c>
       <c r="E140">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>5227.3494350000019</v>
       </c>
       <c r="F140">
-        <f t="shared" si="125"/>
-        <v>4480.5852300000015</v>
-      </c>
-      <c r="G140">
         <f t="shared" si="126"/>
         <v>4480.5852300000015</v>
       </c>
+      <c r="G140">
+        <f t="shared" si="127"/>
+        <v>4480.5852300000015</v>
+      </c>
     </row>
     <row r="141" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>35</v>
       </c>
       <c r="B141" s="1">
@@ -4160,24 +4179,25 @@
         <v>22</v>
       </c>
       <c r="D141">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>75</v>
       </c>
       <c r="E141">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>5279.6229293500019</v>
       </c>
       <c r="F141">
-        <f t="shared" si="125"/>
-        <v>4525.3910823000015</v>
-      </c>
-      <c r="G141">
         <f t="shared" si="126"/>
         <v>4525.3910823000015</v>
       </c>
+      <c r="G141">
+        <f t="shared" si="127"/>
+        <v>4525.3910823000015</v>
+      </c>
     </row>
     <row r="142" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="B142" s="5">
@@ -4187,24 +4207,25 @@
         <v>20</v>
       </c>
       <c r="D142">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>80</v>
       </c>
       <c r="E142">
-        <f t="shared" ref="E142:G142" si="128">E138*1.1</f>
+        <f t="shared" ref="E142:G142" si="129">E138*1.1</f>
         <v>5636.7850000000026</v>
       </c>
       <c r="F142">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>4831.5300000000025</v>
       </c>
       <c r="G142">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>4831.5300000000025</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="B143" s="3">
@@ -4214,24 +4235,25 @@
         <v>21</v>
       </c>
       <c r="D143">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>80</v>
       </c>
       <c r="E143">
-        <f t="shared" ref="E143:E157" si="129">E142+(E142/100)</f>
+        <f t="shared" ref="E143:E145" si="130">E142+(E142/100)</f>
         <v>5693.1528500000022</v>
       </c>
       <c r="F143">
-        <f t="shared" ref="F143:F157" si="130">F142+(F142/100)</f>
+        <f t="shared" ref="F143:F145" si="131">F142+(F142/100)</f>
         <v>4879.8453000000027</v>
       </c>
       <c r="G143">
-        <f t="shared" ref="G143:G157" si="131">G142+(G142/100)</f>
+        <f t="shared" ref="G143:G145" si="132">G142+(G142/100)</f>
         <v>4879.8453000000027</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="B144" s="3">
@@ -4241,24 +4263,25 @@
         <v>22</v>
       </c>
       <c r="D144">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>80</v>
       </c>
       <c r="E144">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5750.0843785000025</v>
       </c>
       <c r="F144">
-        <f t="shared" si="130"/>
-        <v>4928.643753000003</v>
-      </c>
-      <c r="G144">
         <f t="shared" si="131"/>
         <v>4928.643753000003</v>
       </c>
+      <c r="G144">
+        <f t="shared" si="132"/>
+        <v>4928.643753000003</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="B145" s="3">
@@ -4268,24 +4291,25 @@
         <v>23</v>
       </c>
       <c r="D145">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>80</v>
       </c>
       <c r="E145">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>5807.5852222850026</v>
       </c>
       <c r="F145">
-        <f t="shared" si="130"/>
-        <v>4977.9301905300026</v>
-      </c>
-      <c r="G145">
         <f t="shared" si="131"/>
         <v>4977.9301905300026</v>
       </c>
+      <c r="G145">
+        <f t="shared" si="132"/>
+        <v>4977.9301905300026</v>
+      </c>
     </row>
     <row r="146" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>37</v>
       </c>
       <c r="B146" s="4">
@@ -4295,24 +4319,25 @@
         <v>18</v>
       </c>
       <c r="D146">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>85</v>
       </c>
       <c r="E146">
-        <f t="shared" ref="E146:G146" si="132">E142*1.1</f>
+        <f t="shared" ref="E146:G146" si="133">E142*1.1</f>
         <v>6200.4635000000035</v>
       </c>
       <c r="F146">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>5314.6830000000027</v>
       </c>
       <c r="G146">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>5314.6830000000027</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>37</v>
       </c>
       <c r="B147" s="1">
@@ -4322,24 +4347,25 @@
         <v>19</v>
       </c>
       <c r="D147">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>85</v>
       </c>
       <c r="E147">
-        <f t="shared" ref="E147:E157" si="133">E146+(E146/100)</f>
+        <f t="shared" ref="E147:E149" si="134">E146+(E146/100)</f>
         <v>6262.4681350000037</v>
       </c>
       <c r="F147">
-        <f t="shared" ref="F147:F157" si="134">F146+(F146/100)</f>
+        <f t="shared" ref="F147:F149" si="135">F146+(F146/100)</f>
         <v>5367.8298300000024</v>
       </c>
       <c r="G147">
-        <f t="shared" ref="G147:G157" si="135">G146+(G146/100)</f>
+        <f t="shared" ref="G147:G149" si="136">G146+(G146/100)</f>
         <v>5367.8298300000024</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>37</v>
       </c>
       <c r="B148" s="1">
@@ -4349,24 +4375,25 @@
         <v>20</v>
       </c>
       <c r="D148">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>85</v>
       </c>
       <c r="E148">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>6325.0928163500039</v>
       </c>
       <c r="F148">
-        <f t="shared" si="134"/>
-        <v>5421.5081283000027</v>
-      </c>
-      <c r="G148">
         <f t="shared" si="135"/>
         <v>5421.5081283000027</v>
       </c>
+      <c r="G148">
+        <f t="shared" si="136"/>
+        <v>5421.5081283000027</v>
+      </c>
     </row>
     <row r="149" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>37</v>
       </c>
       <c r="B149" s="1">
@@ -4376,24 +4403,25 @@
         <v>21</v>
       </c>
       <c r="D149">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>85</v>
       </c>
       <c r="E149">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>6388.3437445135041</v>
       </c>
       <c r="F149">
-        <f t="shared" si="134"/>
-        <v>5475.7232095830032</v>
-      </c>
-      <c r="G149">
         <f t="shared" si="135"/>
         <v>5475.7232095830032</v>
       </c>
+      <c r="G149">
+        <f t="shared" si="136"/>
+        <v>5475.7232095830032</v>
+      </c>
     </row>
     <row r="150" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>38</v>
       </c>
       <c r="B150" s="5">
@@ -4403,24 +4431,25 @@
         <v>19</v>
       </c>
       <c r="D150">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>90</v>
       </c>
       <c r="E150">
-        <f t="shared" ref="E150:G150" si="136">E146*1.1</f>
+        <f t="shared" ref="E150:G150" si="137">E146*1.1</f>
         <v>6820.509850000004</v>
       </c>
       <c r="F150">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>5846.1513000000032</v>
       </c>
       <c r="G150">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>5846.1513000000032</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>38</v>
       </c>
       <c r="B151" s="3">
@@ -4430,24 +4459,25 @@
         <v>20</v>
       </c>
       <c r="D151">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>90</v>
       </c>
       <c r="E151">
-        <f t="shared" ref="E151:E157" si="137">E150+(E150/100)</f>
+        <f t="shared" ref="E151:E153" si="138">E150+(E150/100)</f>
         <v>6888.7149485000036</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151:F157" si="138">F150+(F150/100)</f>
+        <f t="shared" ref="F151:F153" si="139">F150+(F150/100)</f>
         <v>5904.6128130000034</v>
       </c>
       <c r="G151">
-        <f t="shared" ref="G151:G157" si="139">G150+(G150/100)</f>
+        <f t="shared" ref="G151:G153" si="140">G150+(G150/100)</f>
         <v>5904.6128130000034</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>38</v>
       </c>
       <c r="B152" s="3">
@@ -4457,24 +4487,25 @@
         <v>21</v>
       </c>
       <c r="D152">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>90</v>
       </c>
       <c r="E152">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>6957.6020979850036</v>
       </c>
       <c r="F152">
-        <f t="shared" si="138"/>
-        <v>5963.6589411300038</v>
-      </c>
-      <c r="G152">
         <f t="shared" si="139"/>
         <v>5963.6589411300038</v>
       </c>
+      <c r="G152">
+        <f t="shared" si="140"/>
+        <v>5963.6589411300038</v>
+      </c>
     </row>
     <row r="153" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>38</v>
       </c>
       <c r="B153" s="3">
@@ -4484,18 +4515,19 @@
         <v>22</v>
       </c>
       <c r="D153">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>90</v>
       </c>
       <c r="E153">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>7027.1781189648536</v>
       </c>
       <c r="F153">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>6023.2955305413034</v>
       </c>
       <c r="G153">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>6023.2955305413034</v>
       </c>
     </row>
@@ -4511,24 +4543,25 @@
         <v>20</v>
       </c>
       <c r="D154">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>95</v>
       </c>
       <c r="E154">
-        <f t="shared" ref="E154:G154" si="140">E150*1.1</f>
+        <f t="shared" ref="E154:G154" si="141">E150*1.1</f>
         <v>7502.5608350000048</v>
       </c>
       <c r="F154">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>6430.7664300000042</v>
       </c>
       <c r="G154">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>6430.7664300000042</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>39</v>
       </c>
       <c r="B155" s="1">
@@ -4538,24 +4571,25 @@
         <v>21</v>
       </c>
       <c r="D155">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>95</v>
       </c>
       <c r="E155">
-        <f t="shared" ref="E155:E157" si="141">E154+(E154/100)</f>
+        <f t="shared" ref="E155:E157" si="142">E154+(E154/100)</f>
         <v>7577.5864433500046</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:F157" si="142">F154+(F154/100)</f>
+        <f t="shared" ref="F155:F157" si="143">F154+(F154/100)</f>
         <v>6495.0740943000046</v>
       </c>
       <c r="G155">
-        <f t="shared" ref="G155:G157" si="143">G154+(G154/100)</f>
+        <f t="shared" ref="G155:G157" si="144">G154+(G154/100)</f>
         <v>6495.0740943000046</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>39</v>
       </c>
       <c r="B156" s="1">
@@ -4565,24 +4599,25 @@
         <v>22</v>
       </c>
       <c r="D156">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>95</v>
       </c>
       <c r="E156">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7653.3623077835045</v>
       </c>
       <c r="F156">
-        <f t="shared" si="142"/>
-        <v>6560.0248352430044</v>
-      </c>
-      <c r="G156">
         <f t="shared" si="143"/>
         <v>6560.0248352430044</v>
       </c>
+      <c r="G156">
+        <f t="shared" si="144"/>
+        <v>6560.0248352430044</v>
+      </c>
     </row>
     <row r="157" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>39</v>
       </c>
       <c r="B157" s="1">
@@ -4592,18 +4627,19 @@
         <v>23</v>
       </c>
       <c r="D157">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>95</v>
       </c>
       <c r="E157">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>7729.8959308613394</v>
       </c>
       <c r="F157">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>6625.6250835954343</v>
       </c>
       <c r="G157">
-        <f t="shared" si="143"/>
+        <f t="shared" si="144"/>
         <v>6625.6250835954343</v>
       </c>
     </row>
@@ -4619,7 +4655,8 @@
         <v>24</v>
       </c>
       <c r="D158">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>100</v>
       </c>
       <c r="E158">
         <v>8000</v>
@@ -4633,7 +4670,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>40</v>
       </c>
       <c r="B159" s="2">
@@ -4643,7 +4680,8 @@
         <v>24</v>
       </c>
       <c r="D159">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>100</v>
       </c>
       <c r="E159">
         <v>8000</v>
@@ -4657,7 +4695,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>40</v>
       </c>
       <c r="B160" s="2">
@@ -4667,7 +4705,8 @@
         <v>24</v>
       </c>
       <c r="D160">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>100</v>
       </c>
       <c r="E160">
         <v>8000</v>
@@ -4681,7 +4720,7 @@
     </row>
     <row r="161" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>40</v>
       </c>
       <c r="B161" s="2">
@@ -4691,7 +4730,8 @@
         <v>24</v>
       </c>
       <c r="D161">
-        <v>50</v>
+        <f t="shared" si="108"/>
+        <v>100</v>
       </c>
       <c r="E161">
         <v>8000</v>
@@ -4705,7 +4745,7 @@
     </row>
     <row r="162" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>41</v>
       </c>
       <c r="B162" s="4">
@@ -4715,7 +4755,8 @@
         <v>24</v>
       </c>
       <c r="D162">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>105</v>
       </c>
       <c r="E162">
         <v>8000</v>
@@ -4729,7 +4770,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>41</v>
       </c>
       <c r="B163" s="1">
@@ -4739,24 +4780,25 @@
         <v>25</v>
       </c>
       <c r="D163">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>105</v>
       </c>
       <c r="E163">
-        <f t="shared" ref="E163:E165" si="144">E162+(E162/100)</f>
+        <f t="shared" ref="E163:E165" si="145">E162+(E162/100)</f>
         <v>8080</v>
       </c>
       <c r="F163">
-        <f t="shared" ref="F163:F165" si="145">F162+(F162/100)</f>
+        <f t="shared" ref="F163:F165" si="146">F162+(F162/100)</f>
         <v>7070</v>
       </c>
       <c r="G163">
-        <f t="shared" ref="G163:G165" si="146">G162+(G162/100)</f>
+        <f t="shared" ref="G163:G165" si="147">G162+(G162/100)</f>
         <v>7070</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>41</v>
       </c>
       <c r="B164" s="1">
@@ -4766,24 +4808,25 @@
         <v>26</v>
       </c>
       <c r="D164">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>105</v>
       </c>
       <c r="E164">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8160.8</v>
       </c>
       <c r="F164">
-        <f t="shared" si="145"/>
-        <v>7140.7</v>
-      </c>
-      <c r="G164">
         <f t="shared" si="146"/>
         <v>7140.7</v>
       </c>
+      <c r="G164">
+        <f t="shared" si="147"/>
+        <v>7140.7</v>
+      </c>
     </row>
     <row r="165" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>41</v>
       </c>
       <c r="B165" s="1">
@@ -4793,24 +4836,25 @@
         <v>27</v>
       </c>
       <c r="D165">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>105</v>
       </c>
       <c r="E165">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8242.4079999999994</v>
       </c>
       <c r="F165">
-        <f t="shared" si="145"/>
-        <v>7212.107</v>
-      </c>
-      <c r="G165">
         <f t="shared" si="146"/>
         <v>7212.107</v>
       </c>
+      <c r="G165">
+        <f t="shared" si="147"/>
+        <v>7212.107</v>
+      </c>
     </row>
     <row r="166" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>42</v>
       </c>
       <c r="B166" s="5">
@@ -4820,24 +4864,25 @@
         <v>25</v>
       </c>
       <c r="D166">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>110</v>
       </c>
       <c r="E166">
-        <f t="shared" ref="E166:G166" si="147">E162*1.1</f>
+        <f t="shared" ref="E166:G166" si="148">E162*1.1</f>
         <v>8800</v>
       </c>
       <c r="F166">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>7700.0000000000009</v>
       </c>
       <c r="G166">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>7700.0000000000009</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>42</v>
       </c>
       <c r="B167" s="3">
@@ -4847,24 +4892,25 @@
         <v>26</v>
       </c>
       <c r="D167">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>110</v>
       </c>
       <c r="E167">
-        <f t="shared" ref="E167:E169" si="148">E166+(E166/100)</f>
+        <f t="shared" ref="E167:E169" si="149">E166+(E166/100)</f>
         <v>8888</v>
       </c>
       <c r="F167">
-        <f t="shared" ref="F167:F169" si="149">F166+(F166/100)</f>
+        <f t="shared" ref="F167:F169" si="150">F166+(F166/100)</f>
         <v>7777.0000000000009</v>
       </c>
       <c r="G167">
-        <f t="shared" ref="G167:G169" si="150">G166+(G166/100)</f>
+        <f t="shared" ref="G167:G169" si="151">G166+(G166/100)</f>
         <v>7777.0000000000009</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>42</v>
       </c>
       <c r="B168" s="3">
@@ -4874,24 +4920,25 @@
         <v>27</v>
       </c>
       <c r="D168">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>110</v>
       </c>
       <c r="E168">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>8976.8799999999992</v>
       </c>
       <c r="F168">
-        <f t="shared" si="149"/>
-        <v>7854.7700000000013</v>
-      </c>
-      <c r="G168">
         <f t="shared" si="150"/>
         <v>7854.7700000000013</v>
       </c>
+      <c r="G168">
+        <f t="shared" si="151"/>
+        <v>7854.7700000000013</v>
+      </c>
     </row>
     <row r="169" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>42</v>
       </c>
       <c r="B169" s="3">
@@ -4901,24 +4948,25 @@
         <v>28</v>
       </c>
       <c r="D169">
-        <v>30</v>
+        <f t="shared" si="108"/>
+        <v>110</v>
       </c>
       <c r="E169">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>9066.648799999999</v>
       </c>
       <c r="F169">
-        <f t="shared" si="149"/>
-        <v>7933.3177000000014</v>
-      </c>
-      <c r="G169">
         <f t="shared" si="150"/>
         <v>7933.3177000000014</v>
       </c>
+      <c r="G169">
+        <f t="shared" si="151"/>
+        <v>7933.3177000000014</v>
+      </c>
     </row>
     <row r="170" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>43</v>
       </c>
       <c r="B170" s="4">
@@ -4928,24 +4976,25 @@
         <v>26</v>
       </c>
       <c r="D170">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>115</v>
       </c>
       <c r="E170">
-        <f t="shared" ref="E170:G170" si="151">E166*1.1</f>
+        <f t="shared" ref="E170:G170" si="152">E166*1.1</f>
         <v>9680</v>
       </c>
       <c r="F170">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>8470.0000000000018</v>
       </c>
       <c r="G170">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>8470.0000000000018</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>43</v>
       </c>
       <c r="B171" s="1">
@@ -4955,24 +5004,25 @@
         <v>27</v>
       </c>
       <c r="D171">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>115</v>
       </c>
       <c r="E171">
-        <f t="shared" ref="E171:E197" si="152">E170+(E170/100)</f>
+        <f t="shared" ref="E171:E173" si="153">E170+(E170/100)</f>
         <v>9776.7999999999993</v>
       </c>
       <c r="F171">
-        <f t="shared" ref="F171:F197" si="153">F170+(F170/100)</f>
+        <f t="shared" ref="F171:F173" si="154">F170+(F170/100)</f>
         <v>8554.7000000000025</v>
       </c>
       <c r="G171">
-        <f t="shared" ref="G171:G197" si="154">G170+(G170/100)</f>
+        <f t="shared" ref="G171:G173" si="155">G170+(G170/100)</f>
         <v>8554.7000000000025</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>43</v>
       </c>
       <c r="B172" s="1">
@@ -4982,24 +5032,25 @@
         <v>28</v>
       </c>
       <c r="D172">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>115</v>
       </c>
       <c r="E172">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>9874.5679999999993</v>
       </c>
       <c r="F172">
-        <f t="shared" si="153"/>
-        <v>8640.247000000003</v>
-      </c>
-      <c r="G172">
         <f t="shared" si="154"/>
         <v>8640.247000000003</v>
       </c>
+      <c r="G172">
+        <f t="shared" si="155"/>
+        <v>8640.247000000003</v>
+      </c>
     </row>
     <row r="173" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>43</v>
       </c>
       <c r="B173" s="1">
@@ -5009,24 +5060,25 @@
         <v>29</v>
       </c>
       <c r="D173">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>115</v>
       </c>
       <c r="E173">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>9973.3136799999993</v>
       </c>
       <c r="F173">
-        <f t="shared" si="153"/>
-        <v>8726.6494700000039</v>
-      </c>
-      <c r="G173">
         <f t="shared" si="154"/>
         <v>8726.6494700000039</v>
       </c>
+      <c r="G173">
+        <f t="shared" si="155"/>
+        <v>8726.6494700000039</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>44</v>
       </c>
       <c r="B174" s="5">
@@ -5036,24 +5088,25 @@
         <v>24</v>
       </c>
       <c r="D174">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>120</v>
       </c>
       <c r="E174">
-        <f t="shared" ref="E174:G174" si="155">E170*1.1</f>
+        <f t="shared" ref="E174:G174" si="156">E170*1.1</f>
         <v>10648</v>
       </c>
       <c r="F174">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>9317.0000000000036</v>
       </c>
       <c r="G174">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>9317.0000000000036</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>44</v>
       </c>
       <c r="B175" s="3">
@@ -5063,24 +5116,25 @@
         <v>25</v>
       </c>
       <c r="D175">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>120</v>
       </c>
       <c r="E175">
-        <f t="shared" ref="E175:E197" si="156">E174+(E174/100)</f>
+        <f t="shared" ref="E175:E177" si="157">E174+(E174/100)</f>
         <v>10754.48</v>
       </c>
       <c r="F175">
-        <f t="shared" ref="F175:F197" si="157">F174+(F174/100)</f>
+        <f t="shared" ref="F175:F177" si="158">F174+(F174/100)</f>
         <v>9410.1700000000037</v>
       </c>
       <c r="G175">
-        <f t="shared" ref="G175:G197" si="158">G174+(G174/100)</f>
+        <f t="shared" ref="G175:G177" si="159">G174+(G174/100)</f>
         <v>9410.1700000000037</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>44</v>
       </c>
       <c r="B176" s="3">
@@ -5090,24 +5144,25 @@
         <v>26</v>
       </c>
       <c r="D176">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>120</v>
       </c>
       <c r="E176">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>10862.024799999999</v>
       </c>
       <c r="F176">
-        <f t="shared" si="157"/>
-        <v>9504.271700000003</v>
-      </c>
-      <c r="G176">
         <f t="shared" si="158"/>
         <v>9504.271700000003</v>
       </c>
+      <c r="G176">
+        <f t="shared" si="159"/>
+        <v>9504.271700000003</v>
+      </c>
     </row>
     <row r="177" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>44</v>
       </c>
       <c r="B177" s="3">
@@ -5117,24 +5172,25 @@
         <v>27</v>
       </c>
       <c r="D177">
-        <v>35</v>
+        <f t="shared" si="108"/>
+        <v>120</v>
       </c>
       <c r="E177">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>10970.645047999998</v>
       </c>
       <c r="F177">
-        <f t="shared" si="157"/>
-        <v>9599.3144170000032</v>
-      </c>
-      <c r="G177">
         <f t="shared" si="158"/>
         <v>9599.3144170000032</v>
       </c>
+      <c r="G177">
+        <f t="shared" si="159"/>
+        <v>9599.3144170000032</v>
+      </c>
     </row>
     <row r="178" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>45</v>
       </c>
       <c r="B178" s="4">
@@ -5144,24 +5200,25 @@
         <v>25</v>
       </c>
       <c r="D178">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>125</v>
       </c>
       <c r="E178">
-        <f t="shared" ref="E178:G178" si="159">E174*1.1</f>
+        <f t="shared" ref="E178:G178" si="160">E174*1.1</f>
         <v>11712.800000000001</v>
       </c>
       <c r="F178">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>10248.700000000004</v>
       </c>
       <c r="G178">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>10248.700000000004</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>45</v>
       </c>
       <c r="B179" s="1">
@@ -5171,24 +5228,25 @@
         <v>26</v>
       </c>
       <c r="D179">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>125</v>
       </c>
       <c r="E179">
-        <f t="shared" ref="E179:E197" si="160">E178+(E178/100)</f>
+        <f t="shared" ref="E179:E181" si="161">E178+(E178/100)</f>
         <v>11829.928000000002</v>
       </c>
       <c r="F179">
-        <f t="shared" ref="F179:F197" si="161">F178+(F178/100)</f>
+        <f t="shared" ref="F179:F181" si="162">F178+(F178/100)</f>
         <v>10351.187000000004</v>
       </c>
       <c r="G179">
-        <f t="shared" ref="G179:G197" si="162">G178+(G178/100)</f>
+        <f t="shared" ref="G179:G181" si="163">G178+(G178/100)</f>
         <v>10351.187000000004</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>45</v>
       </c>
       <c r="B180" s="1">
@@ -5198,24 +5256,25 @@
         <v>27</v>
       </c>
       <c r="D180">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>125</v>
       </c>
       <c r="E180">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>11948.227280000001</v>
       </c>
       <c r="F180">
-        <f t="shared" si="161"/>
-        <v>10454.698870000004</v>
-      </c>
-      <c r="G180">
         <f t="shared" si="162"/>
         <v>10454.698870000004</v>
       </c>
+      <c r="G180">
+        <f t="shared" si="163"/>
+        <v>10454.698870000004</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>45</v>
       </c>
       <c r="B181" s="1">
@@ -5225,24 +5284,25 @@
         <v>28</v>
       </c>
       <c r="D181">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>125</v>
       </c>
       <c r="E181">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>12067.709552800001</v>
       </c>
       <c r="F181">
-        <f t="shared" si="161"/>
-        <v>10559.245858700004</v>
-      </c>
-      <c r="G181">
         <f t="shared" si="162"/>
         <v>10559.245858700004</v>
       </c>
+      <c r="G181">
+        <f t="shared" si="163"/>
+        <v>10559.245858700004</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>46</v>
       </c>
       <c r="B182" s="5">
@@ -5252,24 +5312,25 @@
         <v>26</v>
       </c>
       <c r="D182">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>130</v>
       </c>
       <c r="E182">
-        <f t="shared" ref="E182:G182" si="163">E178*1.1</f>
+        <f t="shared" ref="E182:G182" si="164">E178*1.1</f>
         <v>12884.080000000002</v>
       </c>
       <c r="F182">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>11273.570000000005</v>
       </c>
       <c r="G182">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>11273.570000000005</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>46</v>
       </c>
       <c r="B183" s="3">
@@ -5279,24 +5340,25 @@
         <v>27</v>
       </c>
       <c r="D183">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>130</v>
       </c>
       <c r="E183">
-        <f t="shared" ref="E183:E197" si="164">E182+(E182/100)</f>
+        <f t="shared" ref="E183:E185" si="165">E182+(E182/100)</f>
         <v>13012.920800000002</v>
       </c>
       <c r="F183">
-        <f t="shared" ref="F183:F197" si="165">F182+(F182/100)</f>
+        <f t="shared" ref="F183:F185" si="166">F182+(F182/100)</f>
         <v>11386.305700000004</v>
       </c>
       <c r="G183">
-        <f t="shared" ref="G183:G197" si="166">G182+(G182/100)</f>
+        <f t="shared" ref="G183:G185" si="167">G182+(G182/100)</f>
         <v>11386.305700000004</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>46</v>
       </c>
       <c r="B184" s="3">
@@ -5306,24 +5368,25 @@
         <v>28</v>
       </c>
       <c r="D184">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>130</v>
       </c>
       <c r="E184">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>13143.050008000002</v>
       </c>
       <c r="F184">
-        <f t="shared" si="165"/>
-        <v>11500.168757000005</v>
-      </c>
-      <c r="G184">
         <f t="shared" si="166"/>
         <v>11500.168757000005</v>
       </c>
+      <c r="G184">
+        <f t="shared" si="167"/>
+        <v>11500.168757000005</v>
+      </c>
     </row>
     <row r="185" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>46</v>
       </c>
       <c r="B185" s="3">
@@ -5333,24 +5396,25 @@
         <v>29</v>
       </c>
       <c r="D185">
-        <v>40</v>
+        <f t="shared" si="108"/>
+        <v>130</v>
       </c>
       <c r="E185">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>13274.480508080002</v>
       </c>
       <c r="F185">
-        <f t="shared" si="165"/>
-        <v>11615.170444570005</v>
-      </c>
-      <c r="G185">
         <f t="shared" si="166"/>
         <v>11615.170444570005</v>
       </c>
+      <c r="G185">
+        <f t="shared" si="167"/>
+        <v>11615.170444570005</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>47</v>
       </c>
       <c r="B186" s="4">
@@ -5360,24 +5424,25 @@
         <v>24</v>
       </c>
       <c r="D186">
-        <v>45</v>
+        <f t="shared" si="108"/>
+        <v>135</v>
       </c>
       <c r="E186">
-        <f t="shared" ref="E186:G186" si="167">E182*1.1</f>
+        <f t="shared" ref="E186:G186" si="168">E182*1.1</f>
         <v>14172.488000000003</v>
       </c>
       <c r="F186">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>12400.927000000007</v>
       </c>
       <c r="G186">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>12400.927000000007</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>47</v>
       </c>
       <c r="B187" s="1">
@@ -5387,24 +5452,25 @@
         <v>25</v>
       </c>
       <c r="D187">
-        <v>45</v>
+        <f t="shared" ref="D187:D201" si="169">D183+5</f>
+        <v>135</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E197" si="168">E186+(E186/100)</f>
+        <f t="shared" ref="E187:E189" si="170">E186+(E186/100)</f>
         <v>14314.212880000003</v>
       </c>
       <c r="F187">
-        <f t="shared" ref="F187:F197" si="169">F186+(F186/100)</f>
+        <f t="shared" ref="F187:F189" si="171">F186+(F186/100)</f>
         <v>12524.936270000007</v>
       </c>
       <c r="G187">
-        <f t="shared" ref="G187:G197" si="170">G186+(G186/100)</f>
+        <f t="shared" ref="G187:G189" si="172">G186+(G186/100)</f>
         <v>12524.936270000007</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>47</v>
       </c>
       <c r="B188" s="1">
@@ -5414,24 +5480,25 @@
         <v>26</v>
       </c>
       <c r="D188">
-        <v>45</v>
+        <f t="shared" si="169"/>
+        <v>135</v>
       </c>
       <c r="E188">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>14457.355008800003</v>
       </c>
       <c r="F188">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>12650.185632700008</v>
       </c>
       <c r="G188">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>12650.185632700008</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>47</v>
       </c>
       <c r="B189" s="1">
@@ -5441,24 +5508,25 @@
         <v>27</v>
       </c>
       <c r="D189">
-        <v>45</v>
+        <f t="shared" si="169"/>
+        <v>135</v>
       </c>
       <c r="E189">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>14601.928558888003</v>
       </c>
       <c r="F189">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>12776.687489027008</v>
       </c>
       <c r="G189">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>12776.687489027008</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>48</v>
       </c>
       <c r="B190" s="5">
@@ -5468,24 +5536,25 @@
         <v>25</v>
       </c>
       <c r="D190">
-        <v>45</v>
+        <f t="shared" si="169"/>
+        <v>140</v>
       </c>
       <c r="E190">
-        <f t="shared" ref="E190:G190" si="171">E186*1.1</f>
+        <f t="shared" ref="E190:G190" si="173">E186*1.1</f>
         <v>15589.736800000004</v>
       </c>
       <c r="F190">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>13641.019700000008</v>
       </c>
       <c r="G190">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>13641.019700000008</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>48</v>
       </c>
       <c r="B191" s="3">
@@ -5495,24 +5564,25 @@
         <v>26</v>
       </c>
       <c r="D191">
-        <v>45</v>
+        <f t="shared" si="169"/>
+        <v>140</v>
       </c>
       <c r="E191">
-        <f t="shared" ref="E191:E197" si="172">E190+(E190/100)</f>
+        <f t="shared" ref="E191:E193" si="174">E190+(E190/100)</f>
         <v>15745.634168000004</v>
       </c>
       <c r="F191">
-        <f t="shared" ref="F191:F197" si="173">F190+(F190/100)</f>
+        <f t="shared" ref="F191:F193" si="175">F190+(F190/100)</f>
         <v>13777.429897000007</v>
       </c>
       <c r="G191">
-        <f t="shared" ref="G191:G197" si="174">G190+(G190/100)</f>
+        <f t="shared" ref="G191:G193" si="176">G190+(G190/100)</f>
         <v>13777.429897000007</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>48</v>
       </c>
       <c r="B192" s="3">
@@ -5522,24 +5592,25 @@
         <v>27</v>
       </c>
       <c r="D192">
-        <v>45</v>
+        <f t="shared" si="169"/>
+        <v>140</v>
       </c>
       <c r="E192">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>15903.090509680003</v>
       </c>
       <c r="F192">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>13915.204195970007</v>
       </c>
       <c r="G192">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>13915.204195970007</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>48</v>
       </c>
       <c r="B193" s="3">
@@ -5549,18 +5620,19 @@
         <v>28</v>
       </c>
       <c r="D193">
-        <v>45</v>
+        <f t="shared" si="169"/>
+        <v>140</v>
       </c>
       <c r="E193">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>16062.121414776804</v>
       </c>
       <c r="F193">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>14054.356237929707</v>
       </c>
       <c r="G193">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>14054.356237929707</v>
       </c>
     </row>
@@ -5576,24 +5648,25 @@
         <v>26</v>
       </c>
       <c r="D194">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>145</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:G194" si="175">E190*1.1</f>
+        <f t="shared" ref="E194:G194" si="177">E190*1.1</f>
         <v>17148.710480000005</v>
       </c>
       <c r="F194">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>15005.12167000001</v>
       </c>
       <c r="G194">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>15005.12167000001</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>49</v>
       </c>
       <c r="B195" s="1">
@@ -5603,24 +5676,25 @@
         <v>27</v>
       </c>
       <c r="D195">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>145</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E197" si="176">E194+(E194/100)</f>
+        <f t="shared" ref="E195:E197" si="178">E194+(E194/100)</f>
         <v>17320.197584800004</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F197" si="177">F194+(F194/100)</f>
+        <f t="shared" ref="F195:F197" si="179">F194+(F194/100)</f>
         <v>15155.172886700009</v>
       </c>
       <c r="G195">
-        <f t="shared" ref="G195:G197" si="178">G194+(G194/100)</f>
+        <f t="shared" ref="G195:G197" si="180">G194+(G194/100)</f>
         <v>15155.172886700009</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>49</v>
       </c>
       <c r="B196" s="1">
@@ -5630,24 +5704,25 @@
         <v>28</v>
       </c>
       <c r="D196">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>145</v>
       </c>
       <c r="E196">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>17493.399560648002</v>
       </c>
       <c r="F196">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>15306.724615567009</v>
       </c>
       <c r="G196">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>15306.724615567009</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>49</v>
       </c>
       <c r="B197" s="1">
@@ -5657,18 +5732,19 @@
         <v>29</v>
       </c>
       <c r="D197">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>145</v>
       </c>
       <c r="E197">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>17668.333556254482</v>
       </c>
       <c r="F197">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>15459.791861722679</v>
       </c>
       <c r="G197">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>15459.791861722679</v>
       </c>
     </row>
@@ -5684,7 +5760,8 @@
         <v>30</v>
       </c>
       <c r="D198">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>150</v>
       </c>
       <c r="E198">
         <v>18000</v>
@@ -5698,7 +5775,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="B199" s="2">
@@ -5708,7 +5785,8 @@
         <v>30</v>
       </c>
       <c r="D199">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>150</v>
       </c>
       <c r="E199">
         <v>18000</v>
@@ -5722,7 +5800,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="B200" s="2">
@@ -5732,7 +5810,8 @@
         <v>30</v>
       </c>
       <c r="D200">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>150</v>
       </c>
       <c r="E200">
         <v>18000</v>
@@ -5746,7 +5825,7 @@
     </row>
     <row r="201" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="B201" s="2">
@@ -5756,7 +5835,8 @@
         <v>30</v>
       </c>
       <c r="D201">
-        <v>50</v>
+        <f t="shared" si="169"/>
+        <v>150</v>
       </c>
       <c r="E201">
         <v>18000</v>
@@ -5770,7 +5850,7 @@
     </row>
     <row r="202" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>51</v>
       </c>
       <c r="B202" s="4">
@@ -5780,7 +5860,8 @@
         <v>24</v>
       </c>
       <c r="D202">
-        <v>30</v>
+        <f>D198+10</f>
+        <v>160</v>
       </c>
       <c r="E202">
         <v>18000</v>
@@ -5794,7 +5875,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>51</v>
       </c>
       <c r="B203" s="1">
@@ -5804,24 +5885,25 @@
         <v>25</v>
       </c>
       <c r="D203">
-        <v>30</v>
+        <f t="shared" ref="D203:D266" si="181">D199+10</f>
+        <v>160</v>
       </c>
       <c r="E203">
-        <f t="shared" ref="E203:E205" si="179">E202+(E202/100)</f>
+        <f t="shared" ref="E203:E205" si="182">E202+(E202/100)</f>
         <v>18180</v>
       </c>
       <c r="F203">
-        <f t="shared" ref="F203:F205" si="180">F202+(F202/100)</f>
+        <f t="shared" ref="F203:F205" si="183">F202+(F202/100)</f>
         <v>16160</v>
       </c>
       <c r="G203">
-        <f t="shared" ref="G203:G205" si="181">G202+(G202/100)</f>
+        <f t="shared" ref="G203:G205" si="184">G202+(G202/100)</f>
         <v>16160</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <f t="shared" ref="A204:A267" si="182">A200+1</f>
+        <f t="shared" ref="A204:A267" si="185">A200+1</f>
         <v>51</v>
       </c>
       <c r="B204" s="1">
@@ -5831,24 +5913,25 @@
         <v>26</v>
       </c>
       <c r="D204">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>160</v>
       </c>
       <c r="E204">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>18361.8</v>
       </c>
       <c r="F204">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>16321.6</v>
       </c>
       <c r="G204">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>16321.6</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>51</v>
       </c>
       <c r="B205" s="1">
@@ -5858,24 +5941,25 @@
         <v>27</v>
       </c>
       <c r="D205">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>160</v>
       </c>
       <c r="E205">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>18545.417999999998</v>
       </c>
       <c r="F205">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>16484.815999999999</v>
       </c>
       <c r="G205">
-        <f t="shared" si="181"/>
+        <f t="shared" si="184"/>
         <v>16484.815999999999</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>52</v>
       </c>
       <c r="B206" s="5">
@@ -5885,24 +5969,25 @@
         <v>25</v>
       </c>
       <c r="D206">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>170</v>
       </c>
       <c r="E206">
-        <f t="shared" ref="E206:G206" si="183">E202*1.1</f>
+        <f t="shared" ref="E206:G206" si="186">E202*1.1</f>
         <v>19800</v>
       </c>
       <c r="F206">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>17600</v>
       </c>
       <c r="G206">
-        <f t="shared" si="183"/>
+        <f t="shared" si="186"/>
         <v>17600</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>52</v>
       </c>
       <c r="B207" s="3">
@@ -5912,24 +5997,25 @@
         <v>26</v>
       </c>
       <c r="D207">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>170</v>
       </c>
       <c r="E207">
-        <f t="shared" ref="E207:E209" si="184">E206+(E206/100)</f>
+        <f t="shared" ref="E207:E209" si="187">E206+(E206/100)</f>
         <v>19998</v>
       </c>
       <c r="F207">
-        <f t="shared" ref="F207:F209" si="185">F206+(F206/100)</f>
+        <f t="shared" ref="F207:F209" si="188">F206+(F206/100)</f>
         <v>17776</v>
       </c>
       <c r="G207">
-        <f t="shared" ref="G207:G209" si="186">G206+(G206/100)</f>
+        <f t="shared" ref="G207:G209" si="189">G206+(G206/100)</f>
         <v>17776</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>52</v>
       </c>
       <c r="B208" s="3">
@@ -5939,24 +6025,25 @@
         <v>27</v>
       </c>
       <c r="D208">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>170</v>
       </c>
       <c r="E208">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>20197.98</v>
       </c>
       <c r="F208">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>17953.759999999998</v>
       </c>
       <c r="G208">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>17953.759999999998</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>52</v>
       </c>
       <c r="B209" s="3">
@@ -5966,24 +6053,25 @@
         <v>28</v>
       </c>
       <c r="D209">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>170</v>
       </c>
       <c r="E209">
-        <f t="shared" si="184"/>
+        <f t="shared" si="187"/>
         <v>20399.959800000001</v>
       </c>
       <c r="F209">
-        <f t="shared" si="185"/>
+        <f t="shared" si="188"/>
         <v>18133.297599999998</v>
       </c>
       <c r="G209">
-        <f t="shared" si="186"/>
+        <f t="shared" si="189"/>
         <v>18133.297599999998</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>53</v>
       </c>
       <c r="B210" s="4">
@@ -5993,24 +6081,25 @@
         <v>26</v>
       </c>
       <c r="D210">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>180</v>
       </c>
       <c r="E210">
-        <f t="shared" ref="E210:G210" si="187">E206*1.1</f>
+        <f t="shared" ref="E210:G210" si="190">E206*1.1</f>
         <v>21780</v>
       </c>
       <c r="F210">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>19360</v>
       </c>
       <c r="G210">
-        <f t="shared" si="187"/>
+        <f t="shared" si="190"/>
         <v>19360</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>53</v>
       </c>
       <c r="B211" s="1">
@@ -6020,24 +6109,25 @@
         <v>27</v>
       </c>
       <c r="D211">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>180</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211:E237" si="188">E210+(E210/100)</f>
+        <f t="shared" ref="E211:E213" si="191">E210+(E210/100)</f>
         <v>21997.8</v>
       </c>
       <c r="F211">
-        <f t="shared" ref="F211:F237" si="189">F210+(F210/100)</f>
+        <f t="shared" ref="F211:F213" si="192">F210+(F210/100)</f>
         <v>19553.599999999999</v>
       </c>
       <c r="G211">
-        <f t="shared" ref="G211:G237" si="190">G210+(G210/100)</f>
+        <f t="shared" ref="G211:G213" si="193">G210+(G210/100)</f>
         <v>19553.599999999999</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>53</v>
       </c>
       <c r="B212" s="1">
@@ -6047,24 +6137,25 @@
         <v>28</v>
       </c>
       <c r="D212">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>180</v>
       </c>
       <c r="E212">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>22217.777999999998</v>
       </c>
       <c r="F212">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>19749.135999999999</v>
       </c>
       <c r="G212">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>19749.135999999999</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>53</v>
       </c>
       <c r="B213" s="1">
@@ -6074,24 +6165,25 @@
         <v>29</v>
       </c>
       <c r="D213">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>180</v>
       </c>
       <c r="E213">
-        <f t="shared" si="188"/>
+        <f t="shared" si="191"/>
         <v>22439.955779999997</v>
       </c>
       <c r="F213">
-        <f t="shared" si="189"/>
+        <f t="shared" si="192"/>
         <v>19946.627359999999</v>
       </c>
       <c r="G213">
-        <f t="shared" si="190"/>
+        <f t="shared" si="193"/>
         <v>19946.627359999999</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>54</v>
       </c>
       <c r="B214" s="5">
@@ -6101,24 +6193,25 @@
         <v>24</v>
       </c>
       <c r="D214">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>190</v>
       </c>
       <c r="E214">
-        <f t="shared" ref="E214:G214" si="191">E210*1.1</f>
+        <f t="shared" ref="E214:G214" si="194">E210*1.1</f>
         <v>23958.000000000004</v>
       </c>
       <c r="F214">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>21296</v>
       </c>
       <c r="G214">
-        <f t="shared" si="191"/>
+        <f t="shared" si="194"/>
         <v>21296</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>54</v>
       </c>
       <c r="B215" s="3">
@@ -6128,24 +6221,25 @@
         <v>25</v>
       </c>
       <c r="D215">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>190</v>
       </c>
       <c r="E215">
-        <f t="shared" ref="E215:E237" si="192">E214+(E214/100)</f>
+        <f t="shared" ref="E215:E217" si="195">E214+(E214/100)</f>
         <v>24197.580000000005</v>
       </c>
       <c r="F215">
-        <f t="shared" ref="F215:F237" si="193">F214+(F214/100)</f>
+        <f t="shared" ref="F215:F217" si="196">F214+(F214/100)</f>
         <v>21508.959999999999</v>
       </c>
       <c r="G215">
-        <f t="shared" ref="G215:G237" si="194">G214+(G214/100)</f>
+        <f t="shared" ref="G215:G217" si="197">G214+(G214/100)</f>
         <v>21508.959999999999</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>54</v>
       </c>
       <c r="B216" s="3">
@@ -6155,24 +6249,25 @@
         <v>26</v>
       </c>
       <c r="D216">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>190</v>
       </c>
       <c r="E216">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>24439.555800000006</v>
       </c>
       <c r="F216">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>21724.049599999998</v>
       </c>
       <c r="G216">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>21724.049599999998</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>54</v>
       </c>
       <c r="B217" s="3">
@@ -6182,24 +6277,25 @@
         <v>27</v>
       </c>
       <c r="D217">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>190</v>
       </c>
       <c r="E217">
-        <f t="shared" si="192"/>
+        <f t="shared" si="195"/>
         <v>24683.951358000006</v>
       </c>
       <c r="F217">
-        <f t="shared" si="193"/>
+        <f t="shared" si="196"/>
         <v>21941.290095999997</v>
       </c>
       <c r="G217">
-        <f t="shared" si="194"/>
+        <f t="shared" si="197"/>
         <v>21941.290095999997</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>55</v>
       </c>
       <c r="B218" s="4">
@@ -6209,24 +6305,25 @@
         <v>25</v>
       </c>
       <c r="D218">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>200</v>
       </c>
       <c r="E218">
-        <f t="shared" ref="E218:G218" si="195">E214*1.1</f>
+        <f t="shared" ref="E218:G218" si="198">E214*1.1</f>
         <v>26353.800000000007</v>
       </c>
       <c r="F218">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>23425.600000000002</v>
       </c>
       <c r="G218">
-        <f t="shared" si="195"/>
+        <f t="shared" si="198"/>
         <v>23425.600000000002</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>55</v>
       </c>
       <c r="B219" s="1">
@@ -6236,24 +6333,25 @@
         <v>26</v>
       </c>
       <c r="D219">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>200</v>
       </c>
       <c r="E219">
-        <f t="shared" ref="E219:E237" si="196">E218+(E218/100)</f>
+        <f t="shared" ref="E219:E221" si="199">E218+(E218/100)</f>
         <v>26617.338000000007</v>
       </c>
       <c r="F219">
-        <f t="shared" ref="F219:F237" si="197">F218+(F218/100)</f>
+        <f t="shared" ref="F219:F221" si="200">F218+(F218/100)</f>
         <v>23659.856000000003</v>
       </c>
       <c r="G219">
-        <f t="shared" ref="G219:G237" si="198">G218+(G218/100)</f>
+        <f t="shared" ref="G219:G221" si="201">G218+(G218/100)</f>
         <v>23659.856000000003</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>55</v>
       </c>
       <c r="B220" s="1">
@@ -6263,24 +6361,25 @@
         <v>27</v>
       </c>
       <c r="D220">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>200</v>
       </c>
       <c r="E220">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>26883.511380000007</v>
       </c>
       <c r="F220">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>23896.454560000002</v>
       </c>
       <c r="G220">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>23896.454560000002</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>55</v>
       </c>
       <c r="B221" s="1">
@@ -6290,24 +6389,25 @@
         <v>28</v>
       </c>
       <c r="D221">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>200</v>
       </c>
       <c r="E221">
-        <f t="shared" si="196"/>
+        <f t="shared" si="199"/>
         <v>27152.346493800007</v>
       </c>
       <c r="F221">
-        <f t="shared" si="197"/>
+        <f t="shared" si="200"/>
         <v>24135.419105600002</v>
       </c>
       <c r="G221">
-        <f t="shared" si="198"/>
+        <f t="shared" si="201"/>
         <v>24135.419105600002</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>56</v>
       </c>
       <c r="B222" s="5">
@@ -6317,24 +6417,25 @@
         <v>26</v>
       </c>
       <c r="D222">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>210</v>
       </c>
       <c r="E222">
-        <f t="shared" ref="E222:G222" si="199">E218*1.1</f>
+        <f t="shared" ref="E222:G222" si="202">E218*1.1</f>
         <v>28989.180000000011</v>
       </c>
       <c r="F222">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>25768.160000000003</v>
       </c>
       <c r="G222">
-        <f t="shared" si="199"/>
+        <f t="shared" si="202"/>
         <v>25768.160000000003</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>56</v>
       </c>
       <c r="B223" s="3">
@@ -6344,24 +6445,25 @@
         <v>27</v>
       </c>
       <c r="D223">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>210</v>
       </c>
       <c r="E223">
-        <f t="shared" ref="E223:E237" si="200">E222+(E222/100)</f>
+        <f t="shared" ref="E223:E225" si="203">E222+(E222/100)</f>
         <v>29279.071800000012</v>
       </c>
       <c r="F223">
-        <f t="shared" ref="F223:F237" si="201">F222+(F222/100)</f>
+        <f t="shared" ref="F223:F225" si="204">F222+(F222/100)</f>
         <v>26025.841600000003</v>
       </c>
       <c r="G223">
-        <f t="shared" ref="G223:G237" si="202">G222+(G222/100)</f>
+        <f t="shared" ref="G223:G225" si="205">G222+(G222/100)</f>
         <v>26025.841600000003</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>56</v>
       </c>
       <c r="B224" s="3">
@@ -6371,24 +6473,25 @@
         <v>28</v>
       </c>
       <c r="D224">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>210</v>
       </c>
       <c r="E224">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>29571.862518000013</v>
       </c>
       <c r="F224">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>26286.100016000004</v>
       </c>
       <c r="G224">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>26286.100016000004</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>56</v>
       </c>
       <c r="B225" s="3">
@@ -6398,24 +6501,25 @@
         <v>29</v>
       </c>
       <c r="D225">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>210</v>
       </c>
       <c r="E225">
-        <f t="shared" si="200"/>
+        <f t="shared" si="203"/>
         <v>29867.581143180014</v>
       </c>
       <c r="F225">
-        <f t="shared" si="201"/>
+        <f t="shared" si="204"/>
         <v>26548.961016160003</v>
       </c>
       <c r="G225">
-        <f t="shared" si="202"/>
+        <f t="shared" si="205"/>
         <v>26548.961016160003</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>57</v>
       </c>
       <c r="B226" s="4">
@@ -6425,24 +6529,25 @@
         <v>24</v>
       </c>
       <c r="D226">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>220</v>
       </c>
       <c r="E226">
-        <f t="shared" ref="E226:G226" si="203">E222*1.1</f>
+        <f t="shared" ref="E226:G226" si="206">E222*1.1</f>
         <v>31888.098000000016</v>
       </c>
       <c r="F226">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>28344.976000000006</v>
       </c>
       <c r="G226">
-        <f t="shared" si="203"/>
+        <f t="shared" si="206"/>
         <v>28344.976000000006</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>57</v>
       </c>
       <c r="B227" s="1">
@@ -6452,24 +6557,25 @@
         <v>25</v>
       </c>
       <c r="D227">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>220</v>
       </c>
       <c r="E227">
-        <f t="shared" ref="E227:E237" si="204">E226+(E226/100)</f>
+        <f t="shared" ref="E227:E229" si="207">E226+(E226/100)</f>
         <v>32206.978980000018</v>
       </c>
       <c r="F227">
-        <f t="shared" ref="F227:F237" si="205">F226+(F226/100)</f>
+        <f t="shared" ref="F227:F229" si="208">F226+(F226/100)</f>
         <v>28628.425760000006</v>
       </c>
       <c r="G227">
-        <f t="shared" ref="G227:G237" si="206">G226+(G226/100)</f>
+        <f t="shared" ref="G227:G229" si="209">G226+(G226/100)</f>
         <v>28628.425760000006</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>57</v>
       </c>
       <c r="B228" s="1">
@@ -6479,24 +6585,25 @@
         <v>26</v>
       </c>
       <c r="D228">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>220</v>
       </c>
       <c r="E228">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>32529.048769800018</v>
       </c>
       <c r="F228">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>28914.710017600006</v>
       </c>
       <c r="G228">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>28914.710017600006</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>57</v>
       </c>
       <c r="B229" s="1">
@@ -6506,24 +6613,25 @@
         <v>27</v>
       </c>
       <c r="D229">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>220</v>
       </c>
       <c r="E229">
-        <f t="shared" si="204"/>
+        <f t="shared" si="207"/>
         <v>32854.339257498017</v>
       </c>
       <c r="F229">
-        <f t="shared" si="205"/>
+        <f t="shared" si="208"/>
         <v>29203.857117776006</v>
       </c>
       <c r="G229">
-        <f t="shared" si="206"/>
+        <f t="shared" si="209"/>
         <v>29203.857117776006</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>58</v>
       </c>
       <c r="B230" s="5">
@@ -6533,24 +6641,25 @@
         <v>25</v>
       </c>
       <c r="D230">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>230</v>
       </c>
       <c r="E230">
-        <f t="shared" ref="E230:G230" si="207">E226*1.1</f>
+        <f t="shared" ref="E230:G230" si="210">E226*1.1</f>
         <v>35076.907800000023</v>
       </c>
       <c r="F230">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>31179.473600000008</v>
       </c>
       <c r="G230">
-        <f t="shared" si="207"/>
+        <f t="shared" si="210"/>
         <v>31179.473600000008</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>58</v>
       </c>
       <c r="B231" s="3">
@@ -6560,24 +6669,25 @@
         <v>26</v>
       </c>
       <c r="D231">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>230</v>
       </c>
       <c r="E231">
-        <f t="shared" ref="E231:E237" si="208">E230+(E230/100)</f>
+        <f t="shared" ref="E231:E233" si="211">E230+(E230/100)</f>
         <v>35427.67687800002</v>
       </c>
       <c r="F231">
-        <f t="shared" ref="F231:F237" si="209">F230+(F230/100)</f>
+        <f t="shared" ref="F231:F233" si="212">F230+(F230/100)</f>
         <v>31491.268336000008</v>
       </c>
       <c r="G231">
-        <f t="shared" ref="G231:G237" si="210">G230+(G230/100)</f>
+        <f t="shared" ref="G231:G233" si="213">G230+(G230/100)</f>
         <v>31491.268336000008</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>58</v>
       </c>
       <c r="B232" s="3">
@@ -6587,24 +6697,25 @@
         <v>27</v>
       </c>
       <c r="D232">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>230</v>
       </c>
       <c r="E232">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>35781.953646780021</v>
       </c>
       <c r="F232">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>31806.181019360007</v>
       </c>
       <c r="G232">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>31806.181019360007</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>58</v>
       </c>
       <c r="B233" s="3">
@@ -6614,18 +6725,19 @@
         <v>28</v>
       </c>
       <c r="D233">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>230</v>
       </c>
       <c r="E233">
-        <f t="shared" si="208"/>
+        <f t="shared" si="211"/>
         <v>36139.773183247824</v>
       </c>
       <c r="F233">
-        <f t="shared" si="209"/>
+        <f t="shared" si="212"/>
         <v>32124.242829553608</v>
       </c>
       <c r="G233">
-        <f t="shared" si="210"/>
+        <f t="shared" si="213"/>
         <v>32124.242829553608</v>
       </c>
     </row>
@@ -6641,24 +6753,25 @@
         <v>26</v>
       </c>
       <c r="D234">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>240</v>
       </c>
       <c r="E234">
-        <f t="shared" ref="E234:G234" si="211">E230*1.1</f>
+        <f t="shared" ref="E234:G234" si="214">E230*1.1</f>
         <v>38584.598580000027</v>
       </c>
       <c r="F234">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>34297.42096000001</v>
       </c>
       <c r="G234">
-        <f t="shared" si="211"/>
+        <f t="shared" si="214"/>
         <v>34297.42096000001</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>59</v>
       </c>
       <c r="B235" s="1">
@@ -6668,24 +6781,25 @@
         <v>27</v>
       </c>
       <c r="D235">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>240</v>
       </c>
       <c r="E235">
-        <f t="shared" ref="E235:E237" si="212">E234+(E234/100)</f>
+        <f t="shared" ref="E235:E237" si="215">E234+(E234/100)</f>
         <v>38970.444565800026</v>
       </c>
       <c r="F235">
-        <f t="shared" ref="F235:F237" si="213">F234+(F234/100)</f>
+        <f t="shared" ref="F235:F237" si="216">F234+(F234/100)</f>
         <v>34640.395169600008</v>
       </c>
       <c r="G235">
-        <f t="shared" ref="G235:G237" si="214">G234+(G234/100)</f>
+        <f t="shared" ref="G235:G237" si="217">G234+(G234/100)</f>
         <v>34640.395169600008</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>59</v>
       </c>
       <c r="B236" s="1">
@@ -6695,24 +6809,25 @@
         <v>28</v>
       </c>
       <c r="D236">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>240</v>
       </c>
       <c r="E236">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>39360.149011458023</v>
       </c>
       <c r="F236">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>34986.799121296004</v>
       </c>
       <c r="G236">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>34986.799121296004</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>59</v>
       </c>
       <c r="B237" s="1">
@@ -6722,18 +6837,19 @@
         <v>29</v>
       </c>
       <c r="D237">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>240</v>
       </c>
       <c r="E237">
-        <f t="shared" si="212"/>
+        <f t="shared" si="215"/>
         <v>39753.750501572606</v>
       </c>
       <c r="F237">
-        <f t="shared" si="213"/>
+        <f t="shared" si="216"/>
         <v>35336.667112508963</v>
       </c>
       <c r="G237">
-        <f t="shared" si="214"/>
+        <f t="shared" si="217"/>
         <v>35336.667112508963</v>
       </c>
     </row>
@@ -6750,7 +6866,8 @@
         <v>33</v>
       </c>
       <c r="D238">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>250</v>
       </c>
       <c r="E238">
         <v>40000</v>
@@ -6764,18 +6881,19 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>60</v>
       </c>
       <c r="B239" s="2">
         <v>1</v>
       </c>
       <c r="C239">
-        <f t="shared" ref="C239:C241" si="215">C199+3</f>
+        <f t="shared" ref="C239:C241" si="218">C199+3</f>
         <v>33</v>
       </c>
       <c r="D239">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>250</v>
       </c>
       <c r="E239">
         <v>40000</v>
@@ -6789,18 +6907,19 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>60</v>
       </c>
       <c r="B240" s="2">
         <v>2</v>
       </c>
       <c r="C240">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>33</v>
       </c>
       <c r="D240">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>250</v>
       </c>
       <c r="E240">
         <v>40000</v>
@@ -6814,18 +6933,19 @@
     </row>
     <row r="241" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>60</v>
       </c>
       <c r="B241" s="2">
         <v>3</v>
       </c>
       <c r="C241">
-        <f t="shared" si="215"/>
+        <f t="shared" si="218"/>
         <v>33</v>
       </c>
       <c r="D241">
-        <v>50</v>
+        <f t="shared" si="181"/>
+        <v>250</v>
       </c>
       <c r="E241">
         <v>40000</v>
@@ -6839,7 +6959,7 @@
     </row>
     <row r="242" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>61</v>
       </c>
       <c r="B242" s="4">
@@ -6849,7 +6969,8 @@
         <v>24</v>
       </c>
       <c r="D242">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>260</v>
       </c>
       <c r="E242">
         <v>40000</v>
@@ -6863,7 +6984,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>61</v>
       </c>
       <c r="B243" s="1">
@@ -6873,24 +6994,25 @@
         <v>25</v>
       </c>
       <c r="D243">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>260</v>
       </c>
       <c r="E243">
-        <f t="shared" ref="E243:E245" si="216">E242+(E242/100)</f>
+        <f t="shared" ref="E243:E245" si="219">E242+(E242/100)</f>
         <v>40400</v>
       </c>
       <c r="F243">
-        <f t="shared" ref="F243:F245" si="217">F242+(F242/100)</f>
+        <f t="shared" ref="F243:F245" si="220">F242+(F242/100)</f>
         <v>36360</v>
       </c>
       <c r="G243">
-        <f t="shared" ref="G243:G245" si="218">G242+(G242/100)</f>
+        <f t="shared" ref="G243:G245" si="221">G242+(G242/100)</f>
         <v>36360</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>61</v>
       </c>
       <c r="B244" s="1">
@@ -6900,24 +7022,25 @@
         <v>26</v>
       </c>
       <c r="D244">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>260</v>
       </c>
       <c r="E244">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>40804</v>
       </c>
       <c r="F244">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>36723.599999999999</v>
       </c>
       <c r="G244">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>36723.599999999999</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>61</v>
       </c>
       <c r="B245" s="1">
@@ -6927,24 +7050,25 @@
         <v>27</v>
       </c>
       <c r="D245">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>260</v>
       </c>
       <c r="E245">
-        <f t="shared" si="216"/>
+        <f t="shared" si="219"/>
         <v>41212.04</v>
       </c>
       <c r="F245">
-        <f t="shared" si="217"/>
+        <f t="shared" si="220"/>
         <v>37090.835999999996</v>
       </c>
       <c r="G245">
-        <f t="shared" si="218"/>
+        <f t="shared" si="221"/>
         <v>37090.835999999996</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>62</v>
       </c>
       <c r="B246" s="5">
@@ -6954,24 +7078,25 @@
         <v>25</v>
       </c>
       <c r="D246">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>270</v>
       </c>
       <c r="E246">
-        <f t="shared" ref="E246:G246" si="219">E242*1.1</f>
+        <f t="shared" ref="E246:G246" si="222">E242*1.1</f>
         <v>44000</v>
       </c>
       <c r="F246">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>39600</v>
       </c>
       <c r="G246">
-        <f t="shared" si="219"/>
+        <f t="shared" si="222"/>
         <v>39600</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>62</v>
       </c>
       <c r="B247" s="3">
@@ -6981,24 +7106,25 @@
         <v>26</v>
       </c>
       <c r="D247">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>270</v>
       </c>
       <c r="E247">
-        <f t="shared" ref="E247:E249" si="220">E246+(E246/100)</f>
+        <f t="shared" ref="E247:E249" si="223">E246+(E246/100)</f>
         <v>44440</v>
       </c>
       <c r="F247">
-        <f t="shared" ref="F247:F249" si="221">F246+(F246/100)</f>
+        <f t="shared" ref="F247:F249" si="224">F246+(F246/100)</f>
         <v>39996</v>
       </c>
       <c r="G247">
-        <f t="shared" ref="G247:G249" si="222">G246+(G246/100)</f>
+        <f t="shared" ref="G247:G249" si="225">G246+(G246/100)</f>
         <v>39996</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>62</v>
       </c>
       <c r="B248" s="3">
@@ -7008,24 +7134,25 @@
         <v>27</v>
       </c>
       <c r="D248">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>270</v>
       </c>
       <c r="E248">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>44884.4</v>
       </c>
       <c r="F248">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>40395.96</v>
       </c>
       <c r="G248">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>40395.96</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>62</v>
       </c>
       <c r="B249" s="3">
@@ -7035,24 +7162,25 @@
         <v>28</v>
       </c>
       <c r="D249">
-        <v>30</v>
+        <f t="shared" si="181"/>
+        <v>270</v>
       </c>
       <c r="E249">
-        <f t="shared" si="220"/>
+        <f t="shared" si="223"/>
         <v>45333.243999999999</v>
       </c>
       <c r="F249">
-        <f t="shared" si="221"/>
+        <f t="shared" si="224"/>
         <v>40799.919600000001</v>
       </c>
       <c r="G249">
-        <f t="shared" si="222"/>
+        <f t="shared" si="225"/>
         <v>40799.919600000001</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>63</v>
       </c>
       <c r="B250" s="4">
@@ -7062,24 +7190,25 @@
         <v>26</v>
       </c>
       <c r="D250">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>280</v>
       </c>
       <c r="E250">
-        <f t="shared" ref="E250:G250" si="223">E246*1.1</f>
+        <f t="shared" ref="E250:G250" si="226">E246*1.1</f>
         <v>48400.000000000007</v>
       </c>
       <c r="F250">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>43560</v>
       </c>
       <c r="G250">
-        <f t="shared" si="223"/>
+        <f t="shared" si="226"/>
         <v>43560</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>63</v>
       </c>
       <c r="B251" s="1">
@@ -7089,24 +7218,25 @@
         <v>27</v>
       </c>
       <c r="D251">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>280</v>
       </c>
       <c r="E251">
-        <f t="shared" ref="E251:E277" si="224">E250+(E250/100)</f>
+        <f t="shared" ref="E251:E253" si="227">E250+(E250/100)</f>
         <v>48884.000000000007</v>
       </c>
       <c r="F251">
-        <f t="shared" ref="F251:F277" si="225">F250+(F250/100)</f>
+        <f t="shared" ref="F251:F253" si="228">F250+(F250/100)</f>
         <v>43995.6</v>
       </c>
       <c r="G251">
-        <f t="shared" ref="G251:G277" si="226">G250+(G250/100)</f>
+        <f t="shared" ref="G251:G253" si="229">G250+(G250/100)</f>
         <v>43995.6</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>63</v>
       </c>
       <c r="B252" s="1">
@@ -7116,24 +7246,25 @@
         <v>28</v>
       </c>
       <c r="D252">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>280</v>
       </c>
       <c r="E252">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>49372.840000000004</v>
       </c>
       <c r="F252">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>44435.555999999997</v>
       </c>
       <c r="G252">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>44435.555999999997</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>63</v>
       </c>
       <c r="B253" s="1">
@@ -7143,24 +7274,25 @@
         <v>29</v>
       </c>
       <c r="D253">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>280</v>
       </c>
       <c r="E253">
-        <f t="shared" si="224"/>
+        <f t="shared" si="227"/>
         <v>49866.568400000004</v>
       </c>
       <c r="F253">
-        <f t="shared" si="225"/>
+        <f t="shared" si="228"/>
         <v>44879.911559999993</v>
       </c>
       <c r="G253">
-        <f t="shared" si="226"/>
+        <f t="shared" si="229"/>
         <v>44879.911559999993</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>64</v>
       </c>
       <c r="B254" s="5">
@@ -7170,24 +7302,25 @@
         <v>24</v>
       </c>
       <c r="D254">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>290</v>
       </c>
       <c r="E254">
-        <f t="shared" ref="E254:G254" si="227">E250*1.1</f>
+        <f t="shared" ref="E254:G254" si="230">E250*1.1</f>
         <v>53240.000000000015</v>
       </c>
       <c r="F254">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>47916.000000000007</v>
       </c>
       <c r="G254">
-        <f t="shared" si="227"/>
+        <f t="shared" si="230"/>
         <v>47916.000000000007</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>64</v>
       </c>
       <c r="B255" s="3">
@@ -7197,24 +7330,25 @@
         <v>25</v>
       </c>
       <c r="D255">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>290</v>
       </c>
       <c r="E255">
-        <f t="shared" ref="E255:E277" si="228">E254+(E254/100)</f>
+        <f t="shared" ref="E255:E257" si="231">E254+(E254/100)</f>
         <v>53772.400000000016</v>
       </c>
       <c r="F255">
-        <f t="shared" ref="F255:F277" si="229">F254+(F254/100)</f>
+        <f t="shared" ref="F255:F257" si="232">F254+(F254/100)</f>
         <v>48395.160000000011</v>
       </c>
       <c r="G255">
-        <f t="shared" ref="G255:G277" si="230">G254+(G254/100)</f>
+        <f t="shared" ref="G255:G257" si="233">G254+(G254/100)</f>
         <v>48395.160000000011</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>64</v>
       </c>
       <c r="B256" s="3">
@@ -7224,24 +7358,25 @@
         <v>26</v>
       </c>
       <c r="D256">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>290</v>
       </c>
       <c r="E256">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>54310.124000000018</v>
       </c>
       <c r="F256">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>48879.111600000011</v>
       </c>
       <c r="G256">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>48879.111600000011</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>64</v>
       </c>
       <c r="B257" s="3">
@@ -7251,24 +7386,25 @@
         <v>27</v>
       </c>
       <c r="D257">
-        <v>35</v>
+        <f t="shared" si="181"/>
+        <v>290</v>
       </c>
       <c r="E257">
-        <f t="shared" si="228"/>
+        <f t="shared" si="231"/>
         <v>54853.225240000022</v>
       </c>
       <c r="F257">
-        <f t="shared" si="229"/>
+        <f t="shared" si="232"/>
         <v>49367.902716000011</v>
       </c>
       <c r="G257">
-        <f t="shared" si="230"/>
+        <f t="shared" si="233"/>
         <v>49367.902716000011</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>65</v>
       </c>
       <c r="B258" s="4">
@@ -7278,24 +7414,25 @@
         <v>25</v>
       </c>
       <c r="D258">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>300</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:G258" si="231">E254*1.1</f>
+        <f t="shared" ref="E258:G258" si="234">E254*1.1</f>
         <v>58564.000000000022</v>
       </c>
       <c r="F258">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>52707.600000000013</v>
       </c>
       <c r="G258">
-        <f t="shared" si="231"/>
+        <f t="shared" si="234"/>
         <v>52707.600000000013</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>65</v>
       </c>
       <c r="B259" s="1">
@@ -7305,24 +7442,25 @@
         <v>26</v>
       </c>
       <c r="D259">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>300</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E277" si="232">E258+(E258/100)</f>
+        <f t="shared" ref="E259:E261" si="235">E258+(E258/100)</f>
         <v>59149.640000000021</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F277" si="233">F258+(F258/100)</f>
+        <f t="shared" ref="F259:F261" si="236">F258+(F258/100)</f>
         <v>53234.676000000014</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G277" si="234">G258+(G258/100)</f>
+        <f t="shared" ref="G259:G261" si="237">G258+(G258/100)</f>
         <v>53234.676000000014</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>65</v>
       </c>
       <c r="B260" s="1">
@@ -7332,24 +7470,25 @@
         <v>27</v>
       </c>
       <c r="D260">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>300</v>
       </c>
       <c r="E260">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>59741.136400000025</v>
       </c>
       <c r="F260">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>53767.022760000014</v>
       </c>
       <c r="G260">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>53767.022760000014</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>65</v>
       </c>
       <c r="B261" s="1">
@@ -7359,24 +7498,25 @@
         <v>28</v>
       </c>
       <c r="D261">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>300</v>
       </c>
       <c r="E261">
-        <f t="shared" si="232"/>
+        <f t="shared" si="235"/>
         <v>60338.547764000024</v>
       </c>
       <c r="F261">
-        <f t="shared" si="233"/>
+        <f t="shared" si="236"/>
         <v>54304.692987600014</v>
       </c>
       <c r="G261">
-        <f t="shared" si="234"/>
+        <f t="shared" si="237"/>
         <v>54304.692987600014</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>66</v>
       </c>
       <c r="B262" s="5">
@@ -7386,24 +7526,25 @@
         <v>26</v>
       </c>
       <c r="D262">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>310</v>
       </c>
       <c r="E262">
-        <f t="shared" ref="E262:G262" si="235">E258*1.1</f>
+        <f t="shared" ref="E262:G262" si="238">E258*1.1</f>
         <v>64420.400000000031</v>
       </c>
       <c r="F262">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>57978.360000000022</v>
       </c>
       <c r="G262">
-        <f t="shared" si="235"/>
+        <f t="shared" si="238"/>
         <v>57978.360000000022</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>66</v>
       </c>
       <c r="B263" s="3">
@@ -7413,24 +7554,25 @@
         <v>27</v>
       </c>
       <c r="D263">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>310</v>
       </c>
       <c r="E263">
-        <f t="shared" ref="E263:E277" si="236">E262+(E262/100)</f>
+        <f t="shared" ref="E263:E265" si="239">E262+(E262/100)</f>
         <v>65064.604000000028</v>
       </c>
       <c r="F263">
-        <f t="shared" ref="F263:F277" si="237">F262+(F262/100)</f>
+        <f t="shared" ref="F263:F265" si="240">F262+(F262/100)</f>
         <v>58558.143600000025</v>
       </c>
       <c r="G263">
-        <f t="shared" ref="G263:G277" si="238">G262+(G262/100)</f>
+        <f t="shared" ref="G263:G265" si="241">G262+(G262/100)</f>
         <v>58558.143600000025</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>66</v>
       </c>
       <c r="B264" s="3">
@@ -7440,24 +7582,25 @@
         <v>28</v>
       </c>
       <c r="D264">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>310</v>
       </c>
       <c r="E264">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>65715.250040000028</v>
       </c>
       <c r="F264">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>59143.725036000025</v>
       </c>
       <c r="G264">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>59143.725036000025</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>66</v>
       </c>
       <c r="B265" s="3">
@@ -7467,24 +7610,25 @@
         <v>29</v>
       </c>
       <c r="D265">
-        <v>40</v>
+        <f t="shared" si="181"/>
+        <v>310</v>
       </c>
       <c r="E265">
-        <f t="shared" si="236"/>
+        <f t="shared" si="239"/>
         <v>66372.402540400028</v>
       </c>
       <c r="F265">
-        <f t="shared" si="237"/>
+        <f t="shared" si="240"/>
         <v>59735.162286360028</v>
       </c>
       <c r="G265">
-        <f t="shared" si="238"/>
+        <f t="shared" si="241"/>
         <v>59735.162286360028</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>67</v>
       </c>
       <c r="B266" s="4">
@@ -7494,24 +7638,25 @@
         <v>24</v>
       </c>
       <c r="D266">
-        <v>45</v>
+        <f t="shared" si="181"/>
+        <v>320</v>
       </c>
       <c r="E266">
-        <f t="shared" ref="E266:G266" si="239">E262*1.1</f>
+        <f t="shared" ref="E266:G266" si="242">E262*1.1</f>
         <v>70862.440000000046</v>
       </c>
       <c r="F266">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>63776.196000000033</v>
       </c>
       <c r="G266">
-        <f t="shared" si="239"/>
+        <f t="shared" si="242"/>
         <v>63776.196000000033</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f t="shared" si="182"/>
+        <f t="shared" si="185"/>
         <v>67</v>
       </c>
       <c r="B267" s="1">
@@ -7521,24 +7666,25 @@
         <v>25</v>
       </c>
       <c r="D267">
-        <v>45</v>
+        <f t="shared" ref="D267:D330" si="243">D263+10</f>
+        <v>320</v>
       </c>
       <c r="E267">
-        <f t="shared" ref="E267:E277" si="240">E266+(E266/100)</f>
+        <f t="shared" ref="E267:E269" si="244">E266+(E266/100)</f>
         <v>71571.064400000047</v>
       </c>
       <c r="F267">
-        <f t="shared" ref="F267:F277" si="241">F266+(F266/100)</f>
+        <f t="shared" ref="F267:F269" si="245">F266+(F266/100)</f>
         <v>64413.957960000036</v>
       </c>
       <c r="G267">
-        <f t="shared" ref="G267:G277" si="242">G266+(G266/100)</f>
+        <f t="shared" ref="G267:G269" si="246">G266+(G266/100)</f>
         <v>64413.957960000036</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f t="shared" ref="A268:A331" si="243">A264+1</f>
+        <f t="shared" ref="A268:A331" si="247">A264+1</f>
         <v>67</v>
       </c>
       <c r="B268" s="1">
@@ -7548,24 +7694,25 @@
         <v>26</v>
       </c>
       <c r="D268">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>320</v>
       </c>
       <c r="E268">
-        <f t="shared" si="240"/>
+        <f t="shared" si="244"/>
         <v>72286.775044000053</v>
       </c>
       <c r="F268">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>65058.097539600036</v>
       </c>
       <c r="G268">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>65058.097539600036</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>67</v>
       </c>
       <c r="B269" s="1">
@@ -7575,24 +7722,25 @@
         <v>27</v>
       </c>
       <c r="D269">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>320</v>
       </c>
       <c r="E269">
-        <f t="shared" si="240"/>
+        <f t="shared" si="244"/>
         <v>73009.642794440049</v>
       </c>
       <c r="F269">
-        <f t="shared" si="241"/>
+        <f t="shared" si="245"/>
         <v>65708.678514996034</v>
       </c>
       <c r="G269">
-        <f t="shared" si="242"/>
+        <f t="shared" si="246"/>
         <v>65708.678514996034</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>68</v>
       </c>
       <c r="B270" s="5">
@@ -7602,24 +7750,25 @@
         <v>25</v>
       </c>
       <c r="D270">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>330</v>
       </c>
       <c r="E270">
-        <f t="shared" ref="E270:G270" si="244">E266*1.1</f>
+        <f t="shared" ref="E270:G270" si="248">E266*1.1</f>
         <v>77948.684000000052</v>
       </c>
       <c r="F270">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>70153.815600000045</v>
       </c>
       <c r="G270">
-        <f t="shared" si="244"/>
+        <f t="shared" si="248"/>
         <v>70153.815600000045</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>68</v>
       </c>
       <c r="B271" s="3">
@@ -7629,24 +7778,25 @@
         <v>26</v>
       </c>
       <c r="D271">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>330</v>
       </c>
       <c r="E271">
-        <f t="shared" ref="E271:E277" si="245">E270+(E270/100)</f>
+        <f t="shared" ref="E271:E273" si="249">E270+(E270/100)</f>
         <v>78728.17084000005</v>
       </c>
       <c r="F271">
-        <f t="shared" ref="F271:F277" si="246">F270+(F270/100)</f>
+        <f t="shared" ref="F271:F273" si="250">F270+(F270/100)</f>
         <v>70855.35375600004</v>
       </c>
       <c r="G271">
-        <f t="shared" ref="G271:G277" si="247">G270+(G270/100)</f>
+        <f t="shared" ref="G271:G273" si="251">G270+(G270/100)</f>
         <v>70855.35375600004</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>68</v>
       </c>
       <c r="B272" s="3">
@@ -7656,24 +7806,25 @@
         <v>27</v>
       </c>
       <c r="D272">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>330</v>
       </c>
       <c r="E272">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>79515.452548400048</v>
       </c>
       <c r="F272">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>71563.907293560042</v>
       </c>
       <c r="G272">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>71563.907293560042</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>68</v>
       </c>
       <c r="B273" s="3">
@@ -7683,18 +7834,19 @@
         <v>28</v>
       </c>
       <c r="D273">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>330</v>
       </c>
       <c r="E273">
-        <f t="shared" si="245"/>
+        <f t="shared" si="249"/>
         <v>80310.60707388405</v>
       </c>
       <c r="F273">
-        <f t="shared" si="246"/>
+        <f t="shared" si="250"/>
         <v>72279.546366495648</v>
       </c>
       <c r="G273">
-        <f t="shared" si="247"/>
+        <f t="shared" si="251"/>
         <v>72279.546366495648</v>
       </c>
     </row>
@@ -7710,24 +7862,25 @@
         <v>26</v>
       </c>
       <c r="D274">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>340</v>
       </c>
       <c r="E274">
-        <f t="shared" ref="E274:G274" si="248">E270*1.1</f>
+        <f t="shared" ref="E274:G274" si="252">E270*1.1</f>
         <v>85743.552400000059</v>
       </c>
       <c r="F274">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>77169.197160000054</v>
       </c>
       <c r="G274">
-        <f t="shared" si="248"/>
+        <f t="shared" si="252"/>
         <v>77169.197160000054</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>69</v>
       </c>
       <c r="B275" s="1">
@@ -7737,24 +7890,25 @@
         <v>27</v>
       </c>
       <c r="D275">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>340</v>
       </c>
       <c r="E275">
-        <f t="shared" ref="E275:E277" si="249">E274+(E274/100)</f>
+        <f t="shared" ref="E275:E277" si="253">E274+(E274/100)</f>
         <v>86600.987924000059</v>
       </c>
       <c r="F275">
-        <f t="shared" ref="F275:F277" si="250">F274+(F274/100)</f>
+        <f t="shared" ref="F275:F277" si="254">F274+(F274/100)</f>
         <v>77940.889131600052</v>
       </c>
       <c r="G275">
-        <f t="shared" ref="G275:G277" si="251">G274+(G274/100)</f>
+        <f t="shared" ref="G275:G277" si="255">G274+(G274/100)</f>
         <v>77940.889131600052</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>69</v>
       </c>
       <c r="B276" s="1">
@@ -7764,24 +7918,25 @@
         <v>28</v>
       </c>
       <c r="D276">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>340</v>
       </c>
       <c r="E276">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>87466.997803240054</v>
       </c>
       <c r="F276">
-        <f t="shared" si="250"/>
+        <f t="shared" si="254"/>
         <v>78720.298022916046</v>
       </c>
       <c r="G276">
-        <f t="shared" si="251"/>
+        <f t="shared" si="255"/>
         <v>78720.298022916046</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>69</v>
       </c>
       <c r="B277" s="1">
@@ -7791,18 +7946,19 @@
         <v>29</v>
       </c>
       <c r="D277">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>340</v>
       </c>
       <c r="E277">
-        <f t="shared" si="249"/>
+        <f t="shared" si="253"/>
         <v>88341.667781272452</v>
       </c>
       <c r="F277">
-        <f t="shared" si="250"/>
+        <f t="shared" si="254"/>
         <v>79507.501003145211</v>
       </c>
       <c r="G277">
-        <f t="shared" si="251"/>
+        <f t="shared" si="255"/>
         <v>79507.501003145211</v>
       </c>
     </row>
@@ -7819,7 +7975,8 @@
         <v>36</v>
       </c>
       <c r="D278">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>350</v>
       </c>
       <c r="E278">
         <v>90000</v>
@@ -7833,18 +7990,19 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
+        <f t="shared" si="247"/>
+        <v>70</v>
+      </c>
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ref="C279:C281" si="256">C239+3</f>
+        <v>36</v>
+      </c>
+      <c r="D279">
         <f t="shared" si="243"/>
-        <v>70</v>
-      </c>
-      <c r="B279" s="2">
-        <v>1</v>
-      </c>
-      <c r="C279">
-        <f t="shared" ref="C279:C281" si="252">C239+3</f>
-        <v>36</v>
-      </c>
-      <c r="D279">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="E279">
         <v>90000</v>
@@ -7858,18 +8016,19 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
+        <f t="shared" si="247"/>
+        <v>70</v>
+      </c>
+      <c r="B280" s="2">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="256"/>
+        <v>36</v>
+      </c>
+      <c r="D280">
         <f t="shared" si="243"/>
-        <v>70</v>
-      </c>
-      <c r="B280" s="2">
-        <v>2</v>
-      </c>
-      <c r="C280">
-        <f t="shared" si="252"/>
-        <v>36</v>
-      </c>
-      <c r="D280">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="E280">
         <v>90000</v>
@@ -7883,18 +8042,19 @@
     </row>
     <row r="281" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
+        <f t="shared" si="247"/>
+        <v>70</v>
+      </c>
+      <c r="B281" s="2">
+        <v>3</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="256"/>
+        <v>36</v>
+      </c>
+      <c r="D281">
         <f t="shared" si="243"/>
-        <v>70</v>
-      </c>
-      <c r="B281" s="2">
-        <v>3</v>
-      </c>
-      <c r="C281">
-        <f t="shared" si="252"/>
-        <v>36</v>
-      </c>
-      <c r="D281">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="E281">
         <v>90000</v>
@@ -7908,7 +8068,7 @@
     </row>
     <row r="282" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>71</v>
       </c>
       <c r="B282" s="4">
@@ -7918,7 +8078,8 @@
         <v>24</v>
       </c>
       <c r="D282">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>360</v>
       </c>
       <c r="E282">
         <v>90000</v>
@@ -7932,7 +8093,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>71</v>
       </c>
       <c r="B283" s="1">
@@ -7942,24 +8103,25 @@
         <v>25</v>
       </c>
       <c r="D283">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>360</v>
       </c>
       <c r="E283">
-        <f t="shared" ref="E283:E285" si="253">E282+(E282/100)</f>
+        <f t="shared" ref="E283:E285" si="257">E282+(E282/100)</f>
         <v>90900</v>
       </c>
       <c r="F283">
-        <f t="shared" ref="F283:F285" si="254">F282+(F282/100)</f>
+        <f t="shared" ref="F283:F285" si="258">F282+(F282/100)</f>
         <v>80800</v>
       </c>
       <c r="G283">
-        <f t="shared" ref="G283:G285" si="255">G282+(G282/100)</f>
+        <f t="shared" ref="G283:G285" si="259">G282+(G282/100)</f>
         <v>80800</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>71</v>
       </c>
       <c r="B284" s="1">
@@ -7969,24 +8131,25 @@
         <v>26</v>
       </c>
       <c r="D284">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>360</v>
       </c>
       <c r="E284">
-        <f t="shared" si="253"/>
+        <f t="shared" si="257"/>
         <v>91809</v>
       </c>
       <c r="F284">
-        <f t="shared" si="254"/>
+        <f t="shared" si="258"/>
         <v>81608</v>
       </c>
       <c r="G284">
-        <f t="shared" si="255"/>
+        <f t="shared" si="259"/>
         <v>81608</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>71</v>
       </c>
       <c r="B285" s="1">
@@ -7996,24 +8159,25 @@
         <v>27</v>
       </c>
       <c r="D285">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>360</v>
       </c>
       <c r="E285">
-        <f t="shared" si="253"/>
+        <f t="shared" si="257"/>
         <v>92727.09</v>
       </c>
       <c r="F285">
-        <f t="shared" si="254"/>
+        <f t="shared" si="258"/>
         <v>82424.08</v>
       </c>
       <c r="G285">
-        <f t="shared" si="255"/>
+        <f t="shared" si="259"/>
         <v>82424.08</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>72</v>
       </c>
       <c r="B286" s="5">
@@ -8023,24 +8187,25 @@
         <v>25</v>
       </c>
       <c r="D286">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>370</v>
       </c>
       <c r="E286">
-        <f t="shared" ref="E286:G286" si="256">E282*1.1</f>
+        <f t="shared" ref="E286:G286" si="260">E282*1.1</f>
         <v>99000.000000000015</v>
       </c>
       <c r="F286">
-        <f t="shared" si="256"/>
+        <f t="shared" si="260"/>
         <v>88000</v>
       </c>
       <c r="G286">
-        <f t="shared" si="256"/>
+        <f t="shared" si="260"/>
         <v>88000</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>72</v>
       </c>
       <c r="B287" s="3">
@@ -8050,24 +8215,25 @@
         <v>26</v>
       </c>
       <c r="D287">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>370</v>
       </c>
       <c r="E287">
-        <f t="shared" ref="E287:E289" si="257">E286+(E286/100)</f>
+        <f t="shared" ref="E287:E289" si="261">E286+(E286/100)</f>
         <v>99990.000000000015</v>
       </c>
       <c r="F287">
-        <f t="shared" ref="F287:F289" si="258">F286+(F286/100)</f>
+        <f t="shared" ref="F287:F289" si="262">F286+(F286/100)</f>
         <v>88880</v>
       </c>
       <c r="G287">
-        <f t="shared" ref="G287:G289" si="259">G286+(G286/100)</f>
+        <f t="shared" ref="G287:G289" si="263">G286+(G286/100)</f>
         <v>88880</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>72</v>
       </c>
       <c r="B288" s="3">
@@ -8077,24 +8243,25 @@
         <v>27</v>
       </c>
       <c r="D288">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>370</v>
       </c>
       <c r="E288">
-        <f t="shared" si="257"/>
+        <f t="shared" si="261"/>
         <v>100989.90000000001</v>
       </c>
       <c r="F288">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>89768.8</v>
       </c>
       <c r="G288">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>89768.8</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>72</v>
       </c>
       <c r="B289" s="3">
@@ -8104,24 +8271,25 @@
         <v>28</v>
       </c>
       <c r="D289">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>370</v>
       </c>
       <c r="E289">
-        <f t="shared" si="257"/>
+        <f t="shared" si="261"/>
         <v>101999.79900000001</v>
       </c>
       <c r="F289">
-        <f t="shared" si="258"/>
+        <f t="shared" si="262"/>
         <v>90666.487999999998</v>
       </c>
       <c r="G289">
-        <f t="shared" si="259"/>
+        <f t="shared" si="263"/>
         <v>90666.487999999998</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>73</v>
       </c>
       <c r="B290" s="4">
@@ -8131,24 +8299,25 @@
         <v>26</v>
       </c>
       <c r="D290">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>380</v>
       </c>
       <c r="E290">
-        <f t="shared" ref="E290:G290" si="260">E286*1.1</f>
+        <f t="shared" ref="E290:G290" si="264">E286*1.1</f>
         <v>108900.00000000003</v>
       </c>
       <c r="F290">
-        <f t="shared" si="260"/>
+        <f t="shared" si="264"/>
         <v>96800.000000000015</v>
       </c>
       <c r="G290">
-        <f t="shared" si="260"/>
+        <f t="shared" si="264"/>
         <v>96800.000000000015</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>73</v>
       </c>
       <c r="B291" s="1">
@@ -8158,24 +8327,25 @@
         <v>27</v>
       </c>
       <c r="D291">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>380</v>
       </c>
       <c r="E291">
-        <f t="shared" ref="E291:E317" si="261">E290+(E290/100)</f>
+        <f t="shared" ref="E291:E293" si="265">E290+(E290/100)</f>
         <v>109989.00000000003</v>
       </c>
       <c r="F291">
-        <f t="shared" ref="F291:F317" si="262">F290+(F290/100)</f>
+        <f t="shared" ref="F291:F293" si="266">F290+(F290/100)</f>
         <v>97768.000000000015</v>
       </c>
       <c r="G291">
-        <f t="shared" ref="G291:G317" si="263">G290+(G290/100)</f>
+        <f t="shared" ref="G291:G293" si="267">G290+(G290/100)</f>
         <v>97768.000000000015</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>73</v>
       </c>
       <c r="B292" s="1">
@@ -8185,24 +8355,25 @@
         <v>28</v>
       </c>
       <c r="D292">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>380</v>
       </c>
       <c r="E292">
-        <f t="shared" si="261"/>
+        <f t="shared" si="265"/>
         <v>111088.89000000003</v>
       </c>
       <c r="F292">
-        <f t="shared" si="262"/>
+        <f t="shared" si="266"/>
         <v>98745.680000000008</v>
       </c>
       <c r="G292">
-        <f t="shared" si="263"/>
+        <f t="shared" si="267"/>
         <v>98745.680000000008</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>73</v>
       </c>
       <c r="B293" s="1">
@@ -8212,24 +8383,25 @@
         <v>29</v>
       </c>
       <c r="D293">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>380</v>
       </c>
       <c r="E293">
-        <f t="shared" si="261"/>
+        <f t="shared" si="265"/>
         <v>112199.77890000003</v>
       </c>
       <c r="F293">
-        <f t="shared" si="262"/>
+        <f t="shared" si="266"/>
         <v>99733.136800000007</v>
       </c>
       <c r="G293">
-        <f t="shared" si="263"/>
+        <f t="shared" si="267"/>
         <v>99733.136800000007</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>74</v>
       </c>
       <c r="B294" s="5">
@@ -8239,24 +8411,25 @@
         <v>24</v>
       </c>
       <c r="D294">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>390</v>
       </c>
       <c r="E294">
-        <f t="shared" ref="E294:G294" si="264">E290*1.1</f>
+        <f t="shared" ref="E294:G294" si="268">E290*1.1</f>
         <v>119790.00000000004</v>
       </c>
       <c r="F294">
-        <f t="shared" si="264"/>
+        <f t="shared" si="268"/>
         <v>106480.00000000003</v>
       </c>
       <c r="G294">
-        <f t="shared" si="264"/>
+        <f t="shared" si="268"/>
         <v>106480.00000000003</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>74</v>
       </c>
       <c r="B295" s="3">
@@ -8266,24 +8439,25 @@
         <v>25</v>
       </c>
       <c r="D295">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>390</v>
       </c>
       <c r="E295">
-        <f t="shared" ref="E295:E317" si="265">E294+(E294/100)</f>
+        <f t="shared" ref="E295:E297" si="269">E294+(E294/100)</f>
         <v>120987.90000000004</v>
       </c>
       <c r="F295">
-        <f t="shared" ref="F295:F317" si="266">F294+(F294/100)</f>
+        <f t="shared" ref="F295:F297" si="270">F294+(F294/100)</f>
         <v>107544.80000000003</v>
       </c>
       <c r="G295">
-        <f t="shared" ref="G295:G317" si="267">G294+(G294/100)</f>
+        <f t="shared" ref="G295:G297" si="271">G294+(G294/100)</f>
         <v>107544.80000000003</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>74</v>
       </c>
       <c r="B296" s="3">
@@ -8293,24 +8467,25 @@
         <v>26</v>
       </c>
       <c r="D296">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>390</v>
       </c>
       <c r="E296">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>122197.77900000004</v>
       </c>
       <c r="F296">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>108620.24800000004</v>
       </c>
       <c r="G296">
-        <f t="shared" si="267"/>
+        <f t="shared" si="271"/>
         <v>108620.24800000004</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>74</v>
       </c>
       <c r="B297" s="3">
@@ -8320,24 +8495,25 @@
         <v>27</v>
       </c>
       <c r="D297">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>390</v>
       </c>
       <c r="E297">
-        <f t="shared" si="265"/>
+        <f t="shared" si="269"/>
         <v>123419.75679000004</v>
       </c>
       <c r="F297">
-        <f t="shared" si="266"/>
+        <f t="shared" si="270"/>
         <v>109706.45048000004</v>
       </c>
       <c r="G297">
-        <f t="shared" si="267"/>
+        <f t="shared" si="271"/>
         <v>109706.45048000004</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>75</v>
       </c>
       <c r="B298" s="4">
@@ -8347,24 +8523,25 @@
         <v>25</v>
       </c>
       <c r="D298">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>400</v>
       </c>
       <c r="E298">
-        <f t="shared" ref="E298:G298" si="268">E294*1.1</f>
+        <f t="shared" ref="E298:G298" si="272">E294*1.1</f>
         <v>131769.00000000006</v>
       </c>
       <c r="F298">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>117128.00000000004</v>
       </c>
       <c r="G298">
-        <f t="shared" si="268"/>
+        <f t="shared" si="272"/>
         <v>117128.00000000004</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>75</v>
       </c>
       <c r="B299" s="1">
@@ -8374,24 +8551,25 @@
         <v>26</v>
       </c>
       <c r="D299">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>400</v>
       </c>
       <c r="E299">
-        <f t="shared" ref="E299:E317" si="269">E298+(E298/100)</f>
+        <f t="shared" ref="E299:E301" si="273">E298+(E298/100)</f>
         <v>133086.69000000006</v>
       </c>
       <c r="F299">
-        <f t="shared" ref="F299:F317" si="270">F298+(F298/100)</f>
+        <f t="shared" ref="F299:F301" si="274">F298+(F298/100)</f>
         <v>118299.28000000004</v>
       </c>
       <c r="G299">
-        <f t="shared" ref="G299:G317" si="271">G298+(G298/100)</f>
+        <f t="shared" ref="G299:G301" si="275">G298+(G298/100)</f>
         <v>118299.28000000004</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>75</v>
       </c>
       <c r="B300" s="1">
@@ -8401,24 +8579,25 @@
         <v>27</v>
       </c>
       <c r="D300">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>400</v>
       </c>
       <c r="E300">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>134417.55690000005</v>
       </c>
       <c r="F300">
-        <f t="shared" si="270"/>
+        <f t="shared" si="274"/>
         <v>119482.27280000005</v>
       </c>
       <c r="G300">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>119482.27280000005</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>75</v>
       </c>
       <c r="B301" s="1">
@@ -8428,24 +8607,25 @@
         <v>28</v>
       </c>
       <c r="D301">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>400</v>
       </c>
       <c r="E301">
-        <f t="shared" si="269"/>
+        <f t="shared" si="273"/>
         <v>135761.73246900007</v>
       </c>
       <c r="F301">
-        <f t="shared" si="270"/>
+        <f t="shared" si="274"/>
         <v>120677.09552800005</v>
       </c>
       <c r="G301">
-        <f t="shared" si="271"/>
+        <f t="shared" si="275"/>
         <v>120677.09552800005</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>76</v>
       </c>
       <c r="B302" s="5">
@@ -8455,24 +8635,25 @@
         <v>26</v>
       </c>
       <c r="D302">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>410</v>
       </c>
       <c r="E302">
-        <f t="shared" ref="E302:G302" si="272">E298*1.1</f>
+        <f t="shared" ref="E302:G302" si="276">E298*1.1</f>
         <v>144945.90000000008</v>
       </c>
       <c r="F302">
-        <f t="shared" si="272"/>
+        <f t="shared" si="276"/>
         <v>128840.80000000006</v>
       </c>
       <c r="G302">
-        <f t="shared" si="272"/>
+        <f t="shared" si="276"/>
         <v>128840.80000000006</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>76</v>
       </c>
       <c r="B303" s="3">
@@ -8482,24 +8663,25 @@
         <v>27</v>
       </c>
       <c r="D303">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>410</v>
       </c>
       <c r="E303">
-        <f t="shared" ref="E303:E317" si="273">E302+(E302/100)</f>
+        <f t="shared" ref="E303:E305" si="277">E302+(E302/100)</f>
         <v>146395.35900000008</v>
       </c>
       <c r="F303">
-        <f t="shared" ref="F303:F317" si="274">F302+(F302/100)</f>
+        <f t="shared" ref="F303:F305" si="278">F302+(F302/100)</f>
         <v>130129.20800000006</v>
       </c>
       <c r="G303">
-        <f t="shared" ref="G303:G317" si="275">G302+(G302/100)</f>
+        <f t="shared" ref="G303:G305" si="279">G302+(G302/100)</f>
         <v>130129.20800000006</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>76</v>
       </c>
       <c r="B304" s="3">
@@ -8509,24 +8691,25 @@
         <v>28</v>
       </c>
       <c r="D304">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>410</v>
       </c>
       <c r="E304">
-        <f t="shared" si="273"/>
+        <f t="shared" si="277"/>
         <v>147859.31259000007</v>
       </c>
       <c r="F304">
-        <f t="shared" si="274"/>
+        <f t="shared" si="278"/>
         <v>131430.50008000006</v>
       </c>
       <c r="G304">
-        <f t="shared" si="275"/>
+        <f t="shared" si="279"/>
         <v>131430.50008000006</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>76</v>
       </c>
       <c r="B305" s="3">
@@ -8536,24 +8719,25 @@
         <v>29</v>
       </c>
       <c r="D305">
-        <v>40</v>
+        <f t="shared" si="243"/>
+        <v>410</v>
       </c>
       <c r="E305">
-        <f t="shared" si="273"/>
+        <f t="shared" si="277"/>
         <v>149337.90571590007</v>
       </c>
       <c r="F305">
-        <f t="shared" si="274"/>
+        <f t="shared" si="278"/>
         <v>132744.80508080006</v>
       </c>
       <c r="G305">
-        <f t="shared" si="275"/>
+        <f t="shared" si="279"/>
         <v>132744.80508080006</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>77</v>
       </c>
       <c r="B306" s="4">
@@ -8563,24 +8747,25 @@
         <v>24</v>
       </c>
       <c r="D306">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>420</v>
       </c>
       <c r="E306">
-        <f t="shared" ref="E306:G306" si="276">E302*1.1</f>
+        <f t="shared" ref="E306:G306" si="280">E302*1.1</f>
         <v>159440.49000000011</v>
       </c>
       <c r="F306">
-        <f t="shared" si="276"/>
+        <f t="shared" si="280"/>
         <v>141724.88000000009</v>
       </c>
       <c r="G306">
-        <f t="shared" si="276"/>
+        <f t="shared" si="280"/>
         <v>141724.88000000009</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>77</v>
       </c>
       <c r="B307" s="1">
@@ -8590,24 +8775,25 @@
         <v>25</v>
       </c>
       <c r="D307">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>420</v>
       </c>
       <c r="E307">
-        <f t="shared" ref="E307:E317" si="277">E306+(E306/100)</f>
+        <f t="shared" ref="E307:E309" si="281">E306+(E306/100)</f>
         <v>161034.8949000001</v>
       </c>
       <c r="F307">
-        <f t="shared" ref="F307:F317" si="278">F306+(F306/100)</f>
+        <f t="shared" ref="F307:F309" si="282">F306+(F306/100)</f>
         <v>143142.12880000009</v>
       </c>
       <c r="G307">
-        <f t="shared" ref="G307:G317" si="279">G306+(G306/100)</f>
+        <f t="shared" ref="G307:G309" si="283">G306+(G306/100)</f>
         <v>143142.12880000009</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>77</v>
       </c>
       <c r="B308" s="1">
@@ -8617,24 +8803,25 @@
         <v>26</v>
       </c>
       <c r="D308">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>420</v>
       </c>
       <c r="E308">
-        <f t="shared" si="277"/>
+        <f t="shared" si="281"/>
         <v>162645.24384900011</v>
       </c>
       <c r="F308">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>144573.55008800011</v>
       </c>
       <c r="G308">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>144573.55008800011</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>77</v>
       </c>
       <c r="B309" s="1">
@@ -8644,24 +8831,25 @@
         <v>27</v>
       </c>
       <c r="D309">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>420</v>
       </c>
       <c r="E309">
-        <f t="shared" si="277"/>
+        <f t="shared" si="281"/>
         <v>164271.69628749011</v>
       </c>
       <c r="F309">
-        <f t="shared" si="278"/>
+        <f t="shared" si="282"/>
         <v>146019.2855888801</v>
       </c>
       <c r="G309">
-        <f t="shared" si="279"/>
+        <f t="shared" si="283"/>
         <v>146019.2855888801</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>78</v>
       </c>
       <c r="B310" s="5">
@@ -8671,24 +8859,25 @@
         <v>25</v>
       </c>
       <c r="D310">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>430</v>
       </c>
       <c r="E310">
-        <f t="shared" ref="E310:G310" si="280">E306*1.1</f>
+        <f t="shared" ref="E310:G310" si="284">E306*1.1</f>
         <v>175384.53900000014</v>
       </c>
       <c r="F310">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>155897.3680000001</v>
       </c>
       <c r="G310">
-        <f t="shared" si="280"/>
+        <f t="shared" si="284"/>
         <v>155897.3680000001</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>78</v>
       </c>
       <c r="B311" s="3">
@@ -8698,24 +8887,25 @@
         <v>26</v>
       </c>
       <c r="D311">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>430</v>
       </c>
       <c r="E311">
-        <f t="shared" ref="E311:E317" si="281">E310+(E310/100)</f>
+        <f t="shared" ref="E311:E313" si="285">E310+(E310/100)</f>
         <v>177138.38439000014</v>
       </c>
       <c r="F311">
-        <f t="shared" ref="F311:F317" si="282">F310+(F310/100)</f>
+        <f t="shared" ref="F311:F313" si="286">F310+(F310/100)</f>
         <v>157456.3416800001</v>
       </c>
       <c r="G311">
-        <f t="shared" ref="G311:G317" si="283">G310+(G310/100)</f>
+        <f t="shared" ref="G311:G313" si="287">G310+(G310/100)</f>
         <v>157456.3416800001</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>78</v>
       </c>
       <c r="B312" s="3">
@@ -8725,24 +8915,25 @@
         <v>27</v>
       </c>
       <c r="D312">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>430</v>
       </c>
       <c r="E312">
-        <f t="shared" si="281"/>
+        <f t="shared" si="285"/>
         <v>178909.76823390013</v>
       </c>
       <c r="F312">
-        <f t="shared" si="282"/>
+        <f t="shared" si="286"/>
         <v>159030.9050968001</v>
       </c>
       <c r="G312">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>159030.9050968001</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>78</v>
       </c>
       <c r="B313" s="3">
@@ -8752,18 +8943,19 @@
         <v>28</v>
       </c>
       <c r="D313">
-        <v>45</v>
+        <f t="shared" si="243"/>
+        <v>430</v>
       </c>
       <c r="E313">
-        <f t="shared" si="281"/>
+        <f t="shared" si="285"/>
         <v>180698.86591623913</v>
       </c>
       <c r="F313">
-        <f t="shared" si="282"/>
+        <f t="shared" si="286"/>
         <v>160621.2141477681</v>
       </c>
       <c r="G313">
-        <f t="shared" si="283"/>
+        <f t="shared" si="287"/>
         <v>160621.2141477681</v>
       </c>
     </row>
@@ -8779,24 +8971,25 @@
         <v>26</v>
       </c>
       <c r="D314">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>440</v>
       </c>
       <c r="E314">
-        <f t="shared" ref="E314:G314" si="284">E310*1.1</f>
+        <f t="shared" ref="E314:G314" si="288">E310*1.1</f>
         <v>192922.99290000016</v>
       </c>
       <c r="F314">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>171487.10480000012</v>
       </c>
       <c r="G314">
-        <f t="shared" si="284"/>
+        <f t="shared" si="288"/>
         <v>171487.10480000012</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>79</v>
       </c>
       <c r="B315" s="1">
@@ -8806,24 +8999,25 @@
         <v>27</v>
       </c>
       <c r="D315">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>440</v>
       </c>
       <c r="E315">
-        <f t="shared" ref="E315:E317" si="285">E314+(E314/100)</f>
+        <f t="shared" ref="E315:E317" si="289">E314+(E314/100)</f>
         <v>194852.22282900015</v>
       </c>
       <c r="F315">
-        <f t="shared" ref="F315:F317" si="286">F314+(F314/100)</f>
+        <f t="shared" ref="F315:F317" si="290">F314+(F314/100)</f>
         <v>173201.97584800012</v>
       </c>
       <c r="G315">
-        <f t="shared" ref="G315:G317" si="287">G314+(G314/100)</f>
+        <f t="shared" ref="G315:G317" si="291">G314+(G314/100)</f>
         <v>173201.97584800012</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>79</v>
       </c>
       <c r="B316" s="1">
@@ -8833,24 +9027,25 @@
         <v>28</v>
       </c>
       <c r="D316">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>440</v>
       </c>
       <c r="E316">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>196800.74505729016</v>
       </c>
       <c r="F316">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>174933.99560648011</v>
       </c>
       <c r="G316">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>174933.99560648011</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>79</v>
       </c>
       <c r="B317" s="1">
@@ -8860,18 +9055,19 @@
         <v>29</v>
       </c>
       <c r="D317">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>440</v>
       </c>
       <c r="E317">
-        <f t="shared" si="285"/>
+        <f t="shared" si="289"/>
         <v>198768.75250786307</v>
       </c>
       <c r="F317">
-        <f t="shared" si="286"/>
+        <f t="shared" si="290"/>
         <v>176683.3355625449</v>
       </c>
       <c r="G317">
-        <f t="shared" si="287"/>
+        <f t="shared" si="291"/>
         <v>176683.3355625449</v>
       </c>
     </row>
@@ -8888,7 +9084,8 @@
         <v>39</v>
       </c>
       <c r="D318">
-        <v>50</v>
+        <f t="shared" si="243"/>
+        <v>450</v>
       </c>
       <c r="E318">
         <v>200000</v>
@@ -8902,18 +9099,19 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
+        <f t="shared" si="247"/>
+        <v>80</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <f t="shared" ref="C319:C321" si="292">C279+3</f>
+        <v>39</v>
+      </c>
+      <c r="D319">
         <f t="shared" si="243"/>
-        <v>80</v>
-      </c>
-      <c r="B319" s="2">
-        <v>1</v>
-      </c>
-      <c r="C319">
-        <f t="shared" ref="C319:C321" si="288">C279+3</f>
-        <v>39</v>
-      </c>
-      <c r="D319">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E319">
         <v>200000</v>
@@ -8927,18 +9125,19 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
+        <f t="shared" si="247"/>
+        <v>80</v>
+      </c>
+      <c r="B320" s="2">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="292"/>
+        <v>39</v>
+      </c>
+      <c r="D320">
         <f t="shared" si="243"/>
-        <v>80</v>
-      </c>
-      <c r="B320" s="2">
-        <v>2</v>
-      </c>
-      <c r="C320">
-        <f t="shared" si="288"/>
-        <v>39</v>
-      </c>
-      <c r="D320">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E320">
         <v>200000</v>
@@ -8952,18 +9151,19 @@
     </row>
     <row r="321" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
+        <f t="shared" si="247"/>
+        <v>80</v>
+      </c>
+      <c r="B321" s="2">
+        <v>3</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="292"/>
+        <v>39</v>
+      </c>
+      <c r="D321">
         <f t="shared" si="243"/>
-        <v>80</v>
-      </c>
-      <c r="B321" s="2">
-        <v>3</v>
-      </c>
-      <c r="C321">
-        <f t="shared" si="288"/>
-        <v>39</v>
-      </c>
-      <c r="D321">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="E321">
         <v>200000</v>
@@ -8977,7 +9177,7 @@
     </row>
     <row r="322" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>81</v>
       </c>
       <c r="B322" s="4">
@@ -8987,7 +9187,8 @@
         <v>24</v>
       </c>
       <c r="D322">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>460</v>
       </c>
       <c r="E322">
         <v>200000</v>
@@ -9001,7 +9202,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>81</v>
       </c>
       <c r="B323" s="1">
@@ -9011,24 +9212,25 @@
         <v>25</v>
       </c>
       <c r="D323">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>460</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E325" si="289">E322+(E322/100)</f>
+        <f t="shared" ref="E323:E325" si="293">E322+(E322/100)</f>
         <v>202000</v>
       </c>
       <c r="F323">
-        <f t="shared" ref="F323:F325" si="290">F322+(F322/100)</f>
+        <f t="shared" ref="F323:F325" si="294">F322+(F322/100)</f>
         <v>181800</v>
       </c>
       <c r="G323">
-        <f t="shared" ref="G323:G325" si="291">G322+(G322/100)</f>
+        <f t="shared" ref="G323:G325" si="295">G322+(G322/100)</f>
         <v>181800</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>81</v>
       </c>
       <c r="B324" s="1">
@@ -9038,24 +9240,25 @@
         <v>26</v>
       </c>
       <c r="D324">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>460</v>
       </c>
       <c r="E324">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>204020</v>
       </c>
       <c r="F324">
-        <f t="shared" si="290"/>
+        <f t="shared" si="294"/>
         <v>183618</v>
       </c>
       <c r="G324">
-        <f t="shared" si="291"/>
+        <f t="shared" si="295"/>
         <v>183618</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>81</v>
       </c>
       <c r="B325" s="1">
@@ -9065,24 +9268,25 @@
         <v>27</v>
       </c>
       <c r="D325">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>460</v>
       </c>
       <c r="E325">
-        <f t="shared" si="289"/>
+        <f t="shared" si="293"/>
         <v>206060.2</v>
       </c>
       <c r="F325">
-        <f t="shared" si="290"/>
+        <f t="shared" si="294"/>
         <v>185454.18</v>
       </c>
       <c r="G325">
-        <f t="shared" si="291"/>
+        <f t="shared" si="295"/>
         <v>185454.18</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>82</v>
       </c>
       <c r="B326" s="5">
@@ -9092,24 +9296,25 @@
         <v>25</v>
       </c>
       <c r="D326">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>470</v>
       </c>
       <c r="E326">
-        <f t="shared" ref="E326:G326" si="292">E322*1.1</f>
+        <f t="shared" ref="E326:G326" si="296">E322*1.1</f>
         <v>220000.00000000003</v>
       </c>
       <c r="F326">
-        <f t="shared" si="292"/>
+        <f t="shared" si="296"/>
         <v>198000.00000000003</v>
       </c>
       <c r="G326">
-        <f t="shared" si="292"/>
+        <f t="shared" si="296"/>
         <v>198000.00000000003</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>82</v>
       </c>
       <c r="B327" s="3">
@@ -9119,24 +9324,25 @@
         <v>26</v>
       </c>
       <c r="D327">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>470</v>
       </c>
       <c r="E327">
-        <f t="shared" ref="E327:E329" si="293">E326+(E326/100)</f>
+        <f t="shared" ref="E327:E329" si="297">E326+(E326/100)</f>
         <v>222200.00000000003</v>
       </c>
       <c r="F327">
-        <f t="shared" ref="F327:F329" si="294">F326+(F326/100)</f>
+        <f t="shared" ref="F327:F329" si="298">F326+(F326/100)</f>
         <v>199980.00000000003</v>
       </c>
       <c r="G327">
-        <f t="shared" ref="G327:G329" si="295">G326+(G326/100)</f>
+        <f t="shared" ref="G327:G329" si="299">G326+(G326/100)</f>
         <v>199980.00000000003</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>82</v>
       </c>
       <c r="B328" s="3">
@@ -9146,24 +9352,25 @@
         <v>27</v>
       </c>
       <c r="D328">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>470</v>
       </c>
       <c r="E328">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>224422.00000000003</v>
       </c>
       <c r="F328">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>201979.80000000002</v>
       </c>
       <c r="G328">
-        <f t="shared" si="295"/>
+        <f t="shared" si="299"/>
         <v>201979.80000000002</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>82</v>
       </c>
       <c r="B329" s="3">
@@ -9173,24 +9380,25 @@
         <v>28</v>
       </c>
       <c r="D329">
-        <v>30</v>
+        <f t="shared" si="243"/>
+        <v>470</v>
       </c>
       <c r="E329">
-        <f t="shared" si="293"/>
+        <f t="shared" si="297"/>
         <v>226666.22000000003</v>
       </c>
       <c r="F329">
-        <f t="shared" si="294"/>
+        <f t="shared" si="298"/>
         <v>203999.59800000003</v>
       </c>
       <c r="G329">
-        <f t="shared" si="295"/>
+        <f t="shared" si="299"/>
         <v>203999.59800000003</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>83</v>
       </c>
       <c r="B330" s="4">
@@ -9200,24 +9408,25 @@
         <v>26</v>
       </c>
       <c r="D330">
-        <v>35</v>
+        <f t="shared" si="243"/>
+        <v>480</v>
       </c>
       <c r="E330">
-        <f t="shared" ref="E330:G330" si="296">E326*1.1</f>
+        <f t="shared" ref="E330:G330" si="300">E326*1.1</f>
         <v>242000.00000000006</v>
       </c>
       <c r="F330">
-        <f t="shared" si="296"/>
+        <f t="shared" si="300"/>
         <v>217800.00000000006</v>
       </c>
       <c r="G330">
-        <f t="shared" si="296"/>
+        <f t="shared" si="300"/>
         <v>217800.00000000006</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f t="shared" si="243"/>
+        <f t="shared" si="247"/>
         <v>83</v>
       </c>
       <c r="B331" s="1">
@@ -9227,24 +9436,25 @@
         <v>27</v>
       </c>
       <c r="D331">
-        <v>35</v>
+        <f t="shared" ref="D331:D394" si="301">D327+10</f>
+        <v>480</v>
       </c>
       <c r="E331">
-        <f t="shared" ref="E331:E357" si="297">E330+(E330/100)</f>
+        <f t="shared" ref="E331:E333" si="302">E330+(E330/100)</f>
         <v>244420.00000000006</v>
       </c>
       <c r="F331">
-        <f t="shared" ref="F331:F357" si="298">F330+(F330/100)</f>
+        <f t="shared" ref="F331:F333" si="303">F330+(F330/100)</f>
         <v>219978.00000000006</v>
       </c>
       <c r="G331">
-        <f t="shared" ref="G331:G357" si="299">G330+(G330/100)</f>
+        <f t="shared" ref="G331:G333" si="304">G330+(G330/100)</f>
         <v>219978.00000000006</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f t="shared" ref="A332:A395" si="300">A328+1</f>
+        <f t="shared" ref="A332:A395" si="305">A328+1</f>
         <v>83</v>
       </c>
       <c r="B332" s="1">
@@ -9254,24 +9464,25 @@
         <v>28</v>
       </c>
       <c r="D332">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>480</v>
       </c>
       <c r="E332">
-        <f t="shared" si="297"/>
+        <f t="shared" si="302"/>
         <v>246864.20000000007</v>
       </c>
       <c r="F332">
-        <f t="shared" si="298"/>
+        <f t="shared" si="303"/>
         <v>222177.78000000006</v>
       </c>
       <c r="G332">
-        <f t="shared" si="299"/>
+        <f t="shared" si="304"/>
         <v>222177.78000000006</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>83</v>
       </c>
       <c r="B333" s="1">
@@ -9281,24 +9492,25 @@
         <v>29</v>
       </c>
       <c r="D333">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>480</v>
       </c>
       <c r="E333">
-        <f t="shared" si="297"/>
+        <f t="shared" si="302"/>
         <v>249332.84200000006</v>
       </c>
       <c r="F333">
-        <f t="shared" si="298"/>
+        <f t="shared" si="303"/>
         <v>224399.55780000007</v>
       </c>
       <c r="G333">
-        <f t="shared" si="299"/>
+        <f t="shared" si="304"/>
         <v>224399.55780000007</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>84</v>
       </c>
       <c r="B334" s="5">
@@ -9308,24 +9520,25 @@
         <v>24</v>
       </c>
       <c r="D334">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>490</v>
       </c>
       <c r="E334">
-        <f t="shared" ref="E334:G334" si="301">E330*1.1</f>
+        <f t="shared" ref="E334:G334" si="306">E330*1.1</f>
         <v>266200.00000000006</v>
       </c>
       <c r="F334">
-        <f t="shared" si="301"/>
+        <f t="shared" si="306"/>
         <v>239580.00000000009</v>
       </c>
       <c r="G334">
-        <f t="shared" si="301"/>
+        <f t="shared" si="306"/>
         <v>239580.00000000009</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>84</v>
       </c>
       <c r="B335" s="3">
@@ -9335,24 +9548,25 @@
         <v>25</v>
       </c>
       <c r="D335">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>490</v>
       </c>
       <c r="E335">
-        <f t="shared" ref="E335:E357" si="302">E334+(E334/100)</f>
+        <f t="shared" ref="E335:E337" si="307">E334+(E334/100)</f>
         <v>268862.00000000006</v>
       </c>
       <c r="F335">
-        <f t="shared" ref="F335:F357" si="303">F334+(F334/100)</f>
+        <f t="shared" ref="F335:F337" si="308">F334+(F334/100)</f>
         <v>241975.80000000008</v>
       </c>
       <c r="G335">
-        <f t="shared" ref="G335:G357" si="304">G334+(G334/100)</f>
+        <f t="shared" ref="G335:G337" si="309">G334+(G334/100)</f>
         <v>241975.80000000008</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>84</v>
       </c>
       <c r="B336" s="3">
@@ -9362,24 +9576,25 @@
         <v>26</v>
       </c>
       <c r="D336">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>490</v>
       </c>
       <c r="E336">
-        <f t="shared" si="302"/>
+        <f t="shared" si="307"/>
         <v>271550.62000000005</v>
       </c>
       <c r="F336">
-        <f t="shared" si="303"/>
+        <f t="shared" si="308"/>
         <v>244395.55800000008</v>
       </c>
       <c r="G336">
-        <f t="shared" si="304"/>
+        <f t="shared" si="309"/>
         <v>244395.55800000008</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>84</v>
       </c>
       <c r="B337" s="3">
@@ -9389,24 +9604,25 @@
         <v>27</v>
       </c>
       <c r="D337">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>490</v>
       </c>
       <c r="E337">
-        <f t="shared" si="302"/>
+        <f t="shared" si="307"/>
         <v>274266.12620000006</v>
       </c>
       <c r="F337">
-        <f t="shared" si="303"/>
+        <f t="shared" si="308"/>
         <v>246839.51358000009</v>
       </c>
       <c r="G337">
-        <f t="shared" si="304"/>
+        <f t="shared" si="309"/>
         <v>246839.51358000009</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>85</v>
       </c>
       <c r="B338" s="4">
@@ -9416,24 +9632,25 @@
         <v>25</v>
       </c>
       <c r="D338">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>500</v>
       </c>
       <c r="E338">
-        <f t="shared" ref="E338:G338" si="305">E334*1.1</f>
+        <f t="shared" ref="E338:G338" si="310">E334*1.1</f>
         <v>292820.00000000012</v>
       </c>
       <c r="F338">
-        <f t="shared" si="305"/>
+        <f t="shared" si="310"/>
         <v>263538.00000000012</v>
       </c>
       <c r="G338">
-        <f t="shared" si="305"/>
+        <f t="shared" si="310"/>
         <v>263538.00000000012</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>85</v>
       </c>
       <c r="B339" s="1">
@@ -9443,24 +9660,25 @@
         <v>26</v>
       </c>
       <c r="D339">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>500</v>
       </c>
       <c r="E339">
-        <f t="shared" ref="E339:E357" si="306">E338+(E338/100)</f>
+        <f t="shared" ref="E339:E341" si="311">E338+(E338/100)</f>
         <v>295748.20000000013</v>
       </c>
       <c r="F339">
-        <f t="shared" ref="F339:F357" si="307">F338+(F338/100)</f>
+        <f t="shared" ref="F339:F341" si="312">F338+(F338/100)</f>
         <v>266173.38000000012</v>
       </c>
       <c r="G339">
-        <f t="shared" ref="G339:G357" si="308">G338+(G338/100)</f>
+        <f t="shared" ref="G339:G341" si="313">G338+(G338/100)</f>
         <v>266173.38000000012</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>85</v>
       </c>
       <c r="B340" s="1">
@@ -9470,24 +9688,25 @@
         <v>27</v>
       </c>
       <c r="D340">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>500</v>
       </c>
       <c r="E340">
-        <f t="shared" si="306"/>
+        <f t="shared" si="311"/>
         <v>298705.68200000015</v>
       </c>
       <c r="F340">
-        <f t="shared" si="307"/>
+        <f t="shared" si="312"/>
         <v>268835.11380000011</v>
       </c>
       <c r="G340">
-        <f t="shared" si="308"/>
+        <f t="shared" si="313"/>
         <v>268835.11380000011</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>85</v>
       </c>
       <c r="B341" s="1">
@@ -9497,24 +9716,25 @@
         <v>28</v>
       </c>
       <c r="D341">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>500</v>
       </c>
       <c r="E341">
-        <f t="shared" si="306"/>
+        <f t="shared" si="311"/>
         <v>301692.73882000014</v>
       </c>
       <c r="F341">
-        <f t="shared" si="307"/>
+        <f t="shared" si="312"/>
         <v>271523.46493800014</v>
       </c>
       <c r="G341">
-        <f t="shared" si="308"/>
+        <f t="shared" si="313"/>
         <v>271523.46493800014</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>86</v>
       </c>
       <c r="B342" s="5">
@@ -9524,24 +9744,25 @@
         <v>26</v>
       </c>
       <c r="D342">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>510</v>
       </c>
       <c r="E342">
-        <f t="shared" ref="E342:G342" si="309">E338*1.1</f>
+        <f t="shared" ref="E342:G342" si="314">E338*1.1</f>
         <v>322102.00000000017</v>
       </c>
       <c r="F342">
-        <f t="shared" si="309"/>
+        <f t="shared" si="314"/>
         <v>289891.80000000016</v>
       </c>
       <c r="G342">
-        <f t="shared" si="309"/>
+        <f t="shared" si="314"/>
         <v>289891.80000000016</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>86</v>
       </c>
       <c r="B343" s="3">
@@ -9551,24 +9772,25 @@
         <v>27</v>
       </c>
       <c r="D343">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>510</v>
       </c>
       <c r="E343">
-        <f t="shared" ref="E343:E357" si="310">E342+(E342/100)</f>
+        <f t="shared" ref="E343:E345" si="315">E342+(E342/100)</f>
         <v>325323.02000000019</v>
       </c>
       <c r="F343">
-        <f t="shared" ref="F343:F357" si="311">F342+(F342/100)</f>
+        <f t="shared" ref="F343:F345" si="316">F342+(F342/100)</f>
         <v>292790.71800000017</v>
       </c>
       <c r="G343">
-        <f t="shared" ref="G343:G357" si="312">G342+(G342/100)</f>
+        <f t="shared" ref="G343:G345" si="317">G342+(G342/100)</f>
         <v>292790.71800000017</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>86</v>
       </c>
       <c r="B344" s="3">
@@ -9578,24 +9800,25 @@
         <v>28</v>
       </c>
       <c r="D344">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>510</v>
       </c>
       <c r="E344">
-        <f t="shared" si="310"/>
+        <f t="shared" si="315"/>
         <v>328576.25020000018</v>
       </c>
       <c r="F344">
-        <f t="shared" si="311"/>
+        <f t="shared" si="316"/>
         <v>295718.62518000015</v>
       </c>
       <c r="G344">
-        <f t="shared" si="312"/>
+        <f t="shared" si="317"/>
         <v>295718.62518000015</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>86</v>
       </c>
       <c r="B345" s="3">
@@ -9605,24 +9828,25 @@
         <v>29</v>
       </c>
       <c r="D345">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>510</v>
       </c>
       <c r="E345">
-        <f t="shared" si="310"/>
+        <f t="shared" si="315"/>
         <v>331862.01270200021</v>
       </c>
       <c r="F345">
-        <f t="shared" si="311"/>
+        <f t="shared" si="316"/>
         <v>298675.81143180013</v>
       </c>
       <c r="G345">
-        <f t="shared" si="312"/>
+        <f t="shared" si="317"/>
         <v>298675.81143180013</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>87</v>
       </c>
       <c r="B346" s="4">
@@ -9632,24 +9856,25 @@
         <v>24</v>
       </c>
       <c r="D346">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>520</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:G346" si="313">E342*1.1</f>
+        <f t="shared" ref="E346:G346" si="318">E342*1.1</f>
         <v>354312.20000000024</v>
       </c>
       <c r="F346">
-        <f t="shared" si="313"/>
+        <f t="shared" si="318"/>
         <v>318880.98000000021</v>
       </c>
       <c r="G346">
-        <f t="shared" si="313"/>
+        <f t="shared" si="318"/>
         <v>318880.98000000021</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>87</v>
       </c>
       <c r="B347" s="1">
@@ -9659,24 +9884,25 @@
         <v>25</v>
       </c>
       <c r="D347">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>520</v>
       </c>
       <c r="E347">
-        <f t="shared" ref="E347:E357" si="314">E346+(E346/100)</f>
+        <f t="shared" ref="E347:E349" si="319">E346+(E346/100)</f>
         <v>357855.32200000022</v>
       </c>
       <c r="F347">
-        <f t="shared" ref="F347:F357" si="315">F346+(F346/100)</f>
+        <f t="shared" ref="F347:F349" si="320">F346+(F346/100)</f>
         <v>322069.7898000002</v>
       </c>
       <c r="G347">
-        <f t="shared" ref="G347:G357" si="316">G346+(G346/100)</f>
+        <f t="shared" ref="G347:G349" si="321">G346+(G346/100)</f>
         <v>322069.7898000002</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>87</v>
       </c>
       <c r="B348" s="1">
@@ -9686,24 +9912,25 @@
         <v>26</v>
       </c>
       <c r="D348">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>520</v>
       </c>
       <c r="E348">
-        <f t="shared" si="314"/>
+        <f t="shared" si="319"/>
         <v>361433.87522000022</v>
       </c>
       <c r="F348">
-        <f t="shared" si="315"/>
+        <f t="shared" si="320"/>
         <v>325290.48769800022</v>
       </c>
       <c r="G348">
-        <f t="shared" si="316"/>
+        <f t="shared" si="321"/>
         <v>325290.48769800022</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>87</v>
       </c>
       <c r="B349" s="1">
@@ -9713,24 +9940,25 @@
         <v>27</v>
       </c>
       <c r="D349">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>520</v>
       </c>
       <c r="E349">
-        <f t="shared" si="314"/>
+        <f t="shared" si="319"/>
         <v>365048.21397220023</v>
       </c>
       <c r="F349">
-        <f t="shared" si="315"/>
+        <f t="shared" si="320"/>
         <v>328543.39257498021</v>
       </c>
       <c r="G349">
-        <f t="shared" si="316"/>
+        <f t="shared" si="321"/>
         <v>328543.39257498021</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>88</v>
       </c>
       <c r="B350" s="5">
@@ -9740,24 +9968,25 @@
         <v>25</v>
       </c>
       <c r="D350">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>530</v>
       </c>
       <c r="E350">
-        <f t="shared" ref="E350:G350" si="317">E346*1.1</f>
+        <f t="shared" ref="E350:G350" si="322">E346*1.1</f>
         <v>389743.42000000027</v>
       </c>
       <c r="F350">
-        <f t="shared" si="317"/>
+        <f t="shared" si="322"/>
         <v>350769.07800000027</v>
       </c>
       <c r="G350">
-        <f t="shared" si="317"/>
+        <f t="shared" si="322"/>
         <v>350769.07800000027</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>88</v>
       </c>
       <c r="B351" s="3">
@@ -9767,24 +9996,25 @@
         <v>26</v>
       </c>
       <c r="D351">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>530</v>
       </c>
       <c r="E351">
-        <f t="shared" ref="E351:E357" si="318">E350+(E350/100)</f>
+        <f t="shared" ref="E351:E353" si="323">E350+(E350/100)</f>
         <v>393640.85420000029</v>
       </c>
       <c r="F351">
-        <f t="shared" ref="F351:F357" si="319">F350+(F350/100)</f>
+        <f t="shared" ref="F351:F353" si="324">F350+(F350/100)</f>
         <v>354276.76878000028</v>
       </c>
       <c r="G351">
-        <f t="shared" ref="G351:G357" si="320">G350+(G350/100)</f>
+        <f t="shared" ref="G351:G353" si="325">G350+(G350/100)</f>
         <v>354276.76878000028</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>88</v>
       </c>
       <c r="B352" s="3">
@@ -9794,24 +10024,25 @@
         <v>27</v>
       </c>
       <c r="D352">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>530</v>
       </c>
       <c r="E352">
-        <f t="shared" si="318"/>
+        <f t="shared" si="323"/>
         <v>397577.26274200028</v>
       </c>
       <c r="F352">
-        <f t="shared" si="319"/>
+        <f t="shared" si="324"/>
         <v>357819.53646780027</v>
       </c>
       <c r="G352">
-        <f t="shared" si="320"/>
+        <f t="shared" si="325"/>
         <v>357819.53646780027</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>88</v>
       </c>
       <c r="B353" s="3">
@@ -9821,18 +10052,19 @@
         <v>28</v>
       </c>
       <c r="D353">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>530</v>
       </c>
       <c r="E353">
-        <f t="shared" si="318"/>
+        <f t="shared" si="323"/>
         <v>401553.03536942031</v>
       </c>
       <c r="F353">
-        <f t="shared" si="319"/>
+        <f t="shared" si="324"/>
         <v>361397.73183247825</v>
       </c>
       <c r="G353">
-        <f t="shared" si="320"/>
+        <f t="shared" si="325"/>
         <v>361397.73183247825</v>
       </c>
     </row>
@@ -9848,24 +10080,25 @@
         <v>26</v>
       </c>
       <c r="D354">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>540</v>
       </c>
       <c r="E354">
-        <f t="shared" ref="E354:G354" si="321">E350*1.1</f>
+        <f t="shared" ref="E354:G354" si="326">E350*1.1</f>
         <v>428717.76200000034</v>
       </c>
       <c r="F354">
-        <f t="shared" si="321"/>
+        <f t="shared" si="326"/>
         <v>385845.98580000032</v>
       </c>
       <c r="G354">
-        <f t="shared" si="321"/>
+        <f t="shared" si="326"/>
         <v>385845.98580000032</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>89</v>
       </c>
       <c r="B355" s="1">
@@ -9875,24 +10108,25 @@
         <v>27</v>
       </c>
       <c r="D355">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>540</v>
       </c>
       <c r="E355">
-        <f t="shared" ref="E355:E357" si="322">E354+(E354/100)</f>
+        <f t="shared" ref="E355:E357" si="327">E354+(E354/100)</f>
         <v>433004.93962000037</v>
       </c>
       <c r="F355">
-        <f t="shared" ref="F355:F357" si="323">F354+(F354/100)</f>
+        <f t="shared" ref="F355:F357" si="328">F354+(F354/100)</f>
         <v>389704.4456580003</v>
       </c>
       <c r="G355">
-        <f t="shared" ref="G355:G357" si="324">G354+(G354/100)</f>
+        <f t="shared" ref="G355:G357" si="329">G354+(G354/100)</f>
         <v>389704.4456580003</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>89</v>
       </c>
       <c r="B356" s="1">
@@ -9902,24 +10136,25 @@
         <v>28</v>
       </c>
       <c r="D356">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>540</v>
       </c>
       <c r="E356">
-        <f t="shared" si="322"/>
+        <f t="shared" si="327"/>
         <v>437334.98901620036</v>
       </c>
       <c r="F356">
-        <f t="shared" si="323"/>
+        <f t="shared" si="328"/>
         <v>393601.49011458032</v>
       </c>
       <c r="G356">
-        <f t="shared" si="324"/>
+        <f t="shared" si="329"/>
         <v>393601.49011458032</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>89</v>
       </c>
       <c r="B357" s="1">
@@ -9929,18 +10164,19 @@
         <v>29</v>
       </c>
       <c r="D357">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>540</v>
       </c>
       <c r="E357">
-        <f t="shared" si="322"/>
+        <f t="shared" si="327"/>
         <v>441708.33890636236</v>
       </c>
       <c r="F357">
-        <f t="shared" si="323"/>
+        <f t="shared" si="328"/>
         <v>397537.50501572614</v>
       </c>
       <c r="G357">
-        <f t="shared" si="324"/>
+        <f t="shared" si="329"/>
         <v>397537.50501572614</v>
       </c>
     </row>
@@ -9957,7 +10193,8 @@
         <v>42</v>
       </c>
       <c r="D358">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>550</v>
       </c>
       <c r="E358">
         <v>450000</v>
@@ -9971,18 +10208,19 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>90</v>
       </c>
       <c r="B359" s="2">
         <v>1</v>
       </c>
       <c r="C359">
-        <f t="shared" ref="C359:C361" si="325">C319+3</f>
+        <f t="shared" ref="C359:C361" si="330">C319+3</f>
         <v>42</v>
       </c>
       <c r="D359">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>550</v>
       </c>
       <c r="E359">
         <v>450000</v>
@@ -9996,18 +10234,19 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>90</v>
       </c>
       <c r="B360" s="2">
         <v>2</v>
       </c>
       <c r="C360">
-        <f t="shared" si="325"/>
+        <f t="shared" si="330"/>
         <v>42</v>
       </c>
       <c r="D360">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>550</v>
       </c>
       <c r="E360">
         <v>450000</v>
@@ -10021,18 +10260,19 @@
     </row>
     <row r="361" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>90</v>
       </c>
       <c r="B361" s="2">
         <v>3</v>
       </c>
       <c r="C361">
-        <f t="shared" si="325"/>
+        <f t="shared" si="330"/>
         <v>42</v>
       </c>
       <c r="D361">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>550</v>
       </c>
       <c r="E361">
         <v>450000</v>
@@ -10046,7 +10286,7 @@
     </row>
     <row r="362" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>91</v>
       </c>
       <c r="B362" s="4">
@@ -10056,7 +10296,8 @@
         <v>24</v>
       </c>
       <c r="D362">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>560</v>
       </c>
       <c r="E362">
         <v>450000</v>
@@ -10070,7 +10311,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>91</v>
       </c>
       <c r="B363" s="1">
@@ -10080,24 +10321,25 @@
         <v>25</v>
       </c>
       <c r="D363">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>560</v>
       </c>
       <c r="E363">
-        <f t="shared" ref="E363:E365" si="326">E362+(E362/100)</f>
+        <f t="shared" ref="E363:E365" si="331">E362+(E362/100)</f>
         <v>454500</v>
       </c>
       <c r="F363">
-        <f t="shared" ref="F363:F365" si="327">F362+(F362/100)</f>
+        <f t="shared" ref="F363:F365" si="332">F362+(F362/100)</f>
         <v>404000</v>
       </c>
       <c r="G363">
-        <f t="shared" ref="G363:G365" si="328">G362+(G362/100)</f>
+        <f t="shared" ref="G363:G365" si="333">G362+(G362/100)</f>
         <v>404000</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>91</v>
       </c>
       <c r="B364" s="1">
@@ -10107,24 +10349,25 @@
         <v>26</v>
       </c>
       <c r="D364">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>560</v>
       </c>
       <c r="E364">
-        <f t="shared" si="326"/>
+        <f t="shared" si="331"/>
         <v>459045</v>
       </c>
       <c r="F364">
-        <f t="shared" si="327"/>
+        <f t="shared" si="332"/>
         <v>408040</v>
       </c>
       <c r="G364">
-        <f t="shared" si="328"/>
+        <f t="shared" si="333"/>
         <v>408040</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>91</v>
       </c>
       <c r="B365" s="1">
@@ -10134,24 +10377,25 @@
         <v>27</v>
       </c>
       <c r="D365">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>560</v>
       </c>
       <c r="E365">
-        <f t="shared" si="326"/>
+        <f t="shared" si="331"/>
         <v>463635.45</v>
       </c>
       <c r="F365">
-        <f t="shared" si="327"/>
+        <f t="shared" si="332"/>
         <v>412120.4</v>
       </c>
       <c r="G365">
-        <f t="shared" si="328"/>
+        <f t="shared" si="333"/>
         <v>412120.4</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>92</v>
       </c>
       <c r="B366" s="5">
@@ -10161,24 +10405,25 @@
         <v>25</v>
       </c>
       <c r="D366">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>570</v>
       </c>
       <c r="E366">
-        <f t="shared" ref="E366:G366" si="329">E362*1.1</f>
+        <f t="shared" ref="E366:G366" si="334">E362*1.1</f>
         <v>495000.00000000006</v>
       </c>
       <c r="F366">
-        <f t="shared" si="329"/>
+        <f t="shared" si="334"/>
         <v>440000.00000000006</v>
       </c>
       <c r="G366">
-        <f t="shared" si="329"/>
+        <f t="shared" si="334"/>
         <v>440000.00000000006</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>92</v>
       </c>
       <c r="B367" s="3">
@@ -10188,24 +10433,25 @@
         <v>26</v>
       </c>
       <c r="D367">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>570</v>
       </c>
       <c r="E367">
-        <f t="shared" ref="E367:E369" si="330">E366+(E366/100)</f>
+        <f t="shared" ref="E367:E369" si="335">E366+(E366/100)</f>
         <v>499950.00000000006</v>
       </c>
       <c r="F367">
-        <f t="shared" ref="F367:F369" si="331">F366+(F366/100)</f>
+        <f t="shared" ref="F367:F369" si="336">F366+(F366/100)</f>
         <v>444400.00000000006</v>
       </c>
       <c r="G367">
-        <f t="shared" ref="G367:G369" si="332">G366+(G366/100)</f>
+        <f t="shared" ref="G367:G369" si="337">G366+(G366/100)</f>
         <v>444400.00000000006</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>92</v>
       </c>
       <c r="B368" s="3">
@@ -10215,24 +10461,25 @@
         <v>27</v>
       </c>
       <c r="D368">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>570</v>
       </c>
       <c r="E368">
-        <f t="shared" si="330"/>
+        <f t="shared" si="335"/>
         <v>504949.50000000006</v>
       </c>
       <c r="F368">
-        <f t="shared" si="331"/>
+        <f t="shared" si="336"/>
         <v>448844.00000000006</v>
       </c>
       <c r="G368">
-        <f t="shared" si="332"/>
+        <f t="shared" si="337"/>
         <v>448844.00000000006</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>92</v>
       </c>
       <c r="B369" s="3">
@@ -10242,24 +10489,25 @@
         <v>28</v>
       </c>
       <c r="D369">
-        <v>30</v>
+        <f t="shared" si="301"/>
+        <v>570</v>
       </c>
       <c r="E369">
-        <f t="shared" si="330"/>
+        <f t="shared" si="335"/>
         <v>509998.99500000005</v>
       </c>
       <c r="F369">
-        <f t="shared" si="331"/>
+        <f t="shared" si="336"/>
         <v>453332.44000000006</v>
       </c>
       <c r="G369">
-        <f t="shared" si="332"/>
+        <f t="shared" si="337"/>
         <v>453332.44000000006</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>93</v>
       </c>
       <c r="B370" s="4">
@@ -10269,24 +10517,25 @@
         <v>26</v>
       </c>
       <c r="D370">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>580</v>
       </c>
       <c r="E370">
-        <f t="shared" ref="E370:G370" si="333">E366*1.1</f>
+        <f t="shared" ref="E370:G370" si="338">E366*1.1</f>
         <v>544500.00000000012</v>
       </c>
       <c r="F370">
-        <f t="shared" si="333"/>
+        <f t="shared" si="338"/>
         <v>484000.00000000012</v>
       </c>
       <c r="G370">
-        <f t="shared" si="333"/>
+        <f t="shared" si="338"/>
         <v>484000.00000000012</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>93</v>
       </c>
       <c r="B371" s="1">
@@ -10296,24 +10545,25 @@
         <v>27</v>
       </c>
       <c r="D371">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>580</v>
       </c>
       <c r="E371">
-        <f t="shared" ref="E371:E397" si="334">E370+(E370/100)</f>
+        <f t="shared" ref="E371:E373" si="339">E370+(E370/100)</f>
         <v>549945.00000000012</v>
       </c>
       <c r="F371">
-        <f t="shared" ref="F371:F397" si="335">F370+(F370/100)</f>
+        <f t="shared" ref="F371:F373" si="340">F370+(F370/100)</f>
         <v>488840.00000000012</v>
       </c>
       <c r="G371">
-        <f t="shared" ref="G371:G397" si="336">G370+(G370/100)</f>
+        <f t="shared" ref="G371:G373" si="341">G370+(G370/100)</f>
         <v>488840.00000000012</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>93</v>
       </c>
       <c r="B372" s="1">
@@ -10323,24 +10573,25 @@
         <v>28</v>
       </c>
       <c r="D372">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>580</v>
       </c>
       <c r="E372">
-        <f t="shared" si="334"/>
+        <f t="shared" si="339"/>
         <v>555444.45000000007</v>
       </c>
       <c r="F372">
-        <f t="shared" si="335"/>
+        <f t="shared" si="340"/>
         <v>493728.40000000014</v>
       </c>
       <c r="G372">
-        <f t="shared" si="336"/>
+        <f t="shared" si="341"/>
         <v>493728.40000000014</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>93</v>
       </c>
       <c r="B373" s="1">
@@ -10350,24 +10601,25 @@
         <v>29</v>
       </c>
       <c r="D373">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>580</v>
       </c>
       <c r="E373">
-        <f t="shared" si="334"/>
+        <f t="shared" si="339"/>
         <v>560998.89450000005</v>
       </c>
       <c r="F373">
-        <f t="shared" si="335"/>
+        <f t="shared" si="340"/>
         <v>498665.68400000012</v>
       </c>
       <c r="G373">
-        <f t="shared" si="336"/>
+        <f t="shared" si="341"/>
         <v>498665.68400000012</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>94</v>
       </c>
       <c r="B374" s="5">
@@ -10377,24 +10629,25 @@
         <v>24</v>
       </c>
       <c r="D374">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>590</v>
       </c>
       <c r="E374">
-        <f t="shared" ref="E374:G374" si="337">E370*1.1</f>
+        <f t="shared" ref="E374:G374" si="342">E370*1.1</f>
         <v>598950.00000000023</v>
       </c>
       <c r="F374">
-        <f t="shared" si="337"/>
+        <f t="shared" si="342"/>
         <v>532400.00000000012</v>
       </c>
       <c r="G374">
-        <f t="shared" si="337"/>
+        <f t="shared" si="342"/>
         <v>532400.00000000012</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>94</v>
       </c>
       <c r="B375" s="3">
@@ -10404,24 +10657,25 @@
         <v>25</v>
       </c>
       <c r="D375">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>590</v>
       </c>
       <c r="E375">
-        <f t="shared" ref="E375:E397" si="338">E374+(E374/100)</f>
+        <f t="shared" ref="E375:E377" si="343">E374+(E374/100)</f>
         <v>604939.50000000023</v>
       </c>
       <c r="F375">
-        <f t="shared" ref="F375:F397" si="339">F374+(F374/100)</f>
+        <f t="shared" ref="F375:F377" si="344">F374+(F374/100)</f>
         <v>537724.00000000012</v>
       </c>
       <c r="G375">
-        <f t="shared" ref="G375:G397" si="340">G374+(G374/100)</f>
+        <f t="shared" ref="G375:G377" si="345">G374+(G374/100)</f>
         <v>537724.00000000012</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>94</v>
       </c>
       <c r="B376" s="3">
@@ -10431,24 +10685,25 @@
         <v>26</v>
       </c>
       <c r="D376">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>590</v>
       </c>
       <c r="E376">
-        <f t="shared" si="338"/>
+        <f t="shared" si="343"/>
         <v>610988.89500000025</v>
       </c>
       <c r="F376">
-        <f t="shared" si="339"/>
+        <f t="shared" si="344"/>
         <v>543101.24000000011</v>
       </c>
       <c r="G376">
-        <f t="shared" si="340"/>
+        <f t="shared" si="345"/>
         <v>543101.24000000011</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>94</v>
       </c>
       <c r="B377" s="3">
@@ -10458,24 +10713,25 @@
         <v>27</v>
       </c>
       <c r="D377">
-        <v>35</v>
+        <f t="shared" si="301"/>
+        <v>590</v>
       </c>
       <c r="E377">
-        <f t="shared" si="338"/>
+        <f t="shared" si="343"/>
         <v>617098.7839500003</v>
       </c>
       <c r="F377">
-        <f t="shared" si="339"/>
+        <f t="shared" si="344"/>
         <v>548532.25240000011</v>
       </c>
       <c r="G377">
-        <f t="shared" si="340"/>
+        <f t="shared" si="345"/>
         <v>548532.25240000011</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>95</v>
       </c>
       <c r="B378" s="4">
@@ -10485,24 +10741,25 @@
         <v>25</v>
       </c>
       <c r="D378">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>600</v>
       </c>
       <c r="E378">
-        <f t="shared" ref="E378:G378" si="341">E374*1.1</f>
+        <f t="shared" ref="E378:G378" si="346">E374*1.1</f>
         <v>658845.00000000035</v>
       </c>
       <c r="F378">
-        <f t="shared" si="341"/>
+        <f t="shared" si="346"/>
         <v>585640.00000000023</v>
       </c>
       <c r="G378">
-        <f t="shared" si="341"/>
+        <f t="shared" si="346"/>
         <v>585640.00000000023</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>95</v>
       </c>
       <c r="B379" s="1">
@@ -10512,24 +10769,25 @@
         <v>26</v>
       </c>
       <c r="D379">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>600</v>
       </c>
       <c r="E379">
-        <f t="shared" ref="E379:E397" si="342">E378+(E378/100)</f>
+        <f t="shared" ref="E379:E381" si="347">E378+(E378/100)</f>
         <v>665433.4500000003</v>
       </c>
       <c r="F379">
-        <f t="shared" ref="F379:F397" si="343">F378+(F378/100)</f>
+        <f t="shared" ref="F379:F381" si="348">F378+(F378/100)</f>
         <v>591496.40000000026</v>
       </c>
       <c r="G379">
-        <f t="shared" ref="G379:G397" si="344">G378+(G378/100)</f>
+        <f t="shared" ref="G379:G381" si="349">G378+(G378/100)</f>
         <v>591496.40000000026</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>95</v>
       </c>
       <c r="B380" s="1">
@@ -10539,24 +10797,25 @@
         <v>27</v>
       </c>
       <c r="D380">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>600</v>
       </c>
       <c r="E380">
-        <f t="shared" si="342"/>
+        <f t="shared" si="347"/>
         <v>672087.7845000003</v>
       </c>
       <c r="F380">
-        <f t="shared" si="343"/>
+        <f t="shared" si="348"/>
         <v>597411.36400000029</v>
       </c>
       <c r="G380">
-        <f t="shared" si="344"/>
+        <f t="shared" si="349"/>
         <v>597411.36400000029</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>95</v>
       </c>
       <c r="B381" s="1">
@@ -10566,24 +10825,25 @@
         <v>28</v>
       </c>
       <c r="D381">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>600</v>
       </c>
       <c r="E381">
-        <f t="shared" si="342"/>
+        <f t="shared" si="347"/>
         <v>678808.66234500031</v>
       </c>
       <c r="F381">
-        <f t="shared" si="343"/>
+        <f t="shared" si="348"/>
         <v>603385.47764000029</v>
       </c>
       <c r="G381">
-        <f t="shared" si="344"/>
+        <f t="shared" si="349"/>
         <v>603385.47764000029</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>96</v>
       </c>
       <c r="B382" s="5">
@@ -10593,24 +10853,25 @@
         <v>26</v>
       </c>
       <c r="D382">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>610</v>
       </c>
       <c r="E382">
-        <f t="shared" ref="E382:G382" si="345">E378*1.1</f>
+        <f t="shared" ref="E382:G382" si="350">E378*1.1</f>
         <v>724729.50000000047</v>
       </c>
       <c r="F382">
-        <f t="shared" si="345"/>
+        <f t="shared" si="350"/>
         <v>644204.00000000035</v>
       </c>
       <c r="G382">
-        <f t="shared" si="345"/>
+        <f t="shared" si="350"/>
         <v>644204.00000000035</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>96</v>
       </c>
       <c r="B383" s="3">
@@ -10620,24 +10881,25 @@
         <v>27</v>
       </c>
       <c r="D383">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>610</v>
       </c>
       <c r="E383">
-        <f t="shared" ref="E383:E397" si="346">E382+(E382/100)</f>
+        <f t="shared" ref="E383:E385" si="351">E382+(E382/100)</f>
         <v>731976.79500000051</v>
       </c>
       <c r="F383">
-        <f t="shared" ref="F383:F397" si="347">F382+(F382/100)</f>
+        <f t="shared" ref="F383:F385" si="352">F382+(F382/100)</f>
         <v>650646.04000000039</v>
       </c>
       <c r="G383">
-        <f t="shared" ref="G383:G397" si="348">G382+(G382/100)</f>
+        <f t="shared" ref="G383:G385" si="353">G382+(G382/100)</f>
         <v>650646.04000000039</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>96</v>
       </c>
       <c r="B384" s="3">
@@ -10647,24 +10909,25 @@
         <v>28</v>
       </c>
       <c r="D384">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>610</v>
       </c>
       <c r="E384">
-        <f t="shared" si="346"/>
+        <f t="shared" si="351"/>
         <v>739296.56295000052</v>
       </c>
       <c r="F384">
-        <f t="shared" si="347"/>
+        <f t="shared" si="352"/>
         <v>657152.50040000037</v>
       </c>
       <c r="G384">
-        <f t="shared" si="348"/>
+        <f t="shared" si="353"/>
         <v>657152.50040000037</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>96</v>
       </c>
       <c r="B385" s="3">
@@ -10674,24 +10937,25 @@
         <v>29</v>
       </c>
       <c r="D385">
-        <v>40</v>
+        <f t="shared" si="301"/>
+        <v>610</v>
       </c>
       <c r="E385">
-        <f t="shared" si="346"/>
+        <f t="shared" si="351"/>
         <v>746689.5285795005</v>
       </c>
       <c r="F385">
-        <f t="shared" si="347"/>
+        <f t="shared" si="352"/>
         <v>663724.02540400042</v>
       </c>
       <c r="G385">
-        <f t="shared" si="348"/>
+        <f t="shared" si="353"/>
         <v>663724.02540400042</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>97</v>
       </c>
       <c r="B386" s="4">
@@ -10701,24 +10965,25 @@
         <v>24</v>
       </c>
       <c r="D386">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>620</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:G386" si="349">E382*1.1</f>
+        <f t="shared" ref="E386:G386" si="354">E382*1.1</f>
         <v>797202.45000000054</v>
       </c>
       <c r="F386">
-        <f t="shared" si="349"/>
+        <f t="shared" si="354"/>
         <v>708624.40000000049</v>
       </c>
       <c r="G386">
-        <f t="shared" si="349"/>
+        <f t="shared" si="354"/>
         <v>708624.40000000049</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>97</v>
       </c>
       <c r="B387" s="1">
@@ -10728,24 +10993,25 @@
         <v>25</v>
       </c>
       <c r="D387">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>620</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E397" si="350">E386+(E386/100)</f>
+        <f t="shared" ref="E387:E389" si="355">E386+(E386/100)</f>
         <v>805174.47450000059</v>
       </c>
       <c r="F387">
-        <f t="shared" ref="F387:F397" si="351">F386+(F386/100)</f>
+        <f t="shared" ref="F387:F389" si="356">F386+(F386/100)</f>
         <v>715710.64400000044</v>
       </c>
       <c r="G387">
-        <f t="shared" ref="G387:G397" si="352">G386+(G386/100)</f>
+        <f t="shared" ref="G387:G389" si="357">G386+(G386/100)</f>
         <v>715710.64400000044</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>97</v>
       </c>
       <c r="B388" s="1">
@@ -10755,24 +11021,25 @@
         <v>26</v>
       </c>
       <c r="D388">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>620</v>
       </c>
       <c r="E388">
-        <f t="shared" si="350"/>
+        <f t="shared" si="355"/>
         <v>813226.21924500063</v>
       </c>
       <c r="F388">
-        <f t="shared" si="351"/>
+        <f t="shared" si="356"/>
         <v>722867.75044000044</v>
       </c>
       <c r="G388">
-        <f t="shared" si="352"/>
+        <f t="shared" si="357"/>
         <v>722867.75044000044</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>97</v>
       </c>
       <c r="B389" s="1">
@@ -10782,24 +11049,25 @@
         <v>27</v>
       </c>
       <c r="D389">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>620</v>
       </c>
       <c r="E389">
-        <f t="shared" si="350"/>
+        <f t="shared" si="355"/>
         <v>821358.48143745062</v>
       </c>
       <c r="F389">
-        <f t="shared" si="351"/>
+        <f t="shared" si="356"/>
         <v>730096.42794440046</v>
       </c>
       <c r="G389">
-        <f t="shared" si="352"/>
+        <f t="shared" si="357"/>
         <v>730096.42794440046</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>98</v>
       </c>
       <c r="B390" s="5">
@@ -10809,24 +11077,25 @@
         <v>25</v>
       </c>
       <c r="D390">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>630</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:G390" si="353">E386*1.1</f>
+        <f t="shared" ref="E390:G390" si="358">E386*1.1</f>
         <v>876922.69500000065</v>
       </c>
       <c r="F390">
-        <f t="shared" si="353"/>
+        <f t="shared" si="358"/>
         <v>779486.84000000055</v>
       </c>
       <c r="G390">
-        <f t="shared" si="353"/>
+        <f t="shared" si="358"/>
         <v>779486.84000000055</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>98</v>
       </c>
       <c r="B391" s="3">
@@ -10836,24 +11105,25 @@
         <v>26</v>
       </c>
       <c r="D391">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>630</v>
       </c>
       <c r="E391">
-        <f t="shared" ref="E391:E397" si="354">E390+(E390/100)</f>
+        <f t="shared" ref="E391:E393" si="359">E390+(E390/100)</f>
         <v>885691.92195000069</v>
       </c>
       <c r="F391">
-        <f t="shared" ref="F391:F397" si="355">F390+(F390/100)</f>
+        <f t="shared" ref="F391:F393" si="360">F390+(F390/100)</f>
         <v>787281.70840000059</v>
       </c>
       <c r="G391">
-        <f t="shared" ref="G391:G397" si="356">G390+(G390/100)</f>
+        <f t="shared" ref="G391:G393" si="361">G390+(G390/100)</f>
         <v>787281.70840000059</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>98</v>
       </c>
       <c r="B392" s="3">
@@ -10863,24 +11133,25 @@
         <v>27</v>
       </c>
       <c r="D392">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>630</v>
       </c>
       <c r="E392">
-        <f t="shared" si="354"/>
+        <f t="shared" si="359"/>
         <v>894548.84116950072</v>
       </c>
       <c r="F392">
-        <f t="shared" si="355"/>
+        <f t="shared" si="360"/>
         <v>795154.52548400057</v>
       </c>
       <c r="G392">
-        <f t="shared" si="356"/>
+        <f t="shared" si="361"/>
         <v>795154.52548400057</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>98</v>
       </c>
       <c r="B393" s="3">
@@ -10890,18 +11161,19 @@
         <v>28</v>
       </c>
       <c r="D393">
-        <v>45</v>
+        <f t="shared" si="301"/>
+        <v>630</v>
       </c>
       <c r="E393">
-        <f t="shared" si="354"/>
+        <f t="shared" si="359"/>
         <v>903494.32958119572</v>
       </c>
       <c r="F393">
-        <f t="shared" si="355"/>
+        <f t="shared" si="360"/>
         <v>803106.07073884062</v>
       </c>
       <c r="G393">
-        <f t="shared" si="356"/>
+        <f t="shared" si="361"/>
         <v>803106.07073884062</v>
       </c>
     </row>
@@ -10917,24 +11189,25 @@
         <v>26</v>
       </c>
       <c r="D394">
-        <v>50</v>
+        <f t="shared" si="301"/>
+        <v>640</v>
       </c>
       <c r="E394">
-        <f t="shared" ref="E394:G394" si="357">E390*1.1</f>
+        <f t="shared" ref="E394:G394" si="362">E390*1.1</f>
         <v>964614.96450000082</v>
       </c>
       <c r="F394">
-        <f t="shared" si="357"/>
+        <f t="shared" si="362"/>
         <v>857435.52400000067</v>
       </c>
       <c r="G394">
-        <f t="shared" si="357"/>
+        <f t="shared" si="362"/>
         <v>857435.52400000067</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" si="305"/>
         <v>99</v>
       </c>
       <c r="B395" s="1">
@@ -10944,24 +11217,25 @@
         <v>27</v>
       </c>
       <c r="D395">
-        <v>50</v>
+        <f t="shared" ref="D395:D401" si="363">D391+10</f>
+        <v>640</v>
       </c>
       <c r="E395">
-        <f t="shared" ref="E395:E397" si="358">E394+(E394/100)</f>
+        <f t="shared" ref="E395:E397" si="364">E394+(E394/100)</f>
         <v>974261.11414500081</v>
       </c>
       <c r="F395">
-        <f t="shared" ref="F395:F397" si="359">F394+(F394/100)</f>
+        <f t="shared" ref="F395:F397" si="365">F394+(F394/100)</f>
         <v>866009.87924000074</v>
       </c>
       <c r="G395">
-        <f t="shared" ref="G395:G397" si="360">G394+(G394/100)</f>
+        <f t="shared" ref="G395:G397" si="366">G394+(G394/100)</f>
         <v>866009.87924000074</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f t="shared" ref="A396:A401" si="361">A392+1</f>
+        <f t="shared" ref="A396:A401" si="367">A392+1</f>
         <v>99</v>
       </c>
       <c r="B396" s="1">
@@ -10971,24 +11245,25 @@
         <v>28</v>
       </c>
       <c r="D396">
-        <v>50</v>
+        <f t="shared" si="363"/>
+        <v>640</v>
       </c>
       <c r="E396">
-        <f t="shared" si="358"/>
+        <f t="shared" si="364"/>
         <v>984003.72528645082</v>
       </c>
       <c r="F396">
-        <f t="shared" si="359"/>
+        <f t="shared" si="365"/>
         <v>874669.97803240072</v>
       </c>
       <c r="G396">
-        <f t="shared" si="360"/>
+        <f t="shared" si="366"/>
         <v>874669.97803240072</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
-        <f t="shared" si="361"/>
+        <f t="shared" si="367"/>
         <v>99</v>
       </c>
       <c r="B397" s="1">
@@ -10998,18 +11273,19 @@
         <v>29</v>
       </c>
       <c r="D397">
-        <v>50</v>
+        <f t="shared" si="363"/>
+        <v>640</v>
       </c>
       <c r="E397">
-        <f t="shared" si="358"/>
+        <f t="shared" si="364"/>
         <v>993843.76253931527</v>
       </c>
       <c r="F397">
-        <f t="shared" si="359"/>
+        <f t="shared" si="365"/>
         <v>883416.67781272472</v>
       </c>
       <c r="G397">
-        <f t="shared" si="360"/>
+        <f t="shared" si="366"/>
         <v>883416.67781272472</v>
       </c>
     </row>
@@ -11026,7 +11302,8 @@
         <v>45</v>
       </c>
       <c r="D398">
-        <v>50</v>
+        <f t="shared" si="363"/>
+        <v>650</v>
       </c>
       <c r="E398">
         <v>1000000</v>
@@ -11040,18 +11317,19 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
-        <f t="shared" si="361"/>
+        <f t="shared" si="367"/>
         <v>100</v>
       </c>
       <c r="B399" s="2">
         <v>1</v>
       </c>
       <c r="C399">
-        <f t="shared" ref="C399:C401" si="362">C359+3</f>
+        <f t="shared" ref="C399:C401" si="368">C359+3</f>
         <v>45</v>
       </c>
       <c r="D399">
-        <v>50</v>
+        <f t="shared" si="363"/>
+        <v>650</v>
       </c>
       <c r="E399">
         <v>1000000</v>
@@ -11065,18 +11343,19 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
-        <f t="shared" si="361"/>
+        <f t="shared" si="367"/>
         <v>100</v>
       </c>
       <c r="B400" s="2">
         <v>2</v>
       </c>
       <c r="C400">
-        <f t="shared" si="362"/>
+        <f t="shared" si="368"/>
         <v>45</v>
       </c>
       <c r="D400">
-        <v>50</v>
+        <f t="shared" si="363"/>
+        <v>650</v>
       </c>
       <c r="E400">
         <v>1000000</v>
@@ -11090,18 +11369,19 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
-        <f t="shared" si="361"/>
+        <f t="shared" si="367"/>
         <v>100</v>
       </c>
       <c r="B401" s="2">
         <v>3</v>
       </c>
       <c r="C401">
-        <f t="shared" si="362"/>
+        <f t="shared" si="368"/>
         <v>45</v>
       </c>
       <c r="D401">
-        <v>50</v>
+        <f t="shared" si="363"/>
+        <v>650</v>
       </c>
       <c r="E401">
         <v>1000000</v>
